--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C30F74-0BE6-4CD4-9860-C4284F1E245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5B2F8-D2DB-44FE-B396-58E4BAD8BB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>.NET 6</t>
     <phoneticPr fontId="1"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Visual Studio 2024?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>.NET 9</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,6 +215,44 @@
     <t>黄：過去の製品のサポート期間やニュースから予測 / Yellow: Forecast based on past product life cycle and news</t>
     <rPh sb="12" eb="14">
       <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R19年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2025年10月14日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2032年1月13日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2024年11月12日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026年5月?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2028年11月?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio 2025?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R20年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -316,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -486,76 +520,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -666,7 +640,167 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
         <color indexed="64"/>
       </left>
       <right/>
@@ -680,55 +814,123 @@
     </border>
     <border>
       <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="dashed">
@@ -737,13 +939,39 @@
       <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -782,35 +1010,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -822,55 +1034,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -879,59 +1085,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1225,827 +1531,904 @@
     <col min="2" max="2" width="5.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="5.625" style="2" customWidth="1"/>
-    <col min="8" max="15" width="6.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="5" max="18" width="6.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="2.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:16">
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+    <row r="1" spans="1:20" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:20">
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="D3" s="22" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" thickBot="1">
+      <c r="D3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B4" s="60" t="s">
+      <c r="Q3" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="21">
+      <c r="C4" s="90"/>
+      <c r="D4" s="76">
         <v>2024</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="49">
         <v>2025</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="49">
         <v>2026</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="49">
         <v>2027</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="49">
         <v>2028</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="49">
         <v>2029</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="49">
         <v>2030</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="49">
         <v>2031</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="49">
         <v>2032</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="49">
         <v>2033</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="49">
         <v>2034</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="49">
         <v>2035</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="49">
         <v>2036</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B5" s="29"/>
+      <c r="Q4" s="49">
+        <v>2037</v>
+      </c>
+      <c r="R4" s="20">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B5" s="23"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1">
-      <c r="B6" s="56" t="s">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B6" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B7" s="31"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="36"/>
+      <c r="L6" s="59"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B7" s="25"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B8" s="32"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="36"/>
+      <c r="L7" s="59"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B8" s="26"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1">
-      <c r="B9" s="56" t="s">
+      <c r="L8" s="59"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B9" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="5"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="13"/>
+      <c r="T9" s="50">
+        <v>48223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B10" s="25"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="5"/>
+      <c r="L10" s="59"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="B12" s="62" t="s">
+      <c r="L11" s="59"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B12" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B13" s="30"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="73"/>
+      <c r="T12" s="50">
+        <v>49869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B13" s="24"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B14" s="29"/>
+      <c r="L13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="79"/>
+    </row>
+    <row r="14" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B14" s="23"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1">
-      <c r="B15" s="56" t="s">
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="80"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" ht="5.0999999999999996" customHeight="1">
+      <c r="L15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="79"/>
+      <c r="T15" s="50">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16" ht="5.0999999999999996" customHeight="1">
+      <c r="L16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="79"/>
+    </row>
+    <row r="17" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:16" ht="18.75" customHeight="1">
-      <c r="B18" s="56" t="s">
+      <c r="L17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="79"/>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B18" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16" ht="5.0999999999999996" customHeight="1">
+      <c r="L18" s="62"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="13"/>
+      <c r="T18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" ht="5.0999999999999996" customHeight="1">
+      <c r="L19" s="59"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1">
-      <c r="B21" s="56" t="s">
+      <c r="L20" s="59"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B21" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="31"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B23" s="32"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1">
-      <c r="B24" s="56" t="s">
+      <c r="L21" s="59"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="13"/>
+      <c r="T21" s="50">
+        <v>46490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="60"/>
+      <c r="L22" s="59"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="60"/>
+      <c r="L23" s="59"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B24" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B25" s="31"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B26" s="32"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1">
-      <c r="B27" s="56" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="L24" s="59"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="13"/>
+      <c r="T24" s="50">
+        <v>47218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="L25" s="59"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B26" s="26"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="L26" s="59"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" customHeight="1">
+      <c r="B27" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B28" s="31"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="5"/>
-      <c r="L28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="13"/>
-    </row>
-    <row r="29" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B29" s="32"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="5"/>
-      <c r="L29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="1:16" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B30" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B32" s="30"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="13"/>
+      <c r="T27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B28" s="25"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="L28" s="59"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="L29" s="63"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:20" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B30" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="86"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="74"/>
+      <c r="T30" s="50">
+        <v>50234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B31" s="27"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="L31" s="64"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B32" s="24"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B33" s="56" t="s">
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B33" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="52"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
-      <c r="M33" s="5"/>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B34" s="31"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
+      <c r="L33" s="59"/>
+      <c r="R33" s="13"/>
+      <c r="T33" s="50">
+        <v>47127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B34" s="25"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="P34" s="13"/>
-    </row>
-    <row r="35" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B35" s="32"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
+      <c r="L34" s="59"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B35" s="26"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B36" s="56" t="s">
+      <c r="L35" s="59"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B36" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="4"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="47"/>
       <c r="I36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B37" s="31"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
+      <c r="L36" s="59"/>
+      <c r="R36" s="13"/>
+      <c r="T36" s="50">
+        <v>46399</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B37" s="25"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="60"/>
       <c r="I37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B38" s="32"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
+      <c r="L37" s="59"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="60"/>
       <c r="I38" s="5"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B39" s="56" t="s">
+      <c r="L38" s="59"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B39" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
-      <c r="P39" s="13"/>
-    </row>
-    <row r="40" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B40" s="31"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="R39" s="13"/>
+      <c r="T39" s="50">
+        <v>48223</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B40" s="25"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="60"/>
       <c r="I40" s="5"/>
-      <c r="P40" s="13"/>
-    </row>
-    <row r="41" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B41" s="32"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B41" s="26"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="60"/>
       <c r="I41" s="5"/>
-      <c r="P41" s="13"/>
-    </row>
-    <row r="42" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B42" s="56" t="s">
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="39"/>
-      <c r="F42" s="4"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="60"/>
       <c r="I42" s="5"/>
-      <c r="P42" s="13"/>
-    </row>
-    <row r="43" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B43" s="31"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="30"/>
-      <c r="F43" s="4"/>
+      <c r="R42" s="13"/>
+      <c r="T42" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B43" s="25"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="60"/>
       <c r="I43" s="5"/>
-      <c r="P43" s="13"/>
-    </row>
-    <row r="44" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B44" s="32"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B44" s="26"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="60"/>
       <c r="I44" s="5"/>
-      <c r="P44" s="13"/>
-    </row>
-    <row r="45" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B45" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="39"/>
-      <c r="F45" s="4"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B45" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="88"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="60"/>
       <c r="I45" s="5"/>
-      <c r="P45" s="13"/>
-    </row>
-    <row r="46" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B46" s="31"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="30"/>
-      <c r="F46" s="4"/>
+      <c r="R45" s="13"/>
+      <c r="T45" s="50">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B46" s="25"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="60"/>
       <c r="I46" s="5"/>
-      <c r="P46" s="13"/>
-    </row>
-    <row r="47" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B47" s="32"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="30"/>
-      <c r="F47" s="4"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B47" s="26"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="60"/>
       <c r="I47" s="5"/>
-      <c r="P47" s="13"/>
-    </row>
-    <row r="48" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B48" s="56" t="s">
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B48" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="55"/>
       <c r="I48" s="5"/>
-      <c r="P48" s="13"/>
-    </row>
-    <row r="49" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B49" s="31"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="30"/>
-      <c r="F49" s="4"/>
+      <c r="R48" s="13"/>
+      <c r="T48" s="50">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B49" s="25"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="I49" s="5"/>
-      <c r="P49" s="13"/>
-    </row>
-    <row r="50" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B50" s="32"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="30"/>
-      <c r="F50" s="4"/>
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B50" s="26"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
       <c r="I50" s="5"/>
-      <c r="P50" s="13"/>
-    </row>
-    <row r="51" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B51" s="56" t="s">
+      <c r="R50" s="13"/>
+    </row>
+    <row r="51" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B51" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="88"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="38"/>
+      <c r="I51" s="5"/>
+      <c r="R51" s="13"/>
+      <c r="T51" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B52" s="25"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="R52" s="13"/>
+    </row>
+    <row r="53" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B53" s="26"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="5"/>
+      <c r="R53" s="13"/>
+    </row>
+    <row r="54" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B54" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="I51" s="5"/>
-      <c r="P51" s="13"/>
-    </row>
-    <row r="52" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B52" s="31"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="30"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
-      <c r="P52" s="13"/>
-    </row>
-    <row r="53" spans="2:16" ht="5.0999999999999996" customHeight="1">
-      <c r="B53" s="32"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="30"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="5"/>
-      <c r="P53" s="13"/>
-    </row>
-    <row r="54" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B54" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="46"/>
-      <c r="P54" s="17"/>
-    </row>
-    <row r="55" spans="2:16" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B55" s="33"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="16"/>
-    </row>
-    <row r="56" spans="2:16" ht="5.0999999999999996" customHeight="1"/>
-    <row r="57" spans="2:16">
-      <c r="B57" s="27"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="24"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="R54" s="13"/>
+      <c r="T54" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="9.75" customHeight="1" thickBot="1">
+      <c r="B55" s="27"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="15"/>
+    </row>
+    <row r="56" spans="2:20" ht="5.0999999999999996" customHeight="1"/>
+    <row r="57" spans="2:20">
+      <c r="B57" s="21"/>
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:16">
-      <c r="B58" s="28"/>
+    <row r="58" spans="2:20">
+      <c r="B58" s="22"/>
       <c r="C58" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M58" s="1"/>
-      <c r="N58" s="48"/>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="47"/>
+      <c r="N58" s="40"/>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="B59" s="39"/>
       <c r="C59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M59" s="1"/>
-      <c r="N59" s="48"/>
+      <c r="N59" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="I27:L27"/>
+  <mergeCells count="18">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B54:C54"/>

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5B2F8-D2DB-44FE-B396-58E4BAD8BB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AF4B90-FFB6-4FDC-9059-D8F5F3ED0AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>.NET 6</t>
     <phoneticPr fontId="1"/>
@@ -172,7 +172,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>緑：メインストリームサポート期間 / Green: Mainstream support</t>
+    <t>製品 / Product</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロソフトのサポート期間 / End of Support</t>
+    <rPh sb="12" eb="14">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R19年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2025年10月14日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2032年1月13日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2024年11月12日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026年5月?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2028年11月?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio 2025?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R20年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑：メインストリームサポート期間 / Green: Mainstream support period</t>
     <rPh sb="0" eb="1">
       <t>ミドリ</t>
     </rPh>
@@ -182,78 +254,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄緑：延長サポート期間 / Light green: Extended support</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>製品 / Product</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイクロソフトのサポート期間 / End of Support</t>
+    <t>黄緑：延長サポート期間 / Light green: Extended support period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄：過去の製品のサポート期間やニュースから予測 / Yellow: Forecast based on old support period and news</t>
     <rPh sb="12" eb="14">
       <t>キカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>.NET 9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.NET 10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.NET 7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄：過去の製品のサポート期間やニュースから予測 / Yellow: Forecast based on past product life cycle and news</t>
-    <rPh sb="12" eb="14">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R19年</t>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	2025年10月14日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	2032年1月13日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	2024年11月12日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2026年5月?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2028年11月?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Visual Studio 2025?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R20年</t>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
+    <t>28H2?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -261,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +329,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -350,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -784,6 +811,109 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -791,24 +921,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,9 +990,35 @@
       <right style="dashed">
         <color indexed="64"/>
       </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,150 +1027,17 @@
       <right style="dashed">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1136,44 +1202,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,22 +1245,40 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,6 +1286,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1521,11 +1611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" customWidth="1"/>
@@ -1534,7 +1624,8 @@
     <col min="5" max="18" width="6.125" style="2" customWidth="1"/>
     <col min="19" max="19" width="2.625" style="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="21" max="22" width="2.625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1"/>
@@ -1545,7 +1636,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -1558,7 +1649,7 @@
       <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickBot="1">
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="71" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="48" t="s">
@@ -1598,18 +1689,18 @@
         <v>25</v>
       </c>
       <c r="Q3" s="48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="76">
+      <c r="B4" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="72">
         <v>2024</v>
       </c>
       <c r="E4" s="49">
@@ -1675,21 +1766,23 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="90" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="53"/>
       <c r="G6" s="45"/>
       <c r="H6" s="52"/>
       <c r="I6" s="6"/>
-      <c r="L6" s="59"/>
+      <c r="L6" s="58"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="13"/>
       <c r="T6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="5.0999999999999996" customHeight="1">
@@ -1701,7 +1794,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="L7" s="59"/>
+      <c r="L7" s="58"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="13"/>
     </row>
@@ -1714,24 +1807,28 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="L8" s="59"/>
+      <c r="L8" s="58"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="81" t="s">
+        <v>39</v>
+      </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="92" t="s">
+        <v>44</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="13"/>
       <c r="T9" s="50">
@@ -1741,39 +1838,39 @@
     <row r="10" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="B10" s="25"/>
       <c r="C10" s="41"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="L10" s="59"/>
+      <c r="L10" s="58"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="B11" s="26"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-      <c r="L11" s="59"/>
+      <c r="L11" s="58"/>
       <c r="O11" s="56"/>
       <c r="P11" s="56"/>
-      <c r="Q11" s="78"/>
+      <c r="Q11" s="74"/>
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="51"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="77"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -1782,35 +1879,41 @@
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
       <c r="Q12" s="35"/>
-      <c r="R12" s="73"/>
+      <c r="R12" s="69"/>
       <c r="T12" s="50">
         <v>49869</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="L13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="79"/>
-    </row>
-    <row r="14" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B14" s="23"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="58"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B14" s="24"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1819,71 +1922,83 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="80"/>
-    </row>
-    <row r="15" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B15" s="87" t="s">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B15" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="88"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="29"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="L15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="79"/>
+      <c r="L15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="75"/>
       <c r="T15" s="50">
         <v>45391</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="5.0999999999999996" customHeight="1">
+    <row r="16" spans="1:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="L16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="79"/>
-    </row>
-    <row r="17" spans="1:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B16" s="27"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:20" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="L17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="79"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="88"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="44"/>
       <c r="E18" s="46"/>
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-      <c r="L18" s="62"/>
+      <c r="L18" s="61"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="13"/>
       <c r="T18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="5.0999999999999996" customHeight="1">
@@ -1896,7 +2011,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-      <c r="L19" s="59"/>
+      <c r="L19" s="58"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="13"/>
     </row>
@@ -1910,22 +2025,22 @@
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-      <c r="L20" s="59"/>
+      <c r="L20" s="58"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="44"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-      <c r="L21" s="59"/>
+      <c r="L21" s="58"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="13"/>
       <c r="T21" s="50">
@@ -1940,9 +2055,9 @@
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="60"/>
-      <c r="L22" s="59"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="59"/>
+      <c r="L22" s="58"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="13"/>
     </row>
@@ -1954,24 +2069,24 @@
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="60"/>
-      <c r="L23" s="59"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="59"/>
+      <c r="L23" s="58"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
-      <c r="L24" s="59"/>
+      <c r="L24" s="58"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="13"/>
       <c r="T24" s="50">
@@ -1986,9 +2101,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="L25" s="59"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="L25" s="58"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="13"/>
     </row>
@@ -2001,15 +2116,15 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="4"/>
-      <c r="L26" s="59"/>
+      <c r="L26" s="58"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="88"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="31"/>
       <c r="E27" s="47"/>
       <c r="F27" s="55"/>
@@ -2022,19 +2137,19 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="13"/>
       <c r="T27" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="B28" s="25"/>
       <c r="C28" s="41"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="70"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="4"/>
-      <c r="L28" s="59"/>
+      <c r="L28" s="58"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="13"/>
     </row>
@@ -2042,25 +2157,25 @@
       <c r="B29" s="26"/>
       <c r="C29" s="42"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="70"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
-      <c r="L29" s="63"/>
+      <c r="L29" s="62"/>
       <c r="O29" s="56"/>
       <c r="P29" s="56"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="13"/>
     </row>
     <row r="30" spans="1:20" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B30" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="86"/>
+      <c r="B30" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="94"/>
       <c r="D30" s="51"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
@@ -2070,9 +2185,9 @@
       <c r="M30" s="36"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
-      <c r="P30" s="72"/>
+      <c r="P30" s="68"/>
       <c r="Q30" s="35"/>
-      <c r="R30" s="74"/>
+      <c r="R30" s="70"/>
       <c r="T30" s="50">
         <v>50234</v>
       </c>
@@ -2081,19 +2196,19 @@
       <c r="B31" s="27"/>
       <c r="C31" s="15"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="70"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="L31" s="64"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="L31" s="63"/>
       <c r="R31" s="15"/>
     </row>
     <row r="32" spans="1:20" ht="5.0999999999999996" customHeight="1">
       <c r="B32" s="24"/>
       <c r="C32" s="13"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="83"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="10"/>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
@@ -2109,17 +2224,17 @@
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="88"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="31"/>
       <c r="E33" s="47"/>
       <c r="F33" s="55"/>
       <c r="G33" s="47"/>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
-      <c r="L33" s="59"/>
+      <c r="L33" s="58"/>
       <c r="R33" s="13"/>
       <c r="T33" s="50">
         <v>47127</v>
@@ -2131,10 +2246,10 @@
       <c r="D34" s="24"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="60"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="L34" s="59"/>
+      <c r="L34" s="58"/>
       <c r="R34" s="13"/>
     </row>
     <row r="35" spans="2:20" ht="5.0999999999999996" customHeight="1">
@@ -2143,23 +2258,23 @@
       <c r="D35" s="24"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="60"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="L35" s="59"/>
+      <c r="L35" s="58"/>
       <c r="R35" s="13"/>
     </row>
     <row r="36" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="88"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="31"/>
       <c r="E36" s="47"/>
       <c r="F36" s="55"/>
       <c r="G36" s="47"/>
       <c r="I36" s="5"/>
-      <c r="L36" s="59"/>
+      <c r="L36" s="58"/>
       <c r="R36" s="13"/>
       <c r="T36" s="50">
         <v>46399</v>
@@ -2171,9 +2286,9 @@
       <c r="D37" s="24"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="60"/>
+      <c r="G37" s="59"/>
       <c r="I37" s="5"/>
-      <c r="L37" s="59"/>
+      <c r="L37" s="58"/>
       <c r="R37" s="13"/>
     </row>
     <row r="38" spans="2:20" ht="5.0999999999999996" customHeight="1">
@@ -2182,16 +2297,16 @@
       <c r="D38" s="24"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="60"/>
+      <c r="G38" s="59"/>
       <c r="I38" s="5"/>
-      <c r="L38" s="59"/>
+      <c r="L38" s="58"/>
       <c r="R38" s="13"/>
     </row>
     <row r="39" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="31"/>
       <c r="E39" s="47"/>
       <c r="F39" s="55"/>
@@ -2212,95 +2327,95 @@
       <c r="D40" s="24"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="60"/>
+      <c r="G40" s="59"/>
       <c r="I40" s="5"/>
       <c r="R40" s="13"/>
     </row>
     <row r="41" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B41" s="26"/>
       <c r="C41" s="42"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="70"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="60"/>
+      <c r="G41" s="59"/>
       <c r="I41" s="5"/>
       <c r="R41" s="13"/>
     </row>
     <row r="42" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="88"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="32"/>
       <c r="E42" s="4"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="60"/>
+      <c r="G42" s="59"/>
       <c r="I42" s="5"/>
       <c r="R42" s="13"/>
       <c r="T42" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="25"/>
       <c r="C43" s="41"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="70"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="60"/>
+      <c r="G43" s="59"/>
       <c r="I43" s="5"/>
       <c r="R43" s="13"/>
     </row>
-    <row r="44" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="44" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
       <c r="B44" s="26"/>
       <c r="C44" s="42"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="70"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="60"/>
+      <c r="G44" s="59"/>
       <c r="I44" s="5"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B45" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="88"/>
+    <row r="45" spans="2:20" ht="18.75" customHeight="1" outlineLevel="1">
+      <c r="B45" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="96"/>
       <c r="D45" s="32"/>
       <c r="E45" s="4"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="60"/>
+      <c r="G45" s="59"/>
       <c r="I45" s="5"/>
       <c r="R45" s="13"/>
       <c r="T45" s="50">
         <v>45426</v>
       </c>
     </row>
-    <row r="46" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="46" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
       <c r="B46" s="25"/>
       <c r="C46" s="41"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="70"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="66"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="60"/>
+      <c r="G46" s="59"/>
       <c r="I46" s="5"/>
       <c r="R46" s="13"/>
     </row>
     <row r="47" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B47" s="26"/>
       <c r="C47" s="42"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="70"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="66"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="60"/>
+      <c r="G47" s="59"/>
       <c r="I47" s="5"/>
       <c r="R47" s="13"/>
     </row>
     <row r="48" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="88"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="43"/>
       <c r="E48" s="47"/>
       <c r="F48" s="55"/>
@@ -2329,17 +2444,17 @@
       <c r="R50" s="13"/>
     </row>
     <row r="51" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B51" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="88"/>
+      <c r="B51" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="96"/>
       <c r="D51" s="51"/>
-      <c r="E51" s="82"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="38"/>
       <c r="I51" s="5"/>
       <c r="R51" s="13"/>
       <c r="T51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="5.0999999999999996" customHeight="1">
@@ -2362,17 +2477,17 @@
       <c r="R53" s="13"/>
     </row>
     <row r="54" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B54" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="88"/>
+      <c r="B54" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="96"/>
       <c r="D54" s="24"/>
-      <c r="F54" s="61"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="37"/>
       <c r="H54" s="38"/>
       <c r="R54" s="13"/>
       <c r="T54" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:20" ht="9.75" customHeight="1" thickBot="1">
@@ -2398,14 +2513,14 @@
     <row r="57" spans="2:20">
       <c r="B57" s="21"/>
       <c r="C57" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="2:20">
       <c r="B58" s="22"/>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="40"/>
@@ -2413,7 +2528,7 @@
     <row r="59" spans="2:20">
       <c r="B59" s="39"/>
       <c r="C59" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="40"/>

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AF4B90-FFB6-4FDC-9059-D8F5F3ED0AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34357E15-E149-411A-A7BB-C1D83D15AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>.NET 6</t>
     <phoneticPr fontId="1"/>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>28H2?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET Framework 4.7.2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1305,29 +1309,29 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X54" sqref="X54"/>
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1696,10 +1700,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="72">
         <v>2024</v>
       </c>
@@ -1766,10 +1770,10 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="91"/>
       <c r="E6" s="90" t="s">
         <v>40</v>
@@ -1812,10 +1816,10 @@
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="96"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="80"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -1864,10 +1868,10 @@
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="100"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="51"/>
       <c r="E12" s="65"/>
       <c r="F12" s="73"/>
@@ -1926,10 +1930,10 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="29"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -1984,10 +1988,10 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="96"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="44"/>
       <c r="E18" s="46"/>
       <c r="F18" s="53"/>
@@ -2030,10 +2034,10 @@
       <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="96"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="44"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
@@ -2076,10 +2080,10 @@
       <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="44"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
@@ -2121,10 +2125,10 @@
       <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="96"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="31"/>
       <c r="E27" s="47"/>
       <c r="F27" s="55"/>
@@ -2169,10 +2173,10 @@
       <c r="R29" s="13"/>
     </row>
     <row r="30" spans="1:20" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="94"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="51"/>
       <c r="E30" s="76"/>
       <c r="F30" s="77"/>
@@ -2224,10 +2228,10 @@
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="96"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="31"/>
       <c r="E33" s="47"/>
       <c r="F33" s="55"/>
@@ -2265,10 +2269,10 @@
       <c r="R35" s="13"/>
     </row>
     <row r="36" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="96"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="31"/>
       <c r="E36" s="47"/>
       <c r="F36" s="55"/>
@@ -2303,10 +2307,10 @@
       <c r="R38" s="13"/>
     </row>
     <row r="39" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B39" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="96"/>
+      <c r="B39" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="94"/>
       <c r="D39" s="31"/>
       <c r="E39" s="47"/>
       <c r="F39" s="55"/>
@@ -2329,44 +2333,50 @@
       <c r="F40" s="6"/>
       <c r="G40" s="59"/>
       <c r="I40" s="5"/>
+      <c r="L40" s="58"/>
       <c r="R40" s="13"/>
     </row>
     <row r="41" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B41" s="26"/>
       <c r="C41" s="42"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="66"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="59"/>
       <c r="I41" s="5"/>
+      <c r="L41" s="58"/>
       <c r="R41" s="13"/>
     </row>
     <row r="42" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B42" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="59"/>
-      <c r="I42" s="5"/>
+      <c r="B42" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="94"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="38"/>
       <c r="R42" s="13"/>
-      <c r="T42" s="3" t="s">
-        <v>34</v>
+      <c r="T42" s="50">
+        <v>48223</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="25"/>
       <c r="C43" s="41"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="66"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="59"/>
       <c r="I43" s="5"/>
       <c r="R43" s="13"/>
     </row>
-    <row r="44" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+    <row r="44" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B44" s="26"/>
       <c r="C44" s="42"/>
       <c r="D44" s="64"/>
@@ -2376,22 +2386,22 @@
       <c r="I44" s="5"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="2:20" ht="18.75" customHeight="1" outlineLevel="1">
-      <c r="B45" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="96"/>
+    <row r="45" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B45" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="94"/>
       <c r="D45" s="32"/>
       <c r="E45" s="4"/>
       <c r="F45" s="6"/>
       <c r="G45" s="59"/>
       <c r="I45" s="5"/>
       <c r="R45" s="13"/>
-      <c r="T45" s="50">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="T45" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B46" s="25"/>
       <c r="C46" s="41"/>
       <c r="D46" s="64"/>
@@ -2401,7 +2411,7 @@
       <c r="I46" s="5"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="47" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
       <c r="B47" s="26"/>
       <c r="C47" s="42"/>
       <c r="D47" s="64"/>
@@ -2411,58 +2421,61 @@
       <c r="I47" s="5"/>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B48" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="55"/>
+    <row r="48" spans="2:20" ht="18.75" customHeight="1" outlineLevel="1">
+      <c r="B48" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="94"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="59"/>
       <c r="I48" s="5"/>
       <c r="R48" s="13"/>
       <c r="T48" s="50">
-        <v>46336</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="5.0999999999999996" customHeight="1">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
       <c r="B49" s="25"/>
       <c r="C49" s="41"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="6"/>
+      <c r="G49" s="59"/>
       <c r="I49" s="5"/>
       <c r="R49" s="13"/>
     </row>
     <row r="50" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B50" s="26"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="6"/>
+      <c r="G50" s="59"/>
       <c r="I50" s="5"/>
       <c r="R50" s="13"/>
     </row>
     <row r="51" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B51" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="38"/>
+      <c r="B51" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="94"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="55"/>
       <c r="I51" s="5"/>
       <c r="R51" s="13"/>
-      <c r="T51" s="3" t="s">
-        <v>35</v>
+      <c r="T51" s="50">
+        <v>46336</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B52" s="25"/>
       <c r="C52" s="41"/>
       <c r="D52" s="24"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="I52" s="5"/>
       <c r="R52" s="13"/>
     </row>
@@ -2470,71 +2483,113 @@
       <c r="B53" s="26"/>
       <c r="C53" s="42"/>
       <c r="D53" s="24"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
-      <c r="H53" s="56"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
       <c r="I53" s="5"/>
       <c r="R53" s="13"/>
     </row>
     <row r="54" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B54" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="24"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
+      <c r="B54" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="94"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="38"/>
+      <c r="I54" s="5"/>
       <c r="R54" s="13"/>
       <c r="T54" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B55" s="25"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="R55" s="13"/>
+    </row>
+    <row r="56" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B56" s="26"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="5"/>
+      <c r="R56" s="13"/>
+    </row>
+    <row r="57" spans="2:20" ht="18.75" customHeight="1">
+      <c r="B57" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="94"/>
+      <c r="D57" s="24"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="38"/>
+      <c r="R57" s="13"/>
+      <c r="T57" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:20" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B55" s="27"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="15"/>
-    </row>
-    <row r="56" spans="2:20" ht="5.0999999999999996" customHeight="1"/>
-    <row r="57" spans="2:20">
-      <c r="B57" s="21"/>
-      <c r="C57" s="3" t="s">
+    <row r="58" spans="2:20" ht="9.75" customHeight="1" thickBot="1">
+      <c r="B58" s="27"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="15"/>
+    </row>
+    <row r="59" spans="2:20" ht="5.0999999999999996" customHeight="1"/>
+    <row r="60" spans="2:20">
+      <c r="B60" s="21"/>
+      <c r="C60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="2:20">
-      <c r="B58" s="22"/>
-      <c r="C58" s="3" t="s">
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" s="22"/>
+      <c r="C61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="40"/>
-    </row>
-    <row r="59" spans="2:20">
-      <c r="B59" s="39"/>
-      <c r="C59" s="3" t="s">
+      <c r="M61" s="1"/>
+      <c r="N61" s="40"/>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" s="39"/>
+      <c r="C62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="40"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
@@ -2544,15 +2599,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34357E15-E149-411A-A7BB-C1D83D15AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D7B95-EDB0-4A4B-AFF6-CFBCC768B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35970" yWindow="195" windowWidth="21945" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>.NET 6</t>
     <phoneticPr fontId="1"/>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>22H2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>緑：メインストリームサポート期間 / Green: Mainstream support period</t>
     <rPh sb="0" eb="1">
       <t>ミドリ</t>
@@ -272,12 +268,43 @@
     <t>.NET Framework 4.7.2</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Windows 10 IoT Enterprise LTSC 2021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise LTSC 2019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2034年？</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 11 IoT Enterprise LTSC?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 11 Enterprise LTSC?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張セキュリティ更新プログラム
+ / ESU:Extended Security Updates</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +375,50 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -771,26 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -800,26 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
@@ -830,50 +861,6 @@
       <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -888,17 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color auto="1"/>
       </left>
@@ -909,19 +885,6 @@
       <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -935,19 +898,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -991,7 +941,36 @@
     </border>
     <border>
       <left/>
-      <right style="dashed">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top style="dashed">
@@ -1003,32 +982,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
+      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="dashed">
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1037,11 +1005,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1101,35 +1180,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,18 +1213,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="55" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1185,54 +1240,20 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1249,59 +1270,29 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="55" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1309,29 +1300,202 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,992 +1777,1560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39"/>
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="2" customWidth="1"/>
-    <col min="5" max="18" width="6.125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="2.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="2.625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="2" max="5" width="5.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="2" customWidth="1"/>
+    <col min="7" max="20" width="6.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="2.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="2.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:20">
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+    <row r="1" spans="1:22" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:22">
+      <c r="F2" s="16"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" thickBot="1">
-      <c r="D3" s="71" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1">
+      <c r="F3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="G3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="H3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="I3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="J3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="K3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="L3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="M3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="N3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="O3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="P3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="Q3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="R3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="S3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="T3" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="95" t="s">
+    <row r="4" spans="1:22" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B4" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="72">
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="52">
         <v>2024</v>
       </c>
-      <c r="E4" s="49">
+      <c r="G4" s="41">
         <v>2025</v>
       </c>
-      <c r="F4" s="49">
+      <c r="H4" s="41">
         <v>2026</v>
       </c>
-      <c r="G4" s="49">
+      <c r="I4" s="41">
         <v>2027</v>
       </c>
-      <c r="H4" s="49">
+      <c r="J4" s="41">
         <v>2028</v>
       </c>
-      <c r="I4" s="49">
+      <c r="K4" s="41">
         <v>2029</v>
       </c>
-      <c r="J4" s="49">
+      <c r="L4" s="41">
         <v>2030</v>
       </c>
-      <c r="K4" s="49">
+      <c r="M4" s="41">
         <v>2031</v>
       </c>
-      <c r="L4" s="49">
+      <c r="N4" s="41">
         <v>2032</v>
       </c>
-      <c r="M4" s="49">
+      <c r="O4" s="41">
         <v>2033</v>
       </c>
-      <c r="N4" s="49">
+      <c r="P4" s="41">
         <v>2034</v>
       </c>
-      <c r="O4" s="49">
+      <c r="Q4" s="41">
         <v>2035</v>
       </c>
-      <c r="P4" s="49">
+      <c r="R4" s="41">
         <v>2036</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="S4" s="41">
         <v>2037</v>
       </c>
-      <c r="R4" s="20">
+      <c r="T4" s="20">
         <v>2038</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
+    <row r="5" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B5" s="63"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="57"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B6" s="93" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="108"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1">
+      <c r="B6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="6"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="109"/>
+      <c r="V6" s="122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="109"/>
+    </row>
+    <row r="8" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="109"/>
+    </row>
+    <row r="9" spans="1:22" ht="12.95" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="109"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1">
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="6"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="109"/>
+      <c r="V10" s="42">
+        <v>47040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="12.95" customHeight="1">
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="109"/>
+      <c r="V11" s="42"/>
+    </row>
+    <row r="12" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="109"/>
+    </row>
+    <row r="13" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="109"/>
+    </row>
+    <row r="14" spans="1:22" ht="9" customHeight="1">
+      <c r="B14" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="109"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1">
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="109"/>
+      <c r="V15" s="42">
+        <v>47127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="9" customHeight="1">
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="109"/>
+      <c r="V16" s="42"/>
+    </row>
+    <row r="17" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="109"/>
+    </row>
+    <row r="18" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="109"/>
+    </row>
+    <row r="19" spans="2:22" ht="9" customHeight="1">
+      <c r="B19" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="109"/>
+    </row>
+    <row r="20" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B20" s="126"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="5"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="109"/>
+      <c r="V20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="9" customHeight="1">
+      <c r="B21" s="126"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="109"/>
+    </row>
+    <row r="22" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="109"/>
+    </row>
+    <row r="23" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B23" s="68"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="109"/>
+    </row>
+    <row r="24" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B24" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="109"/>
+      <c r="V24" s="42">
+        <v>48223</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B25" s="66"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="109"/>
+    </row>
+    <row r="26" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B26" s="93"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="109"/>
+    </row>
+    <row r="27" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B27" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="115"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="109"/>
+    </row>
+    <row r="28" spans="2:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="109"/>
+      <c r="V28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="5"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="109"/>
+      <c r="V29" s="42"/>
+    </row>
+    <row r="30" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="5"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="109"/>
+    </row>
+    <row r="31" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B31" s="93"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="5"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="109"/>
+    </row>
+    <row r="32" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B32" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="5"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="109"/>
+    </row>
+    <row r="33" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="109"/>
+      <c r="V33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B34" s="129"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="106"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="109"/>
+    </row>
+    <row r="35" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="109"/>
+    </row>
+    <row r="36" spans="1:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B36" s="68"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="115"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="109"/>
+    </row>
+    <row r="37" spans="1:22" ht="18.75" customHeight="1">
+      <c r="B37" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="49"/>
+      <c r="V37" s="42">
+        <v>49869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B38" s="70"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="107"/>
+    </row>
+    <row r="39" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="108"/>
+    </row>
+    <row r="40" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B40" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="5"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="109"/>
+      <c r="V40" s="121">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="107"/>
+    </row>
+    <row r="42" spans="1:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="73"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="108"/>
+    </row>
+    <row r="43" spans="1:22" ht="18.75" customHeight="1">
+      <c r="B43" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="109"/>
+      <c r="V43" s="122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="5"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="109"/>
+    </row>
+    <row r="45" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="5"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="109"/>
+    </row>
+    <row r="46" spans="1:22" ht="18.75" customHeight="1">
+      <c r="B46" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="109"/>
+      <c r="V46" s="42">
+        <v>46490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B47" s="66"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="109"/>
+    </row>
+    <row r="48" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B48" s="68"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="5"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="109"/>
+    </row>
+    <row r="49" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B49" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="5"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="5"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="109"/>
+      <c r="V49" s="42">
+        <v>47218</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B50" s="66"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="5"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="109"/>
+    </row>
+    <row r="51" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B51" s="68"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="6"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="5"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="109"/>
+    </row>
+    <row r="52" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B52" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="5"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="109"/>
+      <c r="V52" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B53" s="66"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="5"/>
+      <c r="N53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="109"/>
+    </row>
+    <row r="54" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B54" s="68"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="109"/>
+    </row>
+    <row r="55" spans="2:22" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B55" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="50"/>
+      <c r="V55" s="42">
+        <v>50234</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B56" s="70"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="106"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="106"/>
+      <c r="T56" s="15"/>
+    </row>
+    <row r="57" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B57" s="73"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="12"/>
+    </row>
+    <row r="58" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B58" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="5"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="5"/>
+      <c r="T58" s="13"/>
+      <c r="V58" s="42">
+        <v>47127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B59" s="66"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="5"/>
+      <c r="T59" s="13"/>
+    </row>
+    <row r="60" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B60" s="68"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="5"/>
+      <c r="T60" s="13"/>
+    </row>
+    <row r="61" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B61" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="5"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="5"/>
+      <c r="T61" s="13"/>
+      <c r="V61" s="42">
+        <v>46399</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B62" s="66"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="5"/>
+      <c r="T62" s="13"/>
+    </row>
+    <row r="63" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B63" s="68"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="5"/>
+      <c r="T63" s="13"/>
+    </row>
+    <row r="64" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B64" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="33"/>
+      <c r="T64" s="13"/>
+      <c r="V64" s="42">
+        <v>48223</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B65" s="66"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="5"/>
+      <c r="T65" s="13"/>
+    </row>
+    <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B66" s="68"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="5"/>
+      <c r="T66" s="13"/>
+    </row>
+    <row r="67" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B67" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="33"/>
+      <c r="T67" s="13"/>
+      <c r="V67" s="42">
+        <v>48223</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B68" s="66"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="T68" s="13"/>
+    </row>
+    <row r="69" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B69" s="68"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="T69" s="13"/>
+    </row>
+    <row r="70" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B70" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="T70" s="13"/>
+      <c r="V70" s="120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B71" s="66"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="T71" s="13"/>
+    </row>
+    <row r="72" spans="2:22" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="B72" s="68"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="T72" s="13"/>
+    </row>
+    <row r="73" spans="2:22" ht="18.75" customHeight="1" outlineLevel="1">
+      <c r="B73" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="T73" s="13"/>
+      <c r="V73" s="121">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="B74" s="66"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="T74" s="13"/>
+    </row>
+    <row r="75" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B75" s="68"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="T75" s="13"/>
+    </row>
+    <row r="76" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B76" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="T76" s="13"/>
+      <c r="V76" s="42">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B77" s="66"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="4"/>
+      <c r="K77" s="5"/>
+      <c r="T77" s="13"/>
+    </row>
+    <row r="78" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B78" s="68"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="4"/>
+      <c r="K78" s="5"/>
+      <c r="T78" s="13"/>
+    </row>
+    <row r="79" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B79" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="33"/>
+      <c r="K79" s="5"/>
+      <c r="T79" s="13"/>
+      <c r="V79" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B80" s="66"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="113"/>
+      <c r="G80" s="106"/>
+      <c r="K80" s="5"/>
+      <c r="T80" s="13"/>
+    </row>
+    <row r="81" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B81" s="68"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="5"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="5"/>
+      <c r="T81" s="13"/>
+    </row>
+    <row r="82" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B82" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="96"/>
+      <c r="J82" s="33"/>
+      <c r="T82" s="13"/>
+      <c r="V82" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" ht="9.75" customHeight="1" thickBot="1">
+      <c r="B83" s="70"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="15"/>
+    </row>
+    <row r="84" spans="2:22" ht="5.0999999999999996" customHeight="1"/>
+    <row r="85" spans="2:22">
+      <c r="B85" s="75"/>
+      <c r="C85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="6"/>
-      <c r="L6" s="58"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="13"/>
-      <c r="T6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B7" s="25"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="L7" s="58"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="58"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B9" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="13"/>
-      <c r="T9" s="50">
-        <v>48223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B10" s="25"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="L10" s="58"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="L11" s="58"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B12" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="69"/>
-      <c r="T12" s="50">
-        <v>49869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B14" s="24"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B15" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="L15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="75"/>
-      <c r="T15" s="50">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="15"/>
-    </row>
-    <row r="17" spans="1:20" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B18" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="L18" s="61"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="13"/>
-      <c r="T18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="L19" s="58"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="L20" s="58"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B21" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="L21" s="58"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="13"/>
-      <c r="T21" s="50">
-        <v>46490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="25"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="59"/>
-      <c r="L22" s="58"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="59"/>
-      <c r="L23" s="58"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B24" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="L24" s="58"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="13"/>
-      <c r="T24" s="50">
-        <v>47218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="L25" s="58"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B26" s="26"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="L26" s="58"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="1:20" ht="18.75" customHeight="1">
-      <c r="B27" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="13"/>
-      <c r="T27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B28" s="25"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="L28" s="58"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="L29" s="62"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:20" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B30" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="70"/>
-      <c r="T30" s="50">
-        <v>50234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B31" s="27"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="L31" s="63"/>
-      <c r="R31" s="15"/>
-    </row>
-    <row r="32" spans="1:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="12"/>
-    </row>
-    <row r="33" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B33" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="L33" s="58"/>
-      <c r="R33" s="13"/>
-      <c r="T33" s="50">
-        <v>47127</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B34" s="25"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="L34" s="58"/>
-      <c r="R34" s="13"/>
-    </row>
-    <row r="35" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B35" s="26"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="L35" s="58"/>
-      <c r="R35" s="13"/>
-    </row>
-    <row r="36" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B36" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="47"/>
-      <c r="I36" s="5"/>
-      <c r="L36" s="58"/>
-      <c r="R36" s="13"/>
-      <c r="T36" s="50">
-        <v>46399</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B37" s="25"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="59"/>
-      <c r="I37" s="5"/>
-      <c r="L37" s="58"/>
-      <c r="R37" s="13"/>
-    </row>
-    <row r="38" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="59"/>
-      <c r="I38" s="5"/>
-      <c r="L38" s="58"/>
-      <c r="R38" s="13"/>
-    </row>
-    <row r="39" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B39" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="R39" s="13"/>
-      <c r="T39" s="50">
-        <v>48223</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B40" s="25"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="59"/>
-      <c r="I40" s="5"/>
-      <c r="L40" s="58"/>
-      <c r="R40" s="13"/>
-    </row>
-    <row r="41" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B41" s="26"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="59"/>
-      <c r="I41" s="5"/>
-      <c r="L41" s="58"/>
-      <c r="R41" s="13"/>
-    </row>
-    <row r="42" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B42" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="R42" s="13"/>
-      <c r="T42" s="50">
-        <v>48223</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B43" s="25"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="59"/>
-      <c r="I43" s="5"/>
-      <c r="R43" s="13"/>
-    </row>
-    <row r="44" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B44" s="26"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="59"/>
-      <c r="I44" s="5"/>
-      <c r="R44" s="13"/>
-    </row>
-    <row r="45" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B45" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="59"/>
-      <c r="I45" s="5"/>
-      <c r="R45" s="13"/>
-      <c r="T45" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B46" s="25"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="59"/>
-      <c r="I46" s="5"/>
-      <c r="R46" s="13"/>
-    </row>
-    <row r="47" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
-      <c r="B47" s="26"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="59"/>
-      <c r="I47" s="5"/>
-      <c r="R47" s="13"/>
-    </row>
-    <row r="48" spans="2:20" ht="18.75" customHeight="1" outlineLevel="1">
-      <c r="B48" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="59"/>
-      <c r="I48" s="5"/>
-      <c r="R48" s="13"/>
-      <c r="T48" s="50">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
-      <c r="B49" s="25"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="59"/>
-      <c r="I49" s="5"/>
-      <c r="R49" s="13"/>
-    </row>
-    <row r="50" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B50" s="26"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="59"/>
-      <c r="I50" s="5"/>
-      <c r="R50" s="13"/>
-    </row>
-    <row r="51" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B51" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="55"/>
-      <c r="I51" s="5"/>
-      <c r="R51" s="13"/>
-      <c r="T51" s="50">
-        <v>46336</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B52" s="25"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="I52" s="5"/>
-      <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B53" s="26"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="I53" s="5"/>
-      <c r="R53" s="13"/>
-    </row>
-    <row r="54" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B54" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="38"/>
-      <c r="I54" s="5"/>
-      <c r="R54" s="13"/>
-      <c r="T54" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B55" s="25"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="R55" s="13"/>
-    </row>
-    <row r="56" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B56" s="26"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="5"/>
-      <c r="R56" s="13"/>
-    </row>
-    <row r="57" spans="2:20" ht="18.75" customHeight="1">
-      <c r="B57" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="24"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="38"/>
-      <c r="R57" s="13"/>
-      <c r="T57" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B58" s="27"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="15"/>
-    </row>
-    <row r="59" spans="2:20" ht="5.0999999999999996" customHeight="1"/>
-    <row r="60" spans="2:20">
-      <c r="B60" s="21"/>
-      <c r="C60" s="3" t="s">
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="2:22">
+      <c r="B86" s="22"/>
+      <c r="C86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="2:20">
-      <c r="B61" s="22"/>
-      <c r="C61" s="3" t="s">
+      <c r="O86" s="1"/>
+      <c r="P86" s="34"/>
+    </row>
+    <row r="87" spans="2:22">
+      <c r="B87" s="76"/>
+      <c r="C87" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="40"/>
-    </row>
-    <row r="62" spans="2:20">
-      <c r="B62" s="39"/>
-      <c r="C62" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="40"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="6">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B14:E16"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="B27:E29"/>
+    <mergeCell ref="B32:E34"/>
+    <mergeCell ref="B9:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D7B95-EDB0-4A4B-AFF6-CFBCC768B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4CADB4-AAC1-4995-B440-6C6313C75C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="195" windowWidth="21945" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -969,16 +969,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -989,9 +1011,232 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -999,113 +1244,19 @@
       <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top style="dashed">
@@ -1120,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1151,9 +1302,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,9 +1349,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,15 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1428,28 +1564,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="55" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,6 +1626,58 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1780,16 +1962,17 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+      <selection activeCell="Y76" sqref="Y76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="5" width="5.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="2" customWidth="1"/>
-    <col min="7" max="20" width="6.125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="2.625" style="1" customWidth="1"/>
+    <col min="7" max="15" width="6.125" style="2" customWidth="1"/>
+    <col min="16" max="20" width="6.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="26.625" style="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="2.625" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
@@ -1797,130 +1980,133 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:22">
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="72"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1">
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="126" t="s">
         <v>38</v>
       </c>
+      <c r="U3" s="72"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="52">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="47">
         <v>2024</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="39">
         <v>2025</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="39">
         <v>2026</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="39">
         <v>2027</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="39">
         <v>2028</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="39">
         <v>2029</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="39">
         <v>2030</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="39">
         <v>2031</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="39">
         <v>2032</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="19">
         <v>2033</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="127">
         <v>2034</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="127">
         <v>2035</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="127">
         <v>2036</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="127">
         <v>2037</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="127">
         <v>2038</v>
       </c>
+      <c r="U4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B5" s="63"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1929,624 +2115,741 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="108"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="72"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="72" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="118"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="43"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="6"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="109"/>
-      <c r="V6" s="122" t="s">
+      <c r="O6" s="103"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="115" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="109"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="72"/>
     </row>
     <row r="8" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="109"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="72"/>
     </row>
     <row r="9" spans="1:22" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="109"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="72"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
       <c r="K10" s="6"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="109"/>
-      <c r="V10" s="42">
+      <c r="O10" s="103"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="40">
         <v>47040</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12.95" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="109"/>
-      <c r="V11" s="42"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="40"/>
     </row>
     <row r="12" spans="1:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="109"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="72"/>
     </row>
     <row r="13" spans="1:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="109"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="72"/>
     </row>
     <row r="14" spans="1:22" ht="9" customHeight="1">
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="109"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="72"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="98"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="93"/>
       <c r="L15" s="5"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="109"/>
-      <c r="V15" s="42">
+      <c r="O15" s="103"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="40">
         <v>47127</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="9" customHeight="1">
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="109"/>
-      <c r="V16" s="42"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="40"/>
     </row>
     <row r="17" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="109"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="72"/>
     </row>
     <row r="18" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="23"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="109"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="72"/>
     </row>
     <row r="19" spans="2:22" ht="9" customHeight="1">
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="5"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="109"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="72"/>
     </row>
     <row r="20" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B20" s="126"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="5"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="109"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="72"/>
       <c r="V20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="9" customHeight="1">
-      <c r="B21" s="126"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="109"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="72"/>
     </row>
     <row r="22" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="109"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="72"/>
     </row>
     <row r="23" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B23" s="68"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="109"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="72"/>
     </row>
     <row r="24" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="72" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="119" t="s">
+      <c r="E24" s="73"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="62" t="s">
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="109"/>
-      <c r="V24" s="42">
+      <c r="O24" s="12"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="40">
         <v>48223</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B25" s="66"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="26"/>
+    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B25" s="61"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="109"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="72"/>
     </row>
     <row r="26" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="109"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="72"/>
     </row>
     <row r="27" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="26"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="115"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="109"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="72"/>
     </row>
     <row r="28" spans="2:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B28" s="129"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="109"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="72"/>
       <c r="V28" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="26"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="5"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="109"/>
-      <c r="V29" s="42"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="40"/>
     </row>
     <row r="30" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="26"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="5"/>
       <c r="K30" s="6"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="109"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="72"/>
     </row>
     <row r="31" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="26"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="5"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="109"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="72"/>
     </row>
     <row r="32" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="26"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="5"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="109"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="72"/>
     </row>
     <row r="33" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B33" s="129"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="109"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="72"/>
       <c r="V33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B34" s="129"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="106"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="100"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="106"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="109"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="72"/>
     </row>
     <row r="35" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="26"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="109"/>
-    </row>
-    <row r="36" spans="1:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B36" s="68"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="26"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="72"/>
+    </row>
+    <row r="36" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1">
+      <c r="B36" s="63"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="115"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="109"/>
-    </row>
-    <row r="37" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B37" s="79" t="s">
+      <c r="N36" s="4"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="72"/>
+    </row>
+    <row r="37" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B37" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="49"/>
-      <c r="V37" s="42">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="142"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="130"/>
+      <c r="R37" s="130"/>
+      <c r="S37" s="130"/>
+      <c r="T37" s="133"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="40">
         <v>49869</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B38" s="70"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="107"/>
+    <row r="38" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B38" s="65"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="72"/>
     </row>
     <row r="39" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="25"/>
+      <c r="B39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -2555,21 +2858,22 @@
       <c r="L39" s="9"/>
       <c r="M39" s="11"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="108"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="128"/>
+      <c r="U39" s="72"/>
     </row>
     <row r="40" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="117"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="110"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -2577,40 +2881,45 @@
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="5"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="109"/>
-      <c r="V40" s="121">
+      <c r="O40" s="103"/>
+      <c r="P40" s="129"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="129"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="114">
         <v>45391</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="104"/>
-      <c r="T41" s="107"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="72"/>
     </row>
     <row r="42" spans="1:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="73"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="25"/>
+      <c r="B42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -2618,43 +2927,48 @@
       <c r="K42" s="10"/>
       <c r="L42" s="9"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="108"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="72"/>
     </row>
     <row r="43" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="72" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="97"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="5"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="109"/>
-      <c r="V43" s="122" t="s">
+      <c r="O43" s="103"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="115" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="23"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -2662,15 +2976,19 @@
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="5"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="109"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="72"/>
     </row>
     <row r="45" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="73"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="23"/>
+      <c r="B45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -2678,146 +2996,178 @@
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="5"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="109"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="129"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="129"/>
+      <c r="T45" s="129"/>
+      <c r="U45" s="72"/>
     </row>
     <row r="46" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="72" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="97"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="92"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="5"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="109"/>
-      <c r="V46" s="42">
+      <c r="O46" s="103"/>
+      <c r="P46" s="129"/>
+      <c r="Q46" s="129"/>
+      <c r="R46" s="129"/>
+      <c r="S46" s="129"/>
+      <c r="T46" s="129"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="40">
         <v>46490</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B47" s="66"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="23"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="5"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="109"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="129"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="129"/>
+      <c r="T47" s="129"/>
+      <c r="U47" s="72"/>
     </row>
     <row r="48" spans="1:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B48" s="68"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="23"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="5"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="109"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="72"/>
     </row>
     <row r="49" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="72" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="97"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="92"/>
       <c r="L49" s="5"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="5"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="109"/>
-      <c r="V49" s="42">
+      <c r="O49" s="103"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="129"/>
+      <c r="T49" s="129"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="40">
         <v>47218</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B50" s="66"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="23"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="5"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="109"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="129"/>
+      <c r="T50" s="129"/>
+      <c r="U50" s="72"/>
     </row>
     <row r="51" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B51" s="68"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="23"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="5"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="109"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="129"/>
+      <c r="U51" s="72"/>
     </row>
     <row r="52" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="72" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="5"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="109"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="103"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="129"/>
+      <c r="U52" s="72"/>
       <c r="V52" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B53" s="66"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="26"/>
+    <row r="53" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B53" s="61"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2825,76 +3175,88 @@
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
       <c r="N53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="109"/>
-    </row>
-    <row r="54" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B54" s="68"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="26"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="129"/>
+      <c r="Q53" s="129"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="129"/>
+      <c r="T53" s="129"/>
+      <c r="U53" s="72"/>
+    </row>
+    <row r="54" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B54" s="63"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="109"/>
-    </row>
-    <row r="55" spans="2:22" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B55" s="81" t="s">
+      <c r="M54" s="44"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="135"/>
+      <c r="P54" s="131"/>
+      <c r="Q54" s="131"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="129"/>
+      <c r="T54" s="129"/>
+      <c r="U54" s="72"/>
+    </row>
+    <row r="55" spans="2:22" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B55" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="50"/>
-      <c r="V55" s="42">
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="136"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="137"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="138"/>
+      <c r="U55" s="139"/>
+      <c r="V55" s="40">
         <v>50234</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B56" s="70"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="112"/>
+    <row r="56" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="B56" s="65"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="106"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="106"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="106"/>
-      <c r="T56" s="15"/>
-    </row>
-    <row r="57" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="25"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="100"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="140"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="129"/>
+      <c r="T56" s="134"/>
+      <c r="U56" s="72"/>
+    </row>
+    <row r="57" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B57" s="68"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="24"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8"/>
       <c r="I57" s="10"/>
@@ -2903,425 +3265,569 @@
       <c r="L57" s="9"/>
       <c r="M57" s="11"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="12"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="128"/>
+      <c r="T57" s="128"/>
+      <c r="U57" s="72"/>
     </row>
     <row r="58" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="99"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="94"/>
       <c r="L58" s="5"/>
       <c r="N58" s="4"/>
-      <c r="O58" s="5"/>
-      <c r="T58" s="13"/>
-      <c r="V58" s="42">
+      <c r="O58" s="103"/>
+      <c r="P58" s="129"/>
+      <c r="Q58" s="129"/>
+      <c r="R58" s="129"/>
+      <c r="S58" s="129"/>
+      <c r="T58" s="129"/>
+      <c r="U58" s="72"/>
+      <c r="V58" s="40">
         <v>47127</v>
       </c>
     </row>
     <row r="59" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B59" s="66"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="23"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
       <c r="I59" s="6"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="5"/>
-      <c r="T59" s="13"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="129"/>
+      <c r="T59" s="129"/>
+      <c r="U59" s="72"/>
     </row>
     <row r="60" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B60" s="68"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="23"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
       <c r="I60" s="6"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="N60" s="4"/>
-      <c r="O60" s="5"/>
-      <c r="T60" s="13"/>
+      <c r="O60" s="103"/>
+      <c r="P60" s="129"/>
+      <c r="Q60" s="129"/>
+      <c r="R60" s="129"/>
+      <c r="S60" s="129"/>
+      <c r="T60" s="129"/>
+      <c r="U60" s="72"/>
     </row>
     <row r="61" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="72" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="100"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="95"/>
       <c r="J61" s="6"/>
       <c r="K61" s="5"/>
       <c r="N61" s="4"/>
-      <c r="O61" s="5"/>
-      <c r="T61" s="13"/>
-      <c r="V61" s="42">
+      <c r="O61" s="103"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="129"/>
+      <c r="S61" s="129"/>
+      <c r="T61" s="129"/>
+      <c r="U61" s="72"/>
+      <c r="V61" s="40">
         <v>46399</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B62" s="66"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="23"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
       <c r="I62" s="5"/>
       <c r="K62" s="5"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="5"/>
-      <c r="T62" s="13"/>
+      <c r="O62" s="103"/>
+      <c r="P62" s="129"/>
+      <c r="Q62" s="129"/>
+      <c r="R62" s="129"/>
+      <c r="S62" s="129"/>
+      <c r="T62" s="129"/>
+      <c r="U62" s="72"/>
     </row>
     <row r="63" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B63" s="68"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="23"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
       <c r="I63" s="5"/>
       <c r="K63" s="5"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="5"/>
-      <c r="T63" s="13"/>
+      <c r="O63" s="103"/>
+      <c r="P63" s="129"/>
+      <c r="Q63" s="129"/>
+      <c r="R63" s="129"/>
+      <c r="S63" s="129"/>
+      <c r="T63" s="129"/>
+      <c r="U63" s="72"/>
     </row>
     <row r="64" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="72" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="33"/>
-      <c r="T64" s="13"/>
-      <c r="V64" s="42">
+      <c r="E64" s="73"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="129"/>
+      <c r="Q64" s="129"/>
+      <c r="R64" s="129"/>
+      <c r="S64" s="129"/>
+      <c r="T64" s="129"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="40">
         <v>48223</v>
       </c>
     </row>
     <row r="65" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B65" s="66"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="23"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
       <c r="I65" s="5"/>
       <c r="K65" s="5"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="5"/>
-      <c r="T65" s="13"/>
+      <c r="O65" s="103"/>
+      <c r="P65" s="129"/>
+      <c r="Q65" s="129"/>
+      <c r="R65" s="129"/>
+      <c r="S65" s="129"/>
+      <c r="T65" s="129"/>
+      <c r="U65" s="72"/>
     </row>
     <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B66" s="68"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="23"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
       <c r="I66" s="5"/>
       <c r="K66" s="5"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="5"/>
-      <c r="T66" s="13"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="129"/>
+      <c r="Q66" s="129"/>
+      <c r="R66" s="129"/>
+      <c r="S66" s="129"/>
+      <c r="T66" s="129"/>
+      <c r="U66" s="72"/>
     </row>
     <row r="67" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="33"/>
-      <c r="T67" s="13"/>
-      <c r="V67" s="42">
+      <c r="E67" s="73"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="129"/>
+      <c r="Q67" s="129"/>
+      <c r="R67" s="129"/>
+      <c r="S67" s="129"/>
+      <c r="T67" s="129"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="40">
         <v>48223</v>
       </c>
     </row>
     <row r="68" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B68" s="66"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="26"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
       <c r="I68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="T68" s="13"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="129"/>
+      <c r="Q68" s="129"/>
+      <c r="R68" s="129"/>
+      <c r="S68" s="129"/>
+      <c r="T68" s="129"/>
+      <c r="U68" s="72"/>
     </row>
     <row r="69" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B69" s="68"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="26"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="25"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
       <c r="I69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="T69" s="13"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="129"/>
+      <c r="Q69" s="129"/>
+      <c r="R69" s="129"/>
+      <c r="S69" s="129"/>
+      <c r="T69" s="129"/>
+      <c r="U69" s="72"/>
     </row>
     <row r="70" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="101"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="96"/>
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
       <c r="I70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="T70" s="13"/>
-      <c r="V70" s="120" t="s">
+      <c r="O70" s="12"/>
+      <c r="P70" s="129"/>
+      <c r="Q70" s="129"/>
+      <c r="R70" s="129"/>
+      <c r="S70" s="129"/>
+      <c r="T70" s="129"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="113" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B71" s="66"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="26"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
       <c r="I71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="T71" s="13"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="129"/>
+      <c r="Q71" s="129"/>
+      <c r="R71" s="129"/>
+      <c r="S71" s="129"/>
+      <c r="T71" s="129"/>
+      <c r="U71" s="72"/>
     </row>
     <row r="72" spans="2:22" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
-      <c r="B72" s="68"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="26"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
       <c r="I72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="T72" s="13"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="129"/>
+      <c r="Q72" s="129"/>
+      <c r="R72" s="129"/>
+      <c r="S72" s="129"/>
+      <c r="T72" s="129"/>
+      <c r="U72" s="72"/>
     </row>
     <row r="73" spans="2:22" ht="18.75" customHeight="1" outlineLevel="1">
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="72" t="s">
         <v>30</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="101"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="96"/>
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
       <c r="I73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="T73" s="13"/>
-      <c r="V73" s="121">
+      <c r="O73" s="12"/>
+      <c r="P73" s="129"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="129"/>
+      <c r="S73" s="129"/>
+      <c r="T73" s="129"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="114">
         <v>45426</v>
       </c>
     </row>
     <row r="74" spans="2:22" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
-      <c r="B74" s="66"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="26"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
       <c r="I74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="T74" s="13"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="129"/>
+      <c r="Q74" s="129"/>
+      <c r="R74" s="129"/>
+      <c r="S74" s="129"/>
+      <c r="T74" s="129"/>
+      <c r="U74" s="72"/>
     </row>
     <row r="75" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B75" s="68"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="26"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="T75" s="13"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="129"/>
+      <c r="Q75" s="129"/>
+      <c r="R75" s="129"/>
+      <c r="S75" s="129"/>
+      <c r="T75" s="129"/>
+      <c r="U75" s="72"/>
     </row>
     <row r="76" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="72" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="99"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="94"/>
       <c r="I76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="T76" s="13"/>
-      <c r="V76" s="42">
+      <c r="O76" s="12"/>
+      <c r="P76" s="129"/>
+      <c r="Q76" s="129"/>
+      <c r="R76" s="129"/>
+      <c r="S76" s="129"/>
+      <c r="T76" s="129"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="40">
         <v>46336</v>
       </c>
     </row>
     <row r="77" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B77" s="66"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="23"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
       <c r="K77" s="5"/>
-      <c r="T77" s="13"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="129"/>
+      <c r="Q77" s="129"/>
+      <c r="R77" s="129"/>
+      <c r="S77" s="129"/>
+      <c r="T77" s="129"/>
+      <c r="U77" s="72"/>
     </row>
     <row r="78" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B78" s="68"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="23"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
       <c r="K78" s="5"/>
-      <c r="T78" s="13"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="129"/>
+      <c r="Q78" s="129"/>
+      <c r="R78" s="129"/>
+      <c r="S78" s="129"/>
+      <c r="T78" s="129"/>
+      <c r="U78" s="72"/>
     </row>
     <row r="79" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="72" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="33"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="31"/>
       <c r="K79" s="5"/>
-      <c r="T79" s="13"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="129"/>
+      <c r="Q79" s="129"/>
+      <c r="R79" s="129"/>
+      <c r="S79" s="129"/>
+      <c r="T79" s="129"/>
+      <c r="U79" s="72"/>
       <c r="V79" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B80" s="66"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="106"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="100"/>
       <c r="K80" s="5"/>
-      <c r="T80" s="13"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="129"/>
+      <c r="Q80" s="129"/>
+      <c r="R80" s="129"/>
+      <c r="S80" s="129"/>
+      <c r="T80" s="129"/>
+      <c r="U80" s="72"/>
     </row>
     <row r="81" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B81" s="68"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="26"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="25"/>
       <c r="G81" s="5"/>
-      <c r="J81" s="46"/>
+      <c r="J81" s="44"/>
       <c r="K81" s="5"/>
-      <c r="T81" s="13"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="129"/>
+      <c r="Q81" s="129"/>
+      <c r="R81" s="129"/>
+      <c r="S81" s="129"/>
+      <c r="T81" s="129"/>
+      <c r="U81" s="72"/>
     </row>
     <row r="82" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="72" t="s">
         <v>29</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="96"/>
-      <c r="J82" s="33"/>
-      <c r="T82" s="13"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="31"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="129"/>
+      <c r="Q82" s="129"/>
+      <c r="R82" s="129"/>
+      <c r="S82" s="129"/>
+      <c r="T82" s="129"/>
+      <c r="U82" s="72"/>
       <c r="V82" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="83" spans="2:22" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B83" s="70"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
       <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="15"/>
+      <c r="P83" s="134"/>
+      <c r="Q83" s="134"/>
+      <c r="R83" s="134"/>
+      <c r="S83" s="134"/>
+      <c r="T83" s="134"/>
+      <c r="U83" s="72"/>
     </row>
     <row r="84" spans="2:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="85" spans="2:22">
-      <c r="B85" s="75"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="2:22">
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O86" s="1"/>
-      <c r="P86" s="34"/>
+      <c r="P86" s="32"/>
     </row>
     <row r="87" spans="2:22">
-      <c r="B87" s="76"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O87" s="1"/>
-      <c r="P87" s="34"/>
+      <c r="P87" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4CADB4-AAC1-4995-B440-6C6313C75C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44305DC0-F4ED-4917-8FF2-ED5552B34F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,6 +1600,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1626,58 +1678,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,7 +1962,7 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y76" sqref="Y76"/>
+      <selection activeCell="V91" sqref="V91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1992,11 +1992,11 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="17"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
       <c r="U2" s="72"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1">
@@ -2030,30 +2030,30 @@
       <c r="O3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="126" t="s">
+      <c r="P3" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="126" t="s">
+      <c r="Q3" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="126" t="s">
+      <c r="R3" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="126" t="s">
+      <c r="S3" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="126" t="s">
+      <c r="T3" s="117" t="s">
         <v>38</v>
       </c>
       <c r="U3" s="72"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="118"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="47">
         <v>2024</v>
       </c>
@@ -2084,19 +2084,19 @@
       <c r="O4" s="19">
         <v>2033</v>
       </c>
-      <c r="P4" s="127">
+      <c r="P4" s="118">
         <v>2034</v>
       </c>
-      <c r="Q4" s="127">
+      <c r="Q4" s="118">
         <v>2035</v>
       </c>
-      <c r="R4" s="127">
+      <c r="R4" s="118">
         <v>2036</v>
       </c>
-      <c r="S4" s="127">
+      <c r="S4" s="118">
         <v>2037</v>
       </c>
-      <c r="T4" s="127">
+      <c r="T4" s="118">
         <v>2038</v>
       </c>
       <c r="U4" s="72"/>
@@ -2116,11 +2116,11 @@
       <c r="M5" s="11"/>
       <c r="N5" s="8"/>
       <c r="O5" s="102"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
       <c r="U5" s="72"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1">
@@ -2138,11 +2138,11 @@
       <c r="K6" s="6"/>
       <c r="N6" s="4"/>
       <c r="O6" s="103"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
       <c r="U6" s="72"/>
       <c r="V6" s="115" t="s">
         <v>32</v>
@@ -2162,11 +2162,11 @@
       <c r="K7" s="6"/>
       <c r="N7" s="4"/>
       <c r="O7" s="103"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
       <c r="U7" s="72"/>
     </row>
     <row r="8" spans="1:22" ht="5.0999999999999996" customHeight="1">
@@ -2183,21 +2183,21 @@
       <c r="K8" s="6"/>
       <c r="N8" s="4"/>
       <c r="O8" s="103"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
       <c r="U8" s="72"/>
     </row>
     <row r="9" spans="1:22" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2206,18 +2206,18 @@
       <c r="K9" s="6"/>
       <c r="N9" s="4"/>
       <c r="O9" s="103"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
       <c r="U9" s="72"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
       <c r="F10" s="22"/>
       <c r="G10" s="6"/>
       <c r="H10" s="92"/>
@@ -2226,21 +2226,21 @@
       <c r="K10" s="6"/>
       <c r="N10" s="4"/>
       <c r="O10" s="103"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
       <c r="U10" s="72"/>
       <c r="V10" s="40">
         <v>47040</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12.95" customHeight="1">
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="22"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2249,11 +2249,11 @@
       <c r="K11" s="6"/>
       <c r="N11" s="4"/>
       <c r="O11" s="103"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
       <c r="U11" s="72"/>
       <c r="V11" s="40"/>
     </row>
@@ -2270,11 +2270,11 @@
       <c r="K12" s="6"/>
       <c r="N12" s="4"/>
       <c r="O12" s="103"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
       <c r="U12" s="72"/>
     </row>
     <row r="13" spans="1:22" ht="5.0999999999999996" customHeight="1">
@@ -2290,20 +2290,20 @@
       <c r="K13" s="6"/>
       <c r="N13" s="4"/>
       <c r="O13" s="103"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
       <c r="U13" s="72"/>
     </row>
     <row r="14" spans="1:22" ht="9" customHeight="1">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="139"/>
       <c r="F14" s="22"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2312,18 +2312,18 @@
       <c r="K14" s="6"/>
       <c r="N14" s="4"/>
       <c r="O14" s="103"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
       <c r="U14" s="72"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -2333,21 +2333,21 @@
       <c r="L15" s="5"/>
       <c r="N15" s="4"/>
       <c r="O15" s="103"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
       <c r="U15" s="72"/>
       <c r="V15" s="40">
         <v>47127</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="9" customHeight="1">
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="139"/>
       <c r="F16" s="22"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2356,11 +2356,11 @@
       <c r="K16" s="6"/>
       <c r="N16" s="4"/>
       <c r="O16" s="103"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
       <c r="U16" s="72"/>
       <c r="V16" s="40"/>
     </row>
@@ -2377,11 +2377,11 @@
       <c r="K17" s="6"/>
       <c r="N17" s="4"/>
       <c r="O17" s="103"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
       <c r="U17" s="72"/>
     </row>
     <row r="18" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -2397,20 +2397,20 @@
       <c r="K18" s="6"/>
       <c r="N18" s="4"/>
       <c r="O18" s="103"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
       <c r="U18" s="72"/>
     </row>
     <row r="19" spans="2:22" ht="9" customHeight="1">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
       <c r="F19" s="22"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -2419,18 +2419,18 @@
       <c r="K19" s="6"/>
       <c r="N19" s="4"/>
       <c r="O19" s="103"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
       <c r="U19" s="72"/>
     </row>
     <row r="20" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="139"/>
       <c r="F20" s="26"/>
       <c r="G20" s="37"/>
       <c r="H20" s="43"/>
@@ -2441,21 +2441,21 @@
       <c r="M20" s="36"/>
       <c r="N20" s="92"/>
       <c r="O20" s="103"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
       <c r="U20" s="72"/>
       <c r="V20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="9" customHeight="1">
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
       <c r="F21" s="25"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -2464,11 +2464,11 @@
       <c r="K21" s="6"/>
       <c r="N21" s="4"/>
       <c r="O21" s="103"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
       <c r="U21" s="72"/>
     </row>
     <row r="22" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -2484,11 +2484,11 @@
       <c r="K22" s="6"/>
       <c r="N22" s="4"/>
       <c r="O22" s="103"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
       <c r="U22" s="72"/>
     </row>
     <row r="23" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -2504,11 +2504,11 @@
       <c r="K23" s="6"/>
       <c r="N23" s="4"/>
       <c r="O23" s="103"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
       <c r="U23" s="72"/>
     </row>
     <row r="24" spans="2:22" ht="18.75" customHeight="1">
@@ -2532,11 +2532,11 @@
         <v>43</v>
       </c>
       <c r="O24" s="12"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
       <c r="U24" s="72"/>
       <c r="V24" s="40">
         <v>48223</v>
@@ -2555,11 +2555,11 @@
       <c r="K25" s="6"/>
       <c r="N25" s="4"/>
       <c r="O25" s="103"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
       <c r="U25" s="72"/>
     </row>
     <row r="26" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
@@ -2575,20 +2575,20 @@
       <c r="K26" s="6"/>
       <c r="N26" s="4"/>
       <c r="O26" s="103"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
       <c r="U26" s="72"/>
     </row>
     <row r="27" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
       <c r="F27" s="25"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2597,18 +2597,18 @@
       <c r="K27" s="6"/>
       <c r="N27" s="4"/>
       <c r="O27" s="103"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
       <c r="U27" s="72"/>
     </row>
     <row r="28" spans="2:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="109"/>
       <c r="G28" s="50"/>
       <c r="H28" s="27"/>
@@ -2617,23 +2617,23 @@
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
       <c r="U28" s="72"/>
       <c r="V28" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
       <c r="F29" s="25"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2642,11 +2642,11 @@
       <c r="K29" s="6"/>
       <c r="N29" s="4"/>
       <c r="O29" s="103"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
       <c r="U29" s="72"/>
       <c r="V29" s="40"/>
     </row>
@@ -2663,11 +2663,11 @@
       <c r="K30" s="6"/>
       <c r="N30" s="4"/>
       <c r="O30" s="103"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
       <c r="U30" s="72"/>
     </row>
     <row r="31" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
@@ -2683,20 +2683,20 @@
       <c r="K31" s="6"/>
       <c r="N31" s="4"/>
       <c r="O31" s="103"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
       <c r="U31" s="72"/>
     </row>
     <row r="32" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
       <c r="F32" s="25"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2705,18 +2705,18 @@
       <c r="K32" s="6"/>
       <c r="N32" s="4"/>
       <c r="O32" s="103"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="129"/>
-      <c r="T32" s="129"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
       <c r="U32" s="72"/>
     </row>
     <row r="33" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="124"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
       <c r="F33" s="109"/>
       <c r="G33" s="50"/>
       <c r="H33" s="27"/>
@@ -2725,23 +2725,23 @@
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
       <c r="U33" s="72"/>
       <c r="V33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
       <c r="F34" s="107"/>
       <c r="G34" s="100"/>
       <c r="H34" s="6"/>
@@ -2750,11 +2750,11 @@
       <c r="K34" s="6"/>
       <c r="N34" s="4"/>
       <c r="O34" s="103"/>
-      <c r="P34" s="129"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="129"/>
-      <c r="T34" s="129"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
       <c r="U34" s="72"/>
     </row>
     <row r="35" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
@@ -2770,11 +2770,11 @@
       <c r="K35" s="6"/>
       <c r="N35" s="4"/>
       <c r="O35" s="103"/>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
       <c r="U35" s="72"/>
     </row>
     <row r="36" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1">
@@ -2790,11 +2790,11 @@
       <c r="K36" s="6"/>
       <c r="N36" s="4"/>
       <c r="O36" s="103"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="129"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="120"/>
       <c r="U36" s="72"/>
     </row>
     <row r="37" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
@@ -2812,13 +2812,13 @@
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
-      <c r="N37" s="141"/>
-      <c r="O37" s="142"/>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="133"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="124"/>
       <c r="U37" s="72"/>
       <c r="V37" s="40">
         <v>49869</v>
@@ -2839,11 +2839,11 @@
       <c r="M38" s="13"/>
       <c r="N38" s="98"/>
       <c r="O38" s="101"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
       <c r="U38" s="72"/>
     </row>
     <row r="39" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
@@ -2859,11 +2859,11 @@
       <c r="M39" s="11"/>
       <c r="N39" s="8"/>
       <c r="O39" s="102"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="72"/>
     </row>
     <row r="40" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
@@ -2882,11 +2882,11 @@
       <c r="L40" s="5"/>
       <c r="N40" s="4"/>
       <c r="O40" s="103"/>
-      <c r="P40" s="129"/>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="129"/>
-      <c r="T40" s="129"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
       <c r="U40" s="72"/>
       <c r="V40" s="114">
         <v>45391</v>
@@ -2908,11 +2908,11 @@
       <c r="M41" s="13"/>
       <c r="N41" s="98"/>
       <c r="O41" s="101"/>
-      <c r="P41" s="134"/>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="134"/>
-      <c r="S41" s="134"/>
-      <c r="T41" s="134"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
       <c r="U41" s="72"/>
     </row>
     <row r="42" spans="1:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
@@ -2929,11 +2929,11 @@
       <c r="M42" s="11"/>
       <c r="N42" s="8"/>
       <c r="O42" s="102"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="128"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
       <c r="U42" s="72"/>
     </row>
     <row r="43" spans="1:22" ht="18.75" customHeight="1">
@@ -2952,11 +2952,11 @@
       <c r="L43" s="5"/>
       <c r="N43" s="4"/>
       <c r="O43" s="103"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
       <c r="U43" s="72"/>
       <c r="V43" s="115" t="s">
         <v>32</v>
@@ -2977,11 +2977,11 @@
       <c r="L44" s="5"/>
       <c r="N44" s="4"/>
       <c r="O44" s="103"/>
-      <c r="P44" s="129"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
-      <c r="S44" s="129"/>
-      <c r="T44" s="129"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="120"/>
       <c r="U44" s="72"/>
     </row>
     <row r="45" spans="1:22" ht="5.0999999999999996" customHeight="1">
@@ -2997,11 +2997,11 @@
       <c r="L45" s="5"/>
       <c r="N45" s="4"/>
       <c r="O45" s="103"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="129"/>
-      <c r="T45" s="129"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
       <c r="U45" s="72"/>
     </row>
     <row r="46" spans="1:22" ht="18.75" customHeight="1">
@@ -3019,11 +3019,11 @@
       <c r="K46" s="6"/>
       <c r="N46" s="4"/>
       <c r="O46" s="103"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="129"/>
-      <c r="T46" s="129"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
       <c r="U46" s="72"/>
       <c r="V46" s="40">
         <v>46490</v>
@@ -3042,11 +3042,11 @@
       <c r="K47" s="6"/>
       <c r="N47" s="4"/>
       <c r="O47" s="103"/>
-      <c r="P47" s="129"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="129"/>
-      <c r="T47" s="129"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="120"/>
       <c r="U47" s="72"/>
     </row>
     <row r="48" spans="1:22" ht="5.0999999999999996" customHeight="1">
@@ -3062,11 +3062,11 @@
       <c r="K48" s="6"/>
       <c r="N48" s="4"/>
       <c r="O48" s="103"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="129"/>
-      <c r="S48" s="129"/>
-      <c r="T48" s="129"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="120"/>
       <c r="U48" s="72"/>
     </row>
     <row r="49" spans="2:22" ht="18.75" customHeight="1">
@@ -3085,11 +3085,11 @@
       <c r="L49" s="5"/>
       <c r="N49" s="4"/>
       <c r="O49" s="103"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="129"/>
-      <c r="T49" s="129"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
       <c r="U49" s="72"/>
       <c r="V49" s="40">
         <v>47218</v>
@@ -3108,11 +3108,11 @@
       <c r="K50" s="6"/>
       <c r="N50" s="4"/>
       <c r="O50" s="103"/>
-      <c r="P50" s="129"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
-      <c r="S50" s="129"/>
-      <c r="T50" s="129"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="120"/>
+      <c r="T50" s="120"/>
       <c r="U50" s="72"/>
     </row>
     <row r="51" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -3128,11 +3128,11 @@
       <c r="K51" s="6"/>
       <c r="N51" s="4"/>
       <c r="O51" s="103"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="129"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="120"/>
+      <c r="T51" s="120"/>
       <c r="U51" s="72"/>
     </row>
     <row r="52" spans="2:22" ht="18.75" customHeight="1">
@@ -3152,11 +3152,11 @@
       <c r="M52" s="36"/>
       <c r="N52" s="93"/>
       <c r="O52" s="103"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="129"/>
-      <c r="T52" s="129"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="120"/>
       <c r="U52" s="72"/>
       <c r="V52" s="3" t="s">
         <v>33</v>
@@ -3176,11 +3176,11 @@
       <c r="L53" s="5"/>
       <c r="N53" s="4"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="129"/>
-      <c r="T53" s="129"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="120"/>
+      <c r="T53" s="120"/>
       <c r="U53" s="72"/>
     </row>
     <row r="54" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
@@ -3197,12 +3197,12 @@
       <c r="L54" s="5"/>
       <c r="M54" s="44"/>
       <c r="N54" s="49"/>
-      <c r="O54" s="135"/>
-      <c r="P54" s="131"/>
-      <c r="Q54" s="131"/>
-      <c r="R54" s="131"/>
-      <c r="S54" s="129"/>
-      <c r="T54" s="129"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="120"/>
+      <c r="T54" s="120"/>
       <c r="U54" s="72"/>
     </row>
     <row r="55" spans="2:22" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
@@ -3221,13 +3221,13 @@
       <c r="L55" s="27"/>
       <c r="M55" s="27"/>
       <c r="N55" s="29"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="137"/>
-      <c r="Q55" s="137"/>
-      <c r="R55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="T55" s="138"/>
-      <c r="U55" s="139"/>
+      <c r="O55" s="127"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="121"/>
+      <c r="S55" s="121"/>
+      <c r="T55" s="129"/>
+      <c r="U55" s="130"/>
       <c r="V55" s="40">
         <v>50234</v>
       </c>
@@ -3245,12 +3245,12 @@
       <c r="K56" s="51"/>
       <c r="L56" s="100"/>
       <c r="N56" s="99"/>
-      <c r="O56" s="140"/>
-      <c r="P56" s="129"/>
-      <c r="Q56" s="129"/>
-      <c r="R56" s="129"/>
-      <c r="S56" s="129"/>
-      <c r="T56" s="134"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="120"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="120"/>
+      <c r="S56" s="120"/>
+      <c r="T56" s="125"/>
       <c r="U56" s="72"/>
     </row>
     <row r="57" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
@@ -3266,11 +3266,11 @@
       <c r="M57" s="11"/>
       <c r="N57" s="8"/>
       <c r="O57" s="102"/>
-      <c r="P57" s="128"/>
-      <c r="Q57" s="128"/>
-      <c r="R57" s="128"/>
-      <c r="S57" s="128"/>
-      <c r="T57" s="128"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="119"/>
+      <c r="R57" s="119"/>
+      <c r="S57" s="119"/>
+      <c r="T57" s="119"/>
       <c r="U57" s="72"/>
     </row>
     <row r="58" spans="2:22" ht="18.75" customHeight="1">
@@ -3289,11 +3289,11 @@
       <c r="L58" s="5"/>
       <c r="N58" s="4"/>
       <c r="O58" s="103"/>
-      <c r="P58" s="129"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
+      <c r="P58" s="120"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="120"/>
+      <c r="S58" s="120"/>
+      <c r="T58" s="120"/>
       <c r="U58" s="72"/>
       <c r="V58" s="40">
         <v>47127</v>
@@ -3312,11 +3312,11 @@
       <c r="K59" s="5"/>
       <c r="N59" s="4"/>
       <c r="O59" s="103"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="129"/>
-      <c r="T59" s="129"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="120"/>
+      <c r="R59" s="120"/>
+      <c r="S59" s="120"/>
+      <c r="T59" s="120"/>
       <c r="U59" s="72"/>
     </row>
     <row r="60" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -3332,11 +3332,11 @@
       <c r="K60" s="5"/>
       <c r="N60" s="4"/>
       <c r="O60" s="103"/>
-      <c r="P60" s="129"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
-      <c r="S60" s="129"/>
-      <c r="T60" s="129"/>
+      <c r="P60" s="120"/>
+      <c r="Q60" s="120"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="120"/>
+      <c r="T60" s="120"/>
       <c r="U60" s="72"/>
     </row>
     <row r="61" spans="2:22" ht="18.75" customHeight="1">
@@ -3354,11 +3354,11 @@
       <c r="K61" s="5"/>
       <c r="N61" s="4"/>
       <c r="O61" s="103"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="129"/>
-      <c r="T61" s="129"/>
+      <c r="P61" s="120"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="120"/>
+      <c r="S61" s="120"/>
+      <c r="T61" s="120"/>
       <c r="U61" s="72"/>
       <c r="V61" s="40">
         <v>46399</v>
@@ -3376,11 +3376,11 @@
       <c r="K62" s="5"/>
       <c r="N62" s="4"/>
       <c r="O62" s="103"/>
-      <c r="P62" s="129"/>
-      <c r="Q62" s="129"/>
-      <c r="R62" s="129"/>
-      <c r="S62" s="129"/>
-      <c r="T62" s="129"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
+      <c r="S62" s="120"/>
+      <c r="T62" s="120"/>
       <c r="U62" s="72"/>
     </row>
     <row r="63" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -3395,11 +3395,11 @@
       <c r="K63" s="5"/>
       <c r="N63" s="4"/>
       <c r="O63" s="103"/>
-      <c r="P63" s="129"/>
-      <c r="Q63" s="129"/>
-      <c r="R63" s="129"/>
-      <c r="S63" s="129"/>
-      <c r="T63" s="129"/>
+      <c r="P63" s="120"/>
+      <c r="Q63" s="120"/>
+      <c r="R63" s="120"/>
+      <c r="S63" s="120"/>
+      <c r="T63" s="120"/>
       <c r="U63" s="72"/>
     </row>
     <row r="64" spans="2:22" ht="18.75" customHeight="1">
@@ -3419,11 +3419,11 @@
       <c r="M64" s="30"/>
       <c r="N64" s="31"/>
       <c r="O64" s="12"/>
-      <c r="P64" s="129"/>
-      <c r="Q64" s="129"/>
-      <c r="R64" s="129"/>
-      <c r="S64" s="129"/>
-      <c r="T64" s="129"/>
+      <c r="P64" s="120"/>
+      <c r="Q64" s="120"/>
+      <c r="R64" s="120"/>
+      <c r="S64" s="120"/>
+      <c r="T64" s="120"/>
       <c r="U64" s="72"/>
       <c r="V64" s="40">
         <v>48223</v>
@@ -3441,11 +3441,11 @@
       <c r="K65" s="5"/>
       <c r="N65" s="4"/>
       <c r="O65" s="103"/>
-      <c r="P65" s="129"/>
-      <c r="Q65" s="129"/>
-      <c r="R65" s="129"/>
-      <c r="S65" s="129"/>
-      <c r="T65" s="129"/>
+      <c r="P65" s="120"/>
+      <c r="Q65" s="120"/>
+      <c r="R65" s="120"/>
+      <c r="S65" s="120"/>
+      <c r="T65" s="120"/>
       <c r="U65" s="72"/>
     </row>
     <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -3460,11 +3460,11 @@
       <c r="K66" s="5"/>
       <c r="N66" s="4"/>
       <c r="O66" s="103"/>
-      <c r="P66" s="129"/>
-      <c r="Q66" s="129"/>
-      <c r="R66" s="129"/>
-      <c r="S66" s="129"/>
-      <c r="T66" s="129"/>
+      <c r="P66" s="120"/>
+      <c r="Q66" s="120"/>
+      <c r="R66" s="120"/>
+      <c r="S66" s="120"/>
+      <c r="T66" s="120"/>
       <c r="U66" s="72"/>
     </row>
     <row r="67" spans="2:22" ht="18.75" customHeight="1">
@@ -3484,11 +3484,11 @@
       <c r="M67" s="30"/>
       <c r="N67" s="31"/>
       <c r="O67" s="12"/>
-      <c r="P67" s="129"/>
-      <c r="Q67" s="129"/>
-      <c r="R67" s="129"/>
-      <c r="S67" s="129"/>
-      <c r="T67" s="129"/>
+      <c r="P67" s="120"/>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="120"/>
+      <c r="S67" s="120"/>
+      <c r="T67" s="120"/>
       <c r="U67" s="72"/>
       <c r="V67" s="40">
         <v>48223</v>
@@ -3505,11 +3505,11 @@
       <c r="I68" s="5"/>
       <c r="K68" s="5"/>
       <c r="O68" s="12"/>
-      <c r="P68" s="129"/>
-      <c r="Q68" s="129"/>
-      <c r="R68" s="129"/>
-      <c r="S68" s="129"/>
-      <c r="T68" s="129"/>
+      <c r="P68" s="120"/>
+      <c r="Q68" s="120"/>
+      <c r="R68" s="120"/>
+      <c r="S68" s="120"/>
+      <c r="T68" s="120"/>
       <c r="U68" s="72"/>
     </row>
     <row r="69" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -3523,11 +3523,11 @@
       <c r="I69" s="5"/>
       <c r="K69" s="5"/>
       <c r="O69" s="12"/>
-      <c r="P69" s="129"/>
-      <c r="Q69" s="129"/>
-      <c r="R69" s="129"/>
-      <c r="S69" s="129"/>
-      <c r="T69" s="129"/>
+      <c r="P69" s="120"/>
+      <c r="Q69" s="120"/>
+      <c r="R69" s="120"/>
+      <c r="S69" s="120"/>
+      <c r="T69" s="120"/>
       <c r="U69" s="72"/>
     </row>
     <row r="70" spans="2:22" ht="18.75" customHeight="1">
@@ -3543,11 +3543,11 @@
       <c r="I70" s="5"/>
       <c r="K70" s="5"/>
       <c r="O70" s="12"/>
-      <c r="P70" s="129"/>
-      <c r="Q70" s="129"/>
-      <c r="R70" s="129"/>
-      <c r="S70" s="129"/>
-      <c r="T70" s="129"/>
+      <c r="P70" s="120"/>
+      <c r="Q70" s="120"/>
+      <c r="R70" s="120"/>
+      <c r="S70" s="120"/>
+      <c r="T70" s="120"/>
       <c r="U70" s="72"/>
       <c r="V70" s="113" t="s">
         <v>34</v>
@@ -3564,14 +3564,14 @@
       <c r="I71" s="5"/>
       <c r="K71" s="5"/>
       <c r="O71" s="12"/>
-      <c r="P71" s="129"/>
-      <c r="Q71" s="129"/>
-      <c r="R71" s="129"/>
-      <c r="S71" s="129"/>
-      <c r="T71" s="129"/>
+      <c r="P71" s="120"/>
+      <c r="Q71" s="120"/>
+      <c r="R71" s="120"/>
+      <c r="S71" s="120"/>
+      <c r="T71" s="120"/>
       <c r="U71" s="72"/>
     </row>
-    <row r="72" spans="2:22" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+    <row r="72" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B72" s="63"/>
       <c r="C72" s="79"/>
       <c r="D72" s="79"/>
@@ -3582,14 +3582,14 @@
       <c r="I72" s="5"/>
       <c r="K72" s="5"/>
       <c r="O72" s="12"/>
-      <c r="P72" s="129"/>
-      <c r="Q72" s="129"/>
-      <c r="R72" s="129"/>
-      <c r="S72" s="129"/>
-      <c r="T72" s="129"/>
+      <c r="P72" s="120"/>
+      <c r="Q72" s="120"/>
+      <c r="R72" s="120"/>
+      <c r="S72" s="120"/>
+      <c r="T72" s="120"/>
       <c r="U72" s="72"/>
     </row>
-    <row r="73" spans="2:22" ht="18.75" customHeight="1" outlineLevel="1">
+    <row r="73" spans="2:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B73" s="72" t="s">
         <v>30</v>
       </c>
@@ -3602,17 +3602,17 @@
       <c r="I73" s="5"/>
       <c r="K73" s="5"/>
       <c r="O73" s="12"/>
-      <c r="P73" s="129"/>
-      <c r="Q73" s="129"/>
-      <c r="R73" s="129"/>
-      <c r="S73" s="129"/>
-      <c r="T73" s="129"/>
+      <c r="P73" s="120"/>
+      <c r="Q73" s="120"/>
+      <c r="R73" s="120"/>
+      <c r="S73" s="120"/>
+      <c r="T73" s="120"/>
       <c r="U73" s="72"/>
       <c r="V73" s="114">
         <v>45426</v>
       </c>
     </row>
-    <row r="74" spans="2:22" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+    <row r="74" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B74" s="61"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
@@ -3623,14 +3623,14 @@
       <c r="I74" s="5"/>
       <c r="K74" s="5"/>
       <c r="O74" s="12"/>
-      <c r="P74" s="129"/>
-      <c r="Q74" s="129"/>
-      <c r="R74" s="129"/>
-      <c r="S74" s="129"/>
-      <c r="T74" s="129"/>
+      <c r="P74" s="120"/>
+      <c r="Q74" s="120"/>
+      <c r="R74" s="120"/>
+      <c r="S74" s="120"/>
+      <c r="T74" s="120"/>
       <c r="U74" s="72"/>
     </row>
-    <row r="75" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="75" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B75" s="63"/>
       <c r="C75" s="79"/>
       <c r="D75" s="79"/>
@@ -3641,11 +3641,11 @@
       <c r="I75" s="5"/>
       <c r="K75" s="5"/>
       <c r="O75" s="12"/>
-      <c r="P75" s="129"/>
-      <c r="Q75" s="129"/>
-      <c r="R75" s="129"/>
-      <c r="S75" s="129"/>
-      <c r="T75" s="129"/>
+      <c r="P75" s="120"/>
+      <c r="Q75" s="120"/>
+      <c r="R75" s="120"/>
+      <c r="S75" s="120"/>
+      <c r="T75" s="120"/>
       <c r="U75" s="72"/>
     </row>
     <row r="76" spans="2:22" ht="18.75" customHeight="1">
@@ -3661,11 +3661,11 @@
       <c r="I76" s="5"/>
       <c r="K76" s="5"/>
       <c r="O76" s="12"/>
-      <c r="P76" s="129"/>
-      <c r="Q76" s="129"/>
-      <c r="R76" s="129"/>
-      <c r="S76" s="129"/>
-      <c r="T76" s="129"/>
+      <c r="P76" s="120"/>
+      <c r="Q76" s="120"/>
+      <c r="R76" s="120"/>
+      <c r="S76" s="120"/>
+      <c r="T76" s="120"/>
       <c r="U76" s="72"/>
       <c r="V76" s="40">
         <v>46336</v>
@@ -3681,11 +3681,11 @@
       <c r="H77" s="4"/>
       <c r="K77" s="5"/>
       <c r="O77" s="12"/>
-      <c r="P77" s="129"/>
-      <c r="Q77" s="129"/>
-      <c r="R77" s="129"/>
-      <c r="S77" s="129"/>
-      <c r="T77" s="129"/>
+      <c r="P77" s="120"/>
+      <c r="Q77" s="120"/>
+      <c r="R77" s="120"/>
+      <c r="S77" s="120"/>
+      <c r="T77" s="120"/>
       <c r="U77" s="72"/>
     </row>
     <row r="78" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -3698,11 +3698,11 @@
       <c r="H78" s="4"/>
       <c r="K78" s="5"/>
       <c r="O78" s="12"/>
-      <c r="P78" s="129"/>
-      <c r="Q78" s="129"/>
-      <c r="R78" s="129"/>
-      <c r="S78" s="129"/>
-      <c r="T78" s="129"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="120"/>
+      <c r="R78" s="120"/>
+      <c r="S78" s="120"/>
+      <c r="T78" s="120"/>
       <c r="U78" s="72"/>
     </row>
     <row r="79" spans="2:22" ht="18.75" customHeight="1">
@@ -3712,16 +3712,16 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="73"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="31"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="94"/>
       <c r="K79" s="5"/>
       <c r="O79" s="12"/>
-      <c r="P79" s="129"/>
-      <c r="Q79" s="129"/>
-      <c r="R79" s="129"/>
-      <c r="S79" s="129"/>
-      <c r="T79" s="129"/>
+      <c r="P79" s="120"/>
+      <c r="Q79" s="120"/>
+      <c r="R79" s="120"/>
+      <c r="S79" s="120"/>
+      <c r="T79" s="120"/>
       <c r="U79" s="72"/>
       <c r="V79" s="3" t="s">
         <v>35</v>
@@ -3736,11 +3736,11 @@
       <c r="G80" s="100"/>
       <c r="K80" s="5"/>
       <c r="O80" s="12"/>
-      <c r="P80" s="129"/>
-      <c r="Q80" s="129"/>
-      <c r="R80" s="129"/>
-      <c r="S80" s="129"/>
-      <c r="T80" s="129"/>
+      <c r="P80" s="120"/>
+      <c r="Q80" s="120"/>
+      <c r="R80" s="120"/>
+      <c r="S80" s="120"/>
+      <c r="T80" s="120"/>
       <c r="U80" s="72"/>
     </row>
     <row r="81" spans="2:22" ht="5.0999999999999996" customHeight="1">
@@ -3753,11 +3753,11 @@
       <c r="J81" s="44"/>
       <c r="K81" s="5"/>
       <c r="O81" s="12"/>
-      <c r="P81" s="129"/>
-      <c r="Q81" s="129"/>
-      <c r="R81" s="129"/>
-      <c r="S81" s="129"/>
-      <c r="T81" s="129"/>
+      <c r="P81" s="120"/>
+      <c r="Q81" s="120"/>
+      <c r="R81" s="120"/>
+      <c r="S81" s="120"/>
+      <c r="T81" s="120"/>
       <c r="U81" s="72"/>
     </row>
     <row r="82" spans="2:22" ht="18.75" customHeight="1">
@@ -3773,11 +3773,11 @@
       <c r="I82" s="91"/>
       <c r="J82" s="31"/>
       <c r="O82" s="12"/>
-      <c r="P82" s="129"/>
-      <c r="Q82" s="129"/>
-      <c r="R82" s="129"/>
-      <c r="S82" s="129"/>
-      <c r="T82" s="129"/>
+      <c r="P82" s="120"/>
+      <c r="Q82" s="120"/>
+      <c r="R82" s="120"/>
+      <c r="S82" s="120"/>
+      <c r="T82" s="120"/>
       <c r="U82" s="72"/>
       <c r="V82" s="3" t="s">
         <v>36</v>
@@ -3798,11 +3798,11 @@
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
       <c r="O83" s="14"/>
-      <c r="P83" s="134"/>
-      <c r="Q83" s="134"/>
-      <c r="R83" s="134"/>
-      <c r="S83" s="134"/>
-      <c r="T83" s="134"/>
+      <c r="P83" s="125"/>
+      <c r="Q83" s="125"/>
+      <c r="R83" s="125"/>
+      <c r="S83" s="125"/>
+      <c r="T83" s="125"/>
       <c r="U83" s="72"/>
     </row>
     <row r="84" spans="2:22" ht="5.0999999999999996" customHeight="1"/>

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44305DC0-F4ED-4917-8FF2-ED5552B34F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F49D2-4E12-44FB-995A-C30AD43B382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42465" yWindow="0" windowWidth="25515" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>.NET 6</t>
     <phoneticPr fontId="1"/>
@@ -294,6 +294,30 @@
   <si>
     <t>拡張セキュリティ更新プログラム
  / ESU:Extended Security Updates</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET Framework 4.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET Framework 4.7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET Framework 4.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← Windows Server 2019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← Windows Server 2016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← Windows Server 2022</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -452,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1267,11 +1291,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1640,9 +1697,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1678,6 +1732,36 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V91" sqref="V91"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1972,14 +2056,15 @@
     <col min="6" max="6" width="7.125" style="2" customWidth="1"/>
     <col min="7" max="15" width="6.125" style="2" customWidth="1"/>
     <col min="16" max="20" width="6.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="26.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="6.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="26.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="2.625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:22">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:23">
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
@@ -1997,9 +2082,10 @@
       <c r="R2" s="116"/>
       <c r="S2" s="116"/>
       <c r="T2" s="116"/>
-      <c r="U2" s="72"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" thickBot="1">
+      <c r="U2" s="142"/>
+      <c r="V2" s="146"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" thickBot="1">
       <c r="F3" s="46" t="s">
         <v>13</v>
       </c>
@@ -2045,15 +2131,16 @@
       <c r="T3" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="72"/>
-    </row>
-    <row r="4" spans="1:22" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="134" t="s">
+      <c r="U3" s="143"/>
+      <c r="V3" s="146"/>
+    </row>
+    <row r="4" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B4" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="47">
         <v>2024</v>
       </c>
@@ -2099,9 +2186,10 @@
       <c r="T4" s="118">
         <v>2038</v>
       </c>
-      <c r="U4" s="72"/>
-    </row>
-    <row r="5" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U4" s="143"/>
+      <c r="V4" s="146"/>
+    </row>
+    <row r="5" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="B5" s="58"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -2121,9 +2209,10 @@
       <c r="R5" s="119"/>
       <c r="S5" s="119"/>
       <c r="T5" s="119"/>
-      <c r="U5" s="72"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1">
+      <c r="U5" s="143"/>
+      <c r="V5" s="146"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.75" customHeight="1">
       <c r="B6" s="72" t="s">
         <v>2</v>
       </c>
@@ -2143,12 +2232,13 @@
       <c r="R6" s="120"/>
       <c r="S6" s="120"/>
       <c r="T6" s="120"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="115" t="s">
+      <c r="U6" s="143"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="115" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="5.0999999999999996" customHeight="1">
+    <row r="7" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="61"/>
       <c r="C7" s="78"/>
@@ -2167,9 +2257,10 @@
       <c r="R7" s="120"/>
       <c r="S7" s="120"/>
       <c r="T7" s="120"/>
-      <c r="U7" s="72"/>
-    </row>
-    <row r="8" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U7" s="143"/>
+      <c r="V7" s="146"/>
+    </row>
+    <row r="8" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -2188,16 +2279,17 @@
       <c r="R8" s="120"/>
       <c r="S8" s="120"/>
       <c r="T8" s="120"/>
-      <c r="U8" s="72"/>
-    </row>
-    <row r="9" spans="1:22" ht="12.95" customHeight="1">
+      <c r="U8" s="143"/>
+      <c r="V8" s="146"/>
+    </row>
+    <row r="9" spans="1:23" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
       <c r="F9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2211,13 +2303,14 @@
       <c r="R9" s="120"/>
       <c r="S9" s="120"/>
       <c r="T9" s="120"/>
-      <c r="U9" s="72"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="146"/>
+    </row>
+    <row r="10" spans="1:23" ht="18.75" customHeight="1">
+      <c r="B10" s="136"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
       <c r="F10" s="22"/>
       <c r="G10" s="6"/>
       <c r="H10" s="92"/>
@@ -2231,16 +2324,17 @@
       <c r="R10" s="120"/>
       <c r="S10" s="120"/>
       <c r="T10" s="120"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="40">
+      <c r="U10" s="143"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="40">
         <v>47040</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="12.95" customHeight="1">
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
+    <row r="11" spans="1:23" ht="12.95" customHeight="1">
+      <c r="B11" s="136"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
       <c r="F11" s="22"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2254,10 +2348,11 @@
       <c r="R11" s="120"/>
       <c r="S11" s="120"/>
       <c r="T11" s="120"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="40"/>
-    </row>
-    <row r="12" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U11" s="143"/>
+      <c r="V11" s="146"/>
+      <c r="W11" s="40"/>
+    </row>
+    <row r="12" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="B12" s="85"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
@@ -2275,9 +2370,10 @@
       <c r="R12" s="120"/>
       <c r="S12" s="120"/>
       <c r="T12" s="120"/>
-      <c r="U12" s="72"/>
-    </row>
-    <row r="13" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U12" s="143"/>
+      <c r="V12" s="146"/>
+    </row>
+    <row r="13" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="B13" s="88"/>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
@@ -2295,15 +2391,16 @@
       <c r="R13" s="120"/>
       <c r="S13" s="120"/>
       <c r="T13" s="120"/>
-      <c r="U13" s="72"/>
-    </row>
-    <row r="14" spans="1:22" ht="9" customHeight="1">
-      <c r="B14" s="137" t="s">
+      <c r="U13" s="143"/>
+      <c r="V13" s="146"/>
+    </row>
+    <row r="14" spans="1:23" ht="9" customHeight="1">
+      <c r="B14" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="139"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
       <c r="F14" s="22"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2317,13 +2414,14 @@
       <c r="R14" s="120"/>
       <c r="S14" s="120"/>
       <c r="T14" s="120"/>
-      <c r="U14" s="72"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="146"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.75" customHeight="1">
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -2338,16 +2436,17 @@
       <c r="R15" s="120"/>
       <c r="S15" s="120"/>
       <c r="T15" s="120"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="40">
+      <c r="U15" s="143"/>
+      <c r="V15" s="146"/>
+      <c r="W15" s="40">
         <v>47127</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="9" customHeight="1">
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="139"/>
+    <row r="16" spans="1:23" ht="9" customHeight="1">
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
       <c r="F16" s="22"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2361,10 +2460,11 @@
       <c r="R16" s="120"/>
       <c r="S16" s="120"/>
       <c r="T16" s="120"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="40"/>
-    </row>
-    <row r="17" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U16" s="143"/>
+      <c r="V16" s="146"/>
+      <c r="W16" s="40"/>
+    </row>
+    <row r="17" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B17" s="85"/>
       <c r="C17" s="86"/>
       <c r="D17" s="86"/>
@@ -2382,9 +2482,10 @@
       <c r="R17" s="120"/>
       <c r="S17" s="120"/>
       <c r="T17" s="120"/>
-      <c r="U17" s="72"/>
-    </row>
-    <row r="18" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U17" s="143"/>
+      <c r="V17" s="146"/>
+    </row>
+    <row r="18" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
@@ -2402,15 +2503,16 @@
       <c r="R18" s="120"/>
       <c r="S18" s="120"/>
       <c r="T18" s="120"/>
-      <c r="U18" s="72"/>
-    </row>
-    <row r="19" spans="2:22" ht="9" customHeight="1">
-      <c r="B19" s="137" t="s">
+      <c r="U18" s="143"/>
+      <c r="V18" s="146"/>
+    </row>
+    <row r="19" spans="2:23" ht="9" customHeight="1">
+      <c r="B19" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="22"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -2424,13 +2526,14 @@
       <c r="R19" s="120"/>
       <c r="S19" s="120"/>
       <c r="T19" s="120"/>
-      <c r="U19" s="72"/>
-    </row>
-    <row r="20" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="146"/>
+    </row>
+    <row r="20" spans="2:23" ht="18.75" customHeight="1">
+      <c r="B20" s="136"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
       <c r="F20" s="26"/>
       <c r="G20" s="37"/>
       <c r="H20" s="43"/>
@@ -2446,16 +2549,17 @@
       <c r="R20" s="120"/>
       <c r="S20" s="120"/>
       <c r="T20" s="120"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="3" t="s">
+      <c r="U20" s="143"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="9" customHeight="1">
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
+    <row r="21" spans="2:23" ht="9" customHeight="1">
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
       <c r="F21" s="25"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -2469,9 +2573,10 @@
       <c r="R21" s="120"/>
       <c r="S21" s="120"/>
       <c r="T21" s="120"/>
-      <c r="U21" s="72"/>
-    </row>
-    <row r="22" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U21" s="143"/>
+      <c r="V21" s="146"/>
+    </row>
+    <row r="22" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B22" s="85"/>
       <c r="C22" s="86"/>
       <c r="D22" s="86"/>
@@ -2489,9 +2594,10 @@
       <c r="R22" s="120"/>
       <c r="S22" s="120"/>
       <c r="T22" s="120"/>
-      <c r="U22" s="72"/>
-    </row>
-    <row r="23" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U22" s="143"/>
+      <c r="V22" s="146"/>
+    </row>
+    <row r="23" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B23" s="63"/>
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
@@ -2509,9 +2615,10 @@
       <c r="R23" s="120"/>
       <c r="S23" s="120"/>
       <c r="T23" s="120"/>
-      <c r="U23" s="72"/>
-    </row>
-    <row r="24" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U23" s="143"/>
+      <c r="V23" s="146"/>
+    </row>
+    <row r="24" spans="2:23" ht="18.75" customHeight="1">
       <c r="B24" s="72" t="s">
         <v>3</v>
       </c>
@@ -2527,7 +2634,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="57" t="s">
         <v>43</v>
       </c>
@@ -2537,12 +2644,13 @@
       <c r="R24" s="120"/>
       <c r="S24" s="120"/>
       <c r="T24" s="120"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="40">
+      <c r="U24" s="143"/>
+      <c r="V24" s="146"/>
+      <c r="W24" s="40">
         <v>48223</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="25" spans="2:23" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B25" s="61"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
@@ -2560,9 +2668,10 @@
       <c r="R25" s="120"/>
       <c r="S25" s="120"/>
       <c r="T25" s="120"/>
-      <c r="U25" s="72"/>
-    </row>
-    <row r="26" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U25" s="143"/>
+      <c r="V25" s="146"/>
+    </row>
+    <row r="26" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B26" s="88"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -2580,15 +2689,16 @@
       <c r="R26" s="120"/>
       <c r="S26" s="120"/>
       <c r="T26" s="120"/>
-      <c r="U26" s="72"/>
-    </row>
-    <row r="27" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B27" s="140" t="s">
+      <c r="U26" s="143"/>
+      <c r="V26" s="146"/>
+    </row>
+    <row r="27" spans="2:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B27" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
       <c r="F27" s="25"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2602,13 +2712,14 @@
       <c r="R27" s="120"/>
       <c r="S27" s="120"/>
       <c r="T27" s="120"/>
-      <c r="U27" s="72"/>
-    </row>
-    <row r="28" spans="2:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B28" s="140"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="146"/>
+    </row>
+    <row r="28" spans="2:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
       <c r="F28" s="109"/>
       <c r="G28" s="50"/>
       <c r="H28" s="27"/>
@@ -2617,23 +2728,24 @@
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="133"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="132"/>
       <c r="P28" s="121"/>
       <c r="Q28" s="120"/>
       <c r="R28" s="120"/>
       <c r="S28" s="120"/>
       <c r="T28" s="120"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="3" t="s">
+      <c r="U28" s="143"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B29" s="140"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="142"/>
+    <row r="29" spans="2:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
       <c r="F29" s="25"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2647,10 +2759,11 @@
       <c r="R29" s="120"/>
       <c r="S29" s="120"/>
       <c r="T29" s="120"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="40"/>
-    </row>
-    <row r="30" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U29" s="143"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="40"/>
+    </row>
+    <row r="30" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B30" s="85"/>
       <c r="C30" s="86"/>
       <c r="D30" s="86"/>
@@ -2668,9 +2781,10 @@
       <c r="R30" s="120"/>
       <c r="S30" s="120"/>
       <c r="T30" s="120"/>
-      <c r="U30" s="72"/>
-    </row>
-    <row r="31" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U30" s="143"/>
+      <c r="V30" s="146"/>
+    </row>
+    <row r="31" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B31" s="88"/>
       <c r="C31" s="89"/>
       <c r="D31" s="89"/>
@@ -2688,15 +2802,16 @@
       <c r="R31" s="120"/>
       <c r="S31" s="120"/>
       <c r="T31" s="120"/>
-      <c r="U31" s="72"/>
-    </row>
-    <row r="32" spans="2:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B32" s="140" t="s">
+      <c r="U31" s="143"/>
+      <c r="V31" s="146"/>
+    </row>
+    <row r="32" spans="2:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B32" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
       <c r="F32" s="25"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2710,13 +2825,14 @@
       <c r="R32" s="120"/>
       <c r="S32" s="120"/>
       <c r="T32" s="120"/>
-      <c r="U32" s="72"/>
-    </row>
-    <row r="33" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B33" s="140"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="146"/>
+    </row>
+    <row r="33" spans="1:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
       <c r="F33" s="109"/>
       <c r="G33" s="50"/>
       <c r="H33" s="27"/>
@@ -2725,23 +2841,24 @@
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="133"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="132"/>
       <c r="P33" s="121"/>
       <c r="Q33" s="120"/>
       <c r="R33" s="120"/>
       <c r="S33" s="120"/>
       <c r="T33" s="120"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="3" t="s">
+      <c r="U33" s="143"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B34" s="140"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="142"/>
+    <row r="34" spans="1:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="141"/>
       <c r="F34" s="107"/>
       <c r="G34" s="100"/>
       <c r="H34" s="6"/>
@@ -2755,9 +2872,10 @@
       <c r="R34" s="120"/>
       <c r="S34" s="120"/>
       <c r="T34" s="120"/>
-      <c r="U34" s="72"/>
-    </row>
-    <row r="35" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U34" s="143"/>
+      <c r="V34" s="146"/>
+    </row>
+    <row r="35" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B35" s="85"/>
       <c r="C35" s="86"/>
       <c r="D35" s="86"/>
@@ -2775,9 +2893,10 @@
       <c r="R35" s="120"/>
       <c r="S35" s="120"/>
       <c r="T35" s="120"/>
-      <c r="U35" s="72"/>
-    </row>
-    <row r="36" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1">
+      <c r="U35" s="143"/>
+      <c r="V35" s="146"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1">
       <c r="B36" s="63"/>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
@@ -2795,9 +2914,10 @@
       <c r="R36" s="122"/>
       <c r="S36" s="122"/>
       <c r="T36" s="120"/>
-      <c r="U36" s="72"/>
-    </row>
-    <row r="37" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="U36" s="143"/>
+      <c r="V36" s="146"/>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B37" s="74" t="s">
         <v>4</v>
       </c>
@@ -2812,19 +2932,20 @@
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="133"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="132"/>
       <c r="P37" s="123"/>
       <c r="Q37" s="121"/>
       <c r="R37" s="121"/>
       <c r="S37" s="121"/>
       <c r="T37" s="124"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="40">
+      <c r="U37" s="144"/>
+      <c r="V37" s="146"/>
+      <c r="W37" s="40">
         <v>49869</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="38" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B38" s="65"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
@@ -2844,9 +2965,10 @@
       <c r="R38" s="125"/>
       <c r="S38" s="125"/>
       <c r="T38" s="125"/>
-      <c r="U38" s="72"/>
-    </row>
-    <row r="39" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U38" s="143"/>
+      <c r="V38" s="146"/>
+    </row>
+    <row r="39" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B39" s="68"/>
       <c r="E39" s="69"/>
       <c r="F39" s="24"/>
@@ -2864,9 +2986,10 @@
       <c r="R39" s="119"/>
       <c r="S39" s="119"/>
       <c r="T39" s="119"/>
-      <c r="U39" s="72"/>
-    </row>
-    <row r="40" spans="1:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U39" s="143"/>
+      <c r="V39" s="146"/>
+    </row>
+    <row r="40" spans="1:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B40" s="72" t="s">
         <v>5</v>
       </c>
@@ -2887,12 +3010,13 @@
       <c r="R40" s="120"/>
       <c r="S40" s="120"/>
       <c r="T40" s="120"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="114">
+      <c r="U40" s="143"/>
+      <c r="V40" s="146"/>
+      <c r="W40" s="114">
         <v>45391</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="41" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="65"/>
       <c r="C41" s="67"/>
@@ -2913,9 +3037,10 @@
       <c r="R41" s="125"/>
       <c r="S41" s="125"/>
       <c r="T41" s="125"/>
-      <c r="U41" s="72"/>
-    </row>
-    <row r="42" spans="1:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="U41" s="143"/>
+      <c r="V41" s="146"/>
+    </row>
+    <row r="42" spans="1:23" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="A42" s="2"/>
       <c r="B42" s="68"/>
       <c r="E42" s="69"/>
@@ -2934,9 +3059,10 @@
       <c r="R42" s="119"/>
       <c r="S42" s="119"/>
       <c r="T42" s="119"/>
-      <c r="U42" s="72"/>
-    </row>
-    <row r="43" spans="1:22" ht="18.75" customHeight="1">
+      <c r="U42" s="143"/>
+      <c r="V42" s="146"/>
+    </row>
+    <row r="43" spans="1:23" ht="18.75" customHeight="1">
       <c r="B43" s="72" t="s">
         <v>6</v>
       </c>
@@ -2957,12 +3083,13 @@
       <c r="R43" s="120"/>
       <c r="S43" s="120"/>
       <c r="T43" s="120"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="115" t="s">
+      <c r="U43" s="143"/>
+      <c r="V43" s="146"/>
+      <c r="W43" s="115" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="5.0999999999999996" customHeight="1">
+    <row r="44" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="61"/>
       <c r="C44" s="78"/>
@@ -2982,9 +3109,10 @@
       <c r="R44" s="120"/>
       <c r="S44" s="120"/>
       <c r="T44" s="120"/>
-      <c r="U44" s="72"/>
-    </row>
-    <row r="45" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U44" s="143"/>
+      <c r="V44" s="146"/>
+    </row>
+    <row r="45" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="68"/>
       <c r="E45" s="69"/>
@@ -3002,9 +3130,10 @@
       <c r="R45" s="120"/>
       <c r="S45" s="120"/>
       <c r="T45" s="120"/>
-      <c r="U45" s="72"/>
-    </row>
-    <row r="46" spans="1:22" ht="18.75" customHeight="1">
+      <c r="U45" s="143"/>
+      <c r="V45" s="146"/>
+    </row>
+    <row r="46" spans="1:23" ht="18.75" customHeight="1">
       <c r="B46" s="72" t="s">
         <v>7</v>
       </c>
@@ -3024,12 +3153,13 @@
       <c r="R46" s="120"/>
       <c r="S46" s="120"/>
       <c r="T46" s="120"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="40">
+      <c r="U46" s="143"/>
+      <c r="V46" s="146"/>
+      <c r="W46" s="40">
         <v>46490</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="5.0999999999999996" customHeight="1">
+    <row r="47" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="B47" s="61"/>
       <c r="C47" s="78"/>
       <c r="D47" s="78"/>
@@ -3047,9 +3177,10 @@
       <c r="R47" s="120"/>
       <c r="S47" s="120"/>
       <c r="T47" s="120"/>
-      <c r="U47" s="72"/>
-    </row>
-    <row r="48" spans="1:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U47" s="143"/>
+      <c r="V47" s="146"/>
+    </row>
+    <row r="48" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="B48" s="63"/>
       <c r="C48" s="79"/>
       <c r="D48" s="79"/>
@@ -3067,9 +3198,10 @@
       <c r="R48" s="120"/>
       <c r="S48" s="120"/>
       <c r="T48" s="120"/>
-      <c r="U48" s="72"/>
-    </row>
-    <row r="49" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U48" s="143"/>
+      <c r="V48" s="146"/>
+    </row>
+    <row r="49" spans="2:24" ht="18.75" customHeight="1">
       <c r="B49" s="72" t="s">
         <v>8</v>
       </c>
@@ -3090,12 +3222,13 @@
       <c r="R49" s="120"/>
       <c r="S49" s="120"/>
       <c r="T49" s="120"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="40">
+      <c r="U49" s="143"/>
+      <c r="V49" s="146"/>
+      <c r="W49" s="40">
         <v>47218</v>
       </c>
     </row>
-    <row r="50" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="50" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B50" s="61"/>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -3113,9 +3246,10 @@
       <c r="R50" s="120"/>
       <c r="S50" s="120"/>
       <c r="T50" s="120"/>
-      <c r="U50" s="72"/>
-    </row>
-    <row r="51" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U50" s="143"/>
+      <c r="V50" s="146"/>
+    </row>
+    <row r="51" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B51" s="63"/>
       <c r="C51" s="79"/>
       <c r="D51" s="79"/>
@@ -3133,9 +3267,10 @@
       <c r="R51" s="120"/>
       <c r="S51" s="120"/>
       <c r="T51" s="120"/>
-      <c r="U51" s="72"/>
-    </row>
-    <row r="52" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U51" s="143"/>
+      <c r="V51" s="146"/>
+    </row>
+    <row r="52" spans="2:24" ht="18.75" customHeight="1">
       <c r="B52" s="72" t="s">
         <v>9</v>
       </c>
@@ -3157,12 +3292,13 @@
       <c r="R52" s="120"/>
       <c r="S52" s="120"/>
       <c r="T52" s="120"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="3" t="s">
+      <c r="U52" s="143"/>
+      <c r="V52" s="146"/>
+      <c r="W52" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="53" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B53" s="61"/>
       <c r="C53" s="78"/>
       <c r="D53" s="78"/>
@@ -3181,9 +3317,10 @@
       <c r="R53" s="120"/>
       <c r="S53" s="120"/>
       <c r="T53" s="120"/>
-      <c r="U53" s="72"/>
-    </row>
-    <row r="54" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U53" s="143"/>
+      <c r="V53" s="146"/>
+    </row>
+    <row r="54" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B54" s="63"/>
       <c r="C54" s="79"/>
       <c r="D54" s="79"/>
@@ -3203,9 +3340,10 @@
       <c r="R54" s="122"/>
       <c r="S54" s="120"/>
       <c r="T54" s="120"/>
-      <c r="U54" s="72"/>
-    </row>
-    <row r="55" spans="2:22" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U54" s="143"/>
+      <c r="V54" s="146"/>
+    </row>
+    <row r="55" spans="2:24" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B55" s="76" t="s">
         <v>37</v>
       </c>
@@ -3227,12 +3365,13 @@
       <c r="R55" s="121"/>
       <c r="S55" s="121"/>
       <c r="T55" s="129"/>
-      <c r="U55" s="130"/>
-      <c r="V55" s="40">
+      <c r="U55" s="145"/>
+      <c r="V55" s="147"/>
+      <c r="W55" s="40">
         <v>50234</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="56" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B56" s="65"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
@@ -3245,15 +3384,16 @@
       <c r="K56" s="51"/>
       <c r="L56" s="100"/>
       <c r="N56" s="99"/>
-      <c r="O56" s="131"/>
+      <c r="O56" s="130"/>
       <c r="P56" s="120"/>
       <c r="Q56" s="120"/>
       <c r="R56" s="120"/>
       <c r="S56" s="120"/>
       <c r="T56" s="125"/>
-      <c r="U56" s="72"/>
-    </row>
-    <row r="57" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="U56" s="143"/>
+      <c r="V56" s="146"/>
+    </row>
+    <row r="57" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B57" s="68"/>
       <c r="E57" s="69"/>
       <c r="F57" s="24"/>
@@ -3271,9 +3411,10 @@
       <c r="R57" s="119"/>
       <c r="S57" s="119"/>
       <c r="T57" s="119"/>
-      <c r="U57" s="72"/>
-    </row>
-    <row r="58" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U57" s="143"/>
+      <c r="V57" s="146"/>
+    </row>
+    <row r="58" spans="2:24" ht="18.75" customHeight="1">
       <c r="B58" s="72" t="s">
         <v>12</v>
       </c>
@@ -3294,12 +3435,13 @@
       <c r="R58" s="120"/>
       <c r="S58" s="120"/>
       <c r="T58" s="120"/>
-      <c r="U58" s="72"/>
-      <c r="V58" s="40">
+      <c r="U58" s="143"/>
+      <c r="V58" s="146"/>
+      <c r="W58" s="40">
         <v>47127</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="59" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B59" s="61"/>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -3309,7 +3451,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="6"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="K59" s="6"/>
       <c r="N59" s="4"/>
       <c r="O59" s="103"/>
       <c r="P59" s="120"/>
@@ -3317,9 +3459,10 @@
       <c r="R59" s="120"/>
       <c r="S59" s="120"/>
       <c r="T59" s="120"/>
-      <c r="U59" s="72"/>
-    </row>
-    <row r="60" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U59" s="143"/>
+      <c r="V59" s="146"/>
+    </row>
+    <row r="60" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B60" s="63"/>
       <c r="C60" s="79"/>
       <c r="D60" s="79"/>
@@ -3329,7 +3472,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="6"/>
       <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="K60" s="6"/>
       <c r="N60" s="4"/>
       <c r="O60" s="103"/>
       <c r="P60" s="120"/>
@@ -3337,9 +3480,10 @@
       <c r="R60" s="120"/>
       <c r="S60" s="120"/>
       <c r="T60" s="120"/>
-      <c r="U60" s="72"/>
-    </row>
-    <row r="61" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U60" s="143"/>
+      <c r="V60" s="146"/>
+    </row>
+    <row r="61" spans="2:24" ht="18.75" customHeight="1">
       <c r="B61" s="72" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3495,7 @@
       <c r="H61" s="43"/>
       <c r="I61" s="95"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="5"/>
+      <c r="K61" s="6"/>
       <c r="N61" s="4"/>
       <c r="O61" s="103"/>
       <c r="P61" s="120"/>
@@ -3359,12 +3503,16 @@
       <c r="R61" s="120"/>
       <c r="S61" s="120"/>
       <c r="T61" s="120"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="40">
+      <c r="U61" s="143"/>
+      <c r="V61" s="146"/>
+      <c r="W61" s="40">
         <v>46399</v>
       </c>
-    </row>
-    <row r="62" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="X61" s="146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B62" s="61"/>
       <c r="C62" s="78"/>
       <c r="D62" s="78"/>
@@ -3372,8 +3520,9 @@
       <c r="F62" s="22"/>
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="6"/>
       <c r="N62" s="4"/>
       <c r="O62" s="103"/>
       <c r="P62" s="120"/>
@@ -3381,9 +3530,10 @@
       <c r="R62" s="120"/>
       <c r="S62" s="120"/>
       <c r="T62" s="120"/>
-      <c r="U62" s="72"/>
-    </row>
-    <row r="63" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U62" s="143"/>
+      <c r="V62" s="146"/>
+    </row>
+    <row r="63" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B63" s="63"/>
       <c r="C63" s="79"/>
       <c r="D63" s="79"/>
@@ -3391,8 +3541,9 @@
       <c r="F63" s="22"/>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="6"/>
       <c r="N63" s="4"/>
       <c r="O63" s="103"/>
       <c r="P63" s="120"/>
@@ -3400,36 +3551,39 @@
       <c r="R63" s="120"/>
       <c r="S63" s="120"/>
       <c r="T63" s="120"/>
-      <c r="U63" s="72"/>
-    </row>
-    <row r="64" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U63" s="143"/>
+      <c r="V63" s="146"/>
+    </row>
+    <row r="64" spans="2:24" ht="18.75" customHeight="1">
       <c r="B64" s="72" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="73"/>
       <c r="F64" s="26"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="12"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="103"/>
       <c r="P64" s="120"/>
       <c r="Q64" s="120"/>
       <c r="R64" s="120"/>
       <c r="S64" s="120"/>
       <c r="T64" s="120"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="40">
-        <v>48223</v>
-      </c>
-    </row>
-    <row r="65" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U64" s="143"/>
+      <c r="V64" s="146"/>
+      <c r="W64" s="40">
+        <v>46399</v>
+      </c>
+      <c r="X64" s="146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B65" s="61"/>
       <c r="C65" s="78"/>
       <c r="D65" s="78"/>
@@ -3437,8 +3591,9 @@
       <c r="F65" s="22"/>
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="6"/>
       <c r="N65" s="4"/>
       <c r="O65" s="103"/>
       <c r="P65" s="120"/>
@@ -3446,9 +3601,10 @@
       <c r="R65" s="120"/>
       <c r="S65" s="120"/>
       <c r="T65" s="120"/>
-      <c r="U65" s="72"/>
-    </row>
-    <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U65" s="143"/>
+      <c r="V65" s="146"/>
+    </row>
+    <row r="66" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B66" s="63"/>
       <c r="C66" s="79"/>
       <c r="D66" s="79"/>
@@ -3456,8 +3612,9 @@
       <c r="F66" s="22"/>
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="6"/>
       <c r="N66" s="4"/>
       <c r="O66" s="103"/>
       <c r="P66" s="120"/>
@@ -3465,154 +3622,181 @@
       <c r="R66" s="120"/>
       <c r="S66" s="120"/>
       <c r="T66" s="120"/>
-      <c r="U66" s="72"/>
-    </row>
-    <row r="67" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U66" s="143"/>
+      <c r="V66" s="146"/>
+    </row>
+    <row r="67" spans="2:24" ht="18.75" customHeight="1">
       <c r="B67" s="72" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="73"/>
       <c r="F67" s="26"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="12"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="103"/>
       <c r="P67" s="120"/>
       <c r="Q67" s="120"/>
       <c r="R67" s="120"/>
       <c r="S67" s="120"/>
       <c r="T67" s="120"/>
-      <c r="U67" s="72"/>
-      <c r="V67" s="40">
-        <v>48223</v>
-      </c>
-    </row>
-    <row r="68" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U67" s="143"/>
+      <c r="V67" s="146"/>
+      <c r="W67" s="40">
+        <v>46399</v>
+      </c>
+      <c r="X67" s="146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B68" s="61"/>
       <c r="C68" s="78"/>
       <c r="D68" s="78"/>
       <c r="E68" s="62"/>
-      <c r="F68" s="25"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
       <c r="I68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="O68" s="12"/>
+      <c r="K68" s="6"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="103"/>
       <c r="P68" s="120"/>
       <c r="Q68" s="120"/>
       <c r="R68" s="120"/>
       <c r="S68" s="120"/>
       <c r="T68" s="120"/>
-      <c r="U68" s="72"/>
-    </row>
-    <row r="69" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U68" s="143"/>
+      <c r="V68" s="146"/>
+    </row>
+    <row r="69" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B69" s="63"/>
       <c r="C69" s="79"/>
       <c r="D69" s="79"/>
       <c r="E69" s="64"/>
-      <c r="F69" s="25"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
       <c r="I69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="O69" s="12"/>
+      <c r="K69" s="6"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="103"/>
       <c r="P69" s="120"/>
       <c r="Q69" s="120"/>
       <c r="R69" s="120"/>
       <c r="S69" s="120"/>
       <c r="T69" s="120"/>
-      <c r="U69" s="72"/>
-    </row>
-    <row r="70" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U69" s="143"/>
+      <c r="V69" s="146"/>
+    </row>
+    <row r="70" spans="2:24" ht="18.75" customHeight="1">
       <c r="B70" s="72" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="73"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="O70" s="12"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="152"/>
+      <c r="M70" s="153"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="103"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
       <c r="R70" s="120"/>
       <c r="S70" s="120"/>
       <c r="T70" s="120"/>
-      <c r="U70" s="72"/>
-      <c r="V70" s="113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U70" s="143"/>
+      <c r="V70" s="146"/>
+      <c r="W70" s="40">
+        <v>47127</v>
+      </c>
+      <c r="X70" s="146" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B71" s="61"/>
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
       <c r="E71" s="62"/>
-      <c r="F71" s="25"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
       <c r="I71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="O71" s="12"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="103"/>
       <c r="P71" s="120"/>
       <c r="Q71" s="120"/>
       <c r="R71" s="120"/>
       <c r="S71" s="120"/>
       <c r="T71" s="120"/>
-      <c r="U71" s="72"/>
-    </row>
-    <row r="72" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U71" s="143"/>
+      <c r="V71" s="146"/>
+    </row>
+    <row r="72" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B72" s="63"/>
       <c r="C72" s="79"/>
       <c r="D72" s="79"/>
       <c r="E72" s="64"/>
-      <c r="F72" s="25"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
       <c r="I72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="O72" s="12"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="103"/>
       <c r="P72" s="120"/>
       <c r="Q72" s="120"/>
       <c r="R72" s="120"/>
       <c r="S72" s="120"/>
       <c r="T72" s="120"/>
-      <c r="U72" s="72"/>
-    </row>
-    <row r="73" spans="2:22" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U72" s="143"/>
+      <c r="V72" s="146"/>
+    </row>
+    <row r="73" spans="2:24" ht="18.75" customHeight="1">
       <c r="B73" s="72" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="73"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="31"/>
       <c r="O73" s="12"/>
       <c r="P73" s="120"/>
       <c r="Q73" s="120"/>
       <c r="R73" s="120"/>
       <c r="S73" s="120"/>
       <c r="T73" s="120"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="114">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="74" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="U73" s="143"/>
+      <c r="V73" s="146"/>
+      <c r="W73" s="40">
+        <v>48501</v>
+      </c>
+      <c r="X73" s="146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B74" s="61"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
@@ -3622,63 +3806,76 @@
       <c r="H74" s="4"/>
       <c r="I74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="O74" s="12"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="103"/>
       <c r="P74" s="120"/>
       <c r="Q74" s="120"/>
       <c r="R74" s="120"/>
       <c r="S74" s="120"/>
       <c r="T74" s="120"/>
-      <c r="U74" s="72"/>
-    </row>
-    <row r="75" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="U74" s="143"/>
+      <c r="V74" s="146"/>
+    </row>
+    <row r="75" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B75" s="63"/>
       <c r="C75" s="79"/>
       <c r="D75" s="79"/>
       <c r="E75" s="64"/>
-      <c r="F75" s="25"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="O75" s="12"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="103"/>
       <c r="P75" s="120"/>
       <c r="Q75" s="120"/>
       <c r="R75" s="120"/>
       <c r="S75" s="120"/>
       <c r="T75" s="120"/>
-      <c r="U75" s="72"/>
-    </row>
-    <row r="76" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U75" s="143"/>
+      <c r="V75" s="146"/>
+    </row>
+    <row r="76" spans="2:24" ht="18.75" customHeight="1">
       <c r="B76" s="72" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="73"/>
-      <c r="F76" s="33"/>
+      <c r="F76" s="26"/>
       <c r="G76" s="37"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="31"/>
       <c r="O76" s="12"/>
       <c r="P76" s="120"/>
       <c r="Q76" s="120"/>
       <c r="R76" s="120"/>
       <c r="S76" s="120"/>
       <c r="T76" s="120"/>
-      <c r="U76" s="72"/>
-      <c r="V76" s="40">
-        <v>46336</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U76" s="143"/>
+      <c r="V76" s="146"/>
+      <c r="W76" s="40">
+        <v>48501</v>
+      </c>
+      <c r="X76" s="146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B77" s="61"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
       <c r="E77" s="62"/>
-      <c r="F77" s="22"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
+      <c r="I77" s="5"/>
       <c r="K77" s="5"/>
       <c r="O77" s="12"/>
       <c r="P77" s="120"/>
@@ -3686,16 +3883,18 @@
       <c r="R77" s="120"/>
       <c r="S77" s="120"/>
       <c r="T77" s="120"/>
-      <c r="U77" s="72"/>
-    </row>
-    <row r="78" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U77" s="143"/>
+      <c r="V77" s="146"/>
+    </row>
+    <row r="78" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B78" s="63"/>
       <c r="C78" s="79"/>
       <c r="D78" s="79"/>
       <c r="E78" s="64"/>
-      <c r="F78" s="22"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
+      <c r="I78" s="5"/>
       <c r="K78" s="5"/>
       <c r="O78" s="12"/>
       <c r="P78" s="120"/>
@@ -3703,18 +3902,20 @@
       <c r="R78" s="120"/>
       <c r="S78" s="120"/>
       <c r="T78" s="120"/>
-      <c r="U78" s="72"/>
-    </row>
-    <row r="79" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U78" s="143"/>
+      <c r="V78" s="146"/>
+    </row>
+    <row r="79" spans="2:24" ht="18.75" customHeight="1">
       <c r="B79" s="72" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="73"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="94"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="5"/>
       <c r="K79" s="5"/>
       <c r="O79" s="12"/>
       <c r="P79" s="120"/>
@@ -3722,18 +3923,21 @@
       <c r="R79" s="120"/>
       <c r="S79" s="120"/>
       <c r="T79" s="120"/>
-      <c r="U79" s="72"/>
-      <c r="V79" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U79" s="143"/>
+      <c r="V79" s="146"/>
+      <c r="W79" s="113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B80" s="61"/>
       <c r="C80" s="78"/>
       <c r="D80" s="78"/>
       <c r="E80" s="62"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="100"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
       <c r="K80" s="5"/>
       <c r="O80" s="12"/>
       <c r="P80" s="120"/>
@@ -3741,16 +3945,18 @@
       <c r="R80" s="120"/>
       <c r="S80" s="120"/>
       <c r="T80" s="120"/>
-      <c r="U80" s="72"/>
-    </row>
-    <row r="81" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="U80" s="143"/>
+      <c r="V80" s="146"/>
+    </row>
+    <row r="81" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B81" s="63"/>
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="64"/>
       <c r="F81" s="25"/>
       <c r="G81" s="5"/>
-      <c r="J81" s="44"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="5"/>
       <c r="K81" s="5"/>
       <c r="O81" s="12"/>
       <c r="P81" s="120"/>
@@ -3758,76 +3964,262 @@
       <c r="R81" s="120"/>
       <c r="S81" s="120"/>
       <c r="T81" s="120"/>
-      <c r="U81" s="72"/>
-    </row>
-    <row r="82" spans="2:22" ht="18.75" customHeight="1">
+      <c r="U81" s="143"/>
+      <c r="V81" s="146"/>
+    </row>
+    <row r="82" spans="2:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B82" s="72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="73"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="31"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="5"/>
+      <c r="K82" s="5"/>
       <c r="O82" s="12"/>
       <c r="P82" s="120"/>
       <c r="Q82" s="120"/>
       <c r="R82" s="120"/>
       <c r="S82" s="120"/>
       <c r="T82" s="120"/>
-      <c r="U82" s="72"/>
-      <c r="V82" s="3" t="s">
+      <c r="U82" s="143"/>
+      <c r="V82" s="146"/>
+      <c r="W82" s="114">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B83" s="61"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="120"/>
+      <c r="Q83" s="120"/>
+      <c r="R83" s="120"/>
+      <c r="S83" s="120"/>
+      <c r="T83" s="120"/>
+      <c r="U83" s="143"/>
+      <c r="V83" s="146"/>
+    </row>
+    <row r="84" spans="2:23" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B84" s="63"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="120"/>
+      <c r="Q84" s="120"/>
+      <c r="R84" s="120"/>
+      <c r="S84" s="120"/>
+      <c r="T84" s="120"/>
+      <c r="U84" s="143"/>
+      <c r="V84" s="146"/>
+    </row>
+    <row r="85" spans="2:23" ht="18.75" customHeight="1">
+      <c r="B85" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="120"/>
+      <c r="Q85" s="120"/>
+      <c r="R85" s="120"/>
+      <c r="S85" s="120"/>
+      <c r="T85" s="120"/>
+      <c r="U85" s="143"/>
+      <c r="V85" s="146"/>
+      <c r="W85" s="40">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" ht="5.0999999999999996" customHeight="1">
+      <c r="B86" s="61"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="4"/>
+      <c r="K86" s="5"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="120"/>
+      <c r="Q86" s="120"/>
+      <c r="R86" s="120"/>
+      <c r="S86" s="120"/>
+      <c r="T86" s="120"/>
+      <c r="U86" s="143"/>
+      <c r="V86" s="146"/>
+    </row>
+    <row r="87" spans="2:23" ht="5.0999999999999996" customHeight="1">
+      <c r="B87" s="63"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="4"/>
+      <c r="K87" s="5"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="120"/>
+      <c r="Q87" s="120"/>
+      <c r="R87" s="120"/>
+      <c r="S87" s="120"/>
+      <c r="T87" s="120"/>
+      <c r="U87" s="143"/>
+      <c r="V87" s="146"/>
+    </row>
+    <row r="88" spans="2:23" ht="18.75" customHeight="1">
+      <c r="B88" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="149"/>
+      <c r="G88" s="150"/>
+      <c r="H88" s="151"/>
+      <c r="K88" s="5"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="120"/>
+      <c r="Q88" s="120"/>
+      <c r="R88" s="120"/>
+      <c r="S88" s="120"/>
+      <c r="T88" s="120"/>
+      <c r="U88" s="143"/>
+      <c r="V88" s="146"/>
+      <c r="W88" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" ht="5.0999999999999996" customHeight="1">
+      <c r="B89" s="61"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="120"/>
+      <c r="Q89" s="120"/>
+      <c r="R89" s="120"/>
+      <c r="S89" s="120"/>
+      <c r="T89" s="120"/>
+      <c r="U89" s="143"/>
+      <c r="V89" s="146"/>
+    </row>
+    <row r="90" spans="2:23" ht="5.0999999999999996" customHeight="1">
+      <c r="B90" s="63"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="5"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="5"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="120"/>
+      <c r="Q90" s="120"/>
+      <c r="R90" s="120"/>
+      <c r="S90" s="120"/>
+      <c r="T90" s="120"/>
+      <c r="U90" s="143"/>
+      <c r="V90" s="146"/>
+    </row>
+    <row r="91" spans="2:23" ht="18.75" customHeight="1">
+      <c r="B91" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="31"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="120"/>
+      <c r="Q91" s="120"/>
+      <c r="R91" s="120"/>
+      <c r="S91" s="120"/>
+      <c r="T91" s="120"/>
+      <c r="U91" s="143"/>
+      <c r="V91" s="146"/>
+      <c r="W91" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="2:22" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B83" s="65"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="125"/>
-      <c r="Q83" s="125"/>
-      <c r="R83" s="125"/>
-      <c r="S83" s="125"/>
-      <c r="T83" s="125"/>
-      <c r="U83" s="72"/>
-    </row>
-    <row r="84" spans="2:22" ht="5.0999999999999996" customHeight="1"/>
-    <row r="85" spans="2:22">
-      <c r="B85" s="70"/>
-      <c r="C85" s="3" t="s">
+    <row r="92" spans="2:23" ht="9.75" customHeight="1" thickBot="1">
+      <c r="B92" s="65"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="125"/>
+      <c r="Q92" s="125"/>
+      <c r="R92" s="125"/>
+      <c r="S92" s="125"/>
+      <c r="T92" s="125"/>
+      <c r="U92" s="143"/>
+      <c r="V92" s="146"/>
+    </row>
+    <row r="93" spans="2:23" ht="5.0999999999999996" customHeight="1">
+      <c r="V93" s="148"/>
+    </row>
+    <row r="94" spans="2:23">
+      <c r="B94" s="70"/>
+      <c r="C94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="2:22">
-      <c r="B86" s="21"/>
-      <c r="C86" s="3" t="s">
+      <c r="O94" s="1"/>
+      <c r="V94" s="148"/>
+    </row>
+    <row r="95" spans="2:23">
+      <c r="B95" s="21"/>
+      <c r="C95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="32"/>
-    </row>
-    <row r="87" spans="2:22">
-      <c r="B87" s="71"/>
-      <c r="C87" s="3" t="s">
+      <c r="O95" s="1"/>
+      <c r="P95" s="32"/>
+    </row>
+    <row r="96" spans="2:23">
+      <c r="B96" s="71"/>
+      <c r="C96" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O87" s="1"/>
-      <c r="P87" s="32"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F49D2-4E12-44FB-995A-C30AD43B382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975AC90-51AE-4EEC-846A-91913AAB6577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42465" yWindow="0" windowWidth="25515" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47505" yWindow="150" windowWidth="19695" windowHeight="20730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Windows 10 Enterprise LTSC 2019</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2034年？</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
@@ -318,6 +314,11 @@
   </si>
   <si>
     <t>← Windows Server 2022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows Enterprise
+ LTSC 2021</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1292,43 +1293,56 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,6 +1720,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1714,15 +1741,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1733,35 +1751,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2046,7 +2052,7 @@
   <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2082,8 +2088,7 @@
       <c r="R2" s="116"/>
       <c r="S2" s="116"/>
       <c r="T2" s="116"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="146"/>
+      <c r="U2" s="133"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" thickBot="1">
       <c r="F3" s="46" t="s">
@@ -2131,16 +2136,15 @@
       <c r="T3" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="143"/>
-      <c r="V3" s="146"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="47">
         <v>2024</v>
       </c>
@@ -2186,8 +2190,7 @@
       <c r="T4" s="118">
         <v>2038</v>
       </c>
-      <c r="U4" s="143"/>
-      <c r="V4" s="146"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="B5" s="58"/>
@@ -2209,8 +2212,7 @@
       <c r="R5" s="119"/>
       <c r="S5" s="119"/>
       <c r="T5" s="119"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="146"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" customHeight="1">
       <c r="B6" s="72" t="s">
@@ -2232,15 +2234,14 @@
       <c r="R6" s="120"/>
       <c r="S6" s="120"/>
       <c r="T6" s="120"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="146"/>
+      <c r="U6" s="22"/>
       <c r="W6" s="115" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="61"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="62"/>
@@ -2257,8 +2258,7 @@
       <c r="R7" s="120"/>
       <c r="S7" s="120"/>
       <c r="T7" s="120"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="146"/>
+      <c r="U7" s="22"/>
     </row>
     <row r="8" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A8" s="2"/>
@@ -2279,17 +2279,16 @@
       <c r="R8" s="120"/>
       <c r="S8" s="120"/>
       <c r="T8" s="120"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="146"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:23" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
+      <c r="B9" s="144" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2303,14 +2302,13 @@
       <c r="R9" s="120"/>
       <c r="S9" s="120"/>
       <c r="T9" s="120"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="146"/>
+      <c r="U9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B10" s="136"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="146"/>
       <c r="F10" s="22"/>
       <c r="G10" s="6"/>
       <c r="H10" s="92"/>
@@ -2324,17 +2322,16 @@
       <c r="R10" s="120"/>
       <c r="S10" s="120"/>
       <c r="T10" s="120"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="146"/>
+      <c r="U10" s="22"/>
       <c r="W10" s="40">
         <v>47040</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.95" customHeight="1">
-      <c r="B11" s="136"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="146"/>
       <c r="F11" s="22"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2348,12 +2345,11 @@
       <c r="R11" s="120"/>
       <c r="S11" s="120"/>
       <c r="T11" s="120"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="146"/>
+      <c r="U11" s="22"/>
       <c r="W11" s="40"/>
     </row>
     <row r="12" spans="1:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B12" s="85"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
       <c r="E12" s="87"/>
@@ -2370,11 +2366,10 @@
       <c r="R12" s="120"/>
       <c r="S12" s="120"/>
       <c r="T12" s="120"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="146"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B13" s="88"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
       <c r="E13" s="90"/>
@@ -2391,16 +2386,15 @@
       <c r="R13" s="120"/>
       <c r="S13" s="120"/>
       <c r="T13" s="120"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="146"/>
+      <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:23" ht="9" customHeight="1">
-      <c r="B14" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
+      <c r="B14" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="146"/>
       <c r="F14" s="22"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2414,21 +2408,19 @@
       <c r="R14" s="120"/>
       <c r="S14" s="120"/>
       <c r="T14" s="120"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="146"/>
+      <c r="U14" s="22"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
       <c r="N15" s="4"/>
       <c r="O15" s="103"/>
       <c r="P15" s="120"/>
@@ -2436,17 +2428,16 @@
       <c r="R15" s="120"/>
       <c r="S15" s="120"/>
       <c r="T15" s="120"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="146"/>
+      <c r="U15" s="22"/>
       <c r="W15" s="40">
         <v>47127</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="9" customHeight="1">
-      <c r="B16" s="136"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="146"/>
       <c r="F16" s="22"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2460,12 +2451,11 @@
       <c r="R16" s="120"/>
       <c r="S16" s="120"/>
       <c r="T16" s="120"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="146"/>
+      <c r="U16" s="22"/>
       <c r="W16" s="40"/>
     </row>
     <row r="17" spans="2:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B17" s="85"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="86"/>
       <c r="D17" s="86"/>
       <c r="E17" s="87"/>
@@ -2482,11 +2472,10 @@
       <c r="R17" s="120"/>
       <c r="S17" s="120"/>
       <c r="T17" s="120"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="146"/>
+      <c r="U17" s="22"/>
     </row>
     <row r="18" spans="2:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B18" s="88"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
@@ -2503,16 +2492,15 @@
       <c r="R18" s="120"/>
       <c r="S18" s="120"/>
       <c r="T18" s="120"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="146"/>
+      <c r="U18" s="22"/>
     </row>
     <row r="19" spans="2:23" ht="9" customHeight="1">
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="146"/>
       <c r="F19" s="22"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -2526,14 +2514,13 @@
       <c r="R19" s="120"/>
       <c r="S19" s="120"/>
       <c r="T19" s="120"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="146"/>
+      <c r="U19" s="22"/>
     </row>
     <row r="20" spans="2:23" ht="18.75" customHeight="1">
-      <c r="B20" s="136"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
       <c r="F20" s="26"/>
       <c r="G20" s="37"/>
       <c r="H20" s="43"/>
@@ -2549,17 +2536,16 @@
       <c r="R20" s="120"/>
       <c r="S20" s="120"/>
       <c r="T20" s="120"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="146"/>
+      <c r="U20" s="22"/>
       <c r="W20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="9" customHeight="1">
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="25"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -2573,8 +2559,7 @@
       <c r="R21" s="120"/>
       <c r="S21" s="120"/>
       <c r="T21" s="120"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="146"/>
+      <c r="U21" s="22"/>
     </row>
     <row r="22" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B22" s="85"/>
@@ -2594,8 +2579,7 @@
       <c r="R22" s="120"/>
       <c r="S22" s="120"/>
       <c r="T22" s="120"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="146"/>
+      <c r="U22" s="22"/>
     </row>
     <row r="23" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B23" s="63"/>
@@ -2615,8 +2599,7 @@
       <c r="R23" s="120"/>
       <c r="S23" s="120"/>
       <c r="T23" s="120"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="146"/>
+      <c r="U23" s="22"/>
     </row>
     <row r="24" spans="2:23" ht="18.75" customHeight="1">
       <c r="B24" s="72" t="s">
@@ -2644,8 +2627,7 @@
       <c r="R24" s="120"/>
       <c r="S24" s="120"/>
       <c r="T24" s="120"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="146"/>
+      <c r="U24" s="22"/>
       <c r="W24" s="40">
         <v>48223</v>
       </c>
@@ -2668,8 +2650,7 @@
       <c r="R25" s="120"/>
       <c r="S25" s="120"/>
       <c r="T25" s="120"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="146"/>
+      <c r="U25" s="22"/>
     </row>
     <row r="26" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B26" s="88"/>
@@ -2689,16 +2670,15 @@
       <c r="R26" s="120"/>
       <c r="S26" s="120"/>
       <c r="T26" s="120"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="146"/>
+      <c r="U26" s="22"/>
     </row>
     <row r="27" spans="2:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B27" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
+      <c r="B27" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="25"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2712,14 +2692,13 @@
       <c r="R27" s="120"/>
       <c r="S27" s="120"/>
       <c r="T27" s="120"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="146"/>
+      <c r="U27" s="22"/>
     </row>
     <row r="28" spans="2:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="109"/>
       <c r="G28" s="50"/>
       <c r="H28" s="27"/>
@@ -2735,17 +2714,16 @@
       <c r="R28" s="120"/>
       <c r="S28" s="120"/>
       <c r="T28" s="120"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="146"/>
+      <c r="U28" s="22"/>
       <c r="W28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="141"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
       <c r="F29" s="25"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2759,8 +2737,7 @@
       <c r="R29" s="120"/>
       <c r="S29" s="120"/>
       <c r="T29" s="120"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="146"/>
+      <c r="U29" s="22"/>
       <c r="W29" s="40"/>
     </row>
     <row r="30" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
@@ -2781,8 +2758,7 @@
       <c r="R30" s="120"/>
       <c r="S30" s="120"/>
       <c r="T30" s="120"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="146"/>
+      <c r="U30" s="22"/>
     </row>
     <row r="31" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B31" s="88"/>
@@ -2802,16 +2778,15 @@
       <c r="R31" s="120"/>
       <c r="S31" s="120"/>
       <c r="T31" s="120"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="146"/>
+      <c r="U31" s="22"/>
     </row>
     <row r="32" spans="2:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B32" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141"/>
+      <c r="B32" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="25"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2825,14 +2800,13 @@
       <c r="R32" s="120"/>
       <c r="S32" s="120"/>
       <c r="T32" s="120"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="146"/>
+      <c r="U32" s="22"/>
     </row>
     <row r="33" spans="1:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="141"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="143"/>
       <c r="F33" s="109"/>
       <c r="G33" s="50"/>
       <c r="H33" s="27"/>
@@ -2848,17 +2822,16 @@
       <c r="R33" s="120"/>
       <c r="S33" s="120"/>
       <c r="T33" s="120"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="146"/>
+      <c r="U33" s="22"/>
       <c r="W33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="141"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="143"/>
       <c r="F34" s="107"/>
       <c r="G34" s="100"/>
       <c r="H34" s="6"/>
@@ -2872,8 +2845,7 @@
       <c r="R34" s="120"/>
       <c r="S34" s="120"/>
       <c r="T34" s="120"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="146"/>
+      <c r="U34" s="22"/>
     </row>
     <row r="35" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B35" s="85"/>
@@ -2893,8 +2865,7 @@
       <c r="R35" s="120"/>
       <c r="S35" s="120"/>
       <c r="T35" s="120"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="146"/>
+      <c r="U35" s="22"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1">
       <c r="B36" s="63"/>
@@ -2914,8 +2885,7 @@
       <c r="R36" s="122"/>
       <c r="S36" s="122"/>
       <c r="T36" s="120"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="146"/>
+      <c r="U36" s="22"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B37" s="74" t="s">
@@ -2939,8 +2909,7 @@
       <c r="R37" s="121"/>
       <c r="S37" s="121"/>
       <c r="T37" s="124"/>
-      <c r="U37" s="144"/>
-      <c r="V37" s="146"/>
+      <c r="U37" s="134"/>
       <c r="W37" s="40">
         <v>49869</v>
       </c>
@@ -2965,8 +2934,7 @@
       <c r="R38" s="125"/>
       <c r="S38" s="125"/>
       <c r="T38" s="125"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="146"/>
+      <c r="U38" s="22"/>
     </row>
     <row r="39" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B39" s="68"/>
@@ -2986,8 +2954,7 @@
       <c r="R39" s="119"/>
       <c r="S39" s="119"/>
       <c r="T39" s="119"/>
-      <c r="U39" s="143"/>
-      <c r="V39" s="146"/>
+      <c r="U39" s="22"/>
     </row>
     <row r="40" spans="1:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B40" s="72" t="s">
@@ -3010,8 +2977,7 @@
       <c r="R40" s="120"/>
       <c r="S40" s="120"/>
       <c r="T40" s="120"/>
-      <c r="U40" s="143"/>
-      <c r="V40" s="146"/>
+      <c r="U40" s="22"/>
       <c r="W40" s="114">
         <v>45391</v>
       </c>
@@ -3037,8 +3003,7 @@
       <c r="R41" s="125"/>
       <c r="S41" s="125"/>
       <c r="T41" s="125"/>
-      <c r="U41" s="143"/>
-      <c r="V41" s="146"/>
+      <c r="U41" s="22"/>
     </row>
     <row r="42" spans="1:23" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="A42" s="2"/>
@@ -3059,8 +3024,7 @@
       <c r="R42" s="119"/>
       <c r="S42" s="119"/>
       <c r="T42" s="119"/>
-      <c r="U42" s="143"/>
-      <c r="V42" s="146"/>
+      <c r="U42" s="22"/>
     </row>
     <row r="43" spans="1:23" ht="18.75" customHeight="1">
       <c r="B43" s="72" t="s">
@@ -3083,8 +3047,7 @@
       <c r="R43" s="120"/>
       <c r="S43" s="120"/>
       <c r="T43" s="120"/>
-      <c r="U43" s="143"/>
-      <c r="V43" s="146"/>
+      <c r="U43" s="22"/>
       <c r="W43" s="115" t="s">
         <v>32</v>
       </c>
@@ -3109,8 +3072,7 @@
       <c r="R44" s="120"/>
       <c r="S44" s="120"/>
       <c r="T44" s="120"/>
-      <c r="U44" s="143"/>
-      <c r="V44" s="146"/>
+      <c r="U44" s="22"/>
     </row>
     <row r="45" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A45" s="2"/>
@@ -3130,8 +3092,7 @@
       <c r="R45" s="120"/>
       <c r="S45" s="120"/>
       <c r="T45" s="120"/>
-      <c r="U45" s="143"/>
-      <c r="V45" s="146"/>
+      <c r="U45" s="22"/>
     </row>
     <row r="46" spans="1:23" ht="18.75" customHeight="1">
       <c r="B46" s="72" t="s">
@@ -3153,8 +3114,7 @@
       <c r="R46" s="120"/>
       <c r="S46" s="120"/>
       <c r="T46" s="120"/>
-      <c r="U46" s="143"/>
-      <c r="V46" s="146"/>
+      <c r="U46" s="22"/>
       <c r="W46" s="40">
         <v>46490</v>
       </c>
@@ -3177,8 +3137,7 @@
       <c r="R47" s="120"/>
       <c r="S47" s="120"/>
       <c r="T47" s="120"/>
-      <c r="U47" s="143"/>
-      <c r="V47" s="146"/>
+      <c r="U47" s="22"/>
     </row>
     <row r="48" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="B48" s="63"/>
@@ -3198,8 +3157,7 @@
       <c r="R48" s="120"/>
       <c r="S48" s="120"/>
       <c r="T48" s="120"/>
-      <c r="U48" s="143"/>
-      <c r="V48" s="146"/>
+      <c r="U48" s="22"/>
     </row>
     <row r="49" spans="2:24" ht="18.75" customHeight="1">
       <c r="B49" s="72" t="s">
@@ -3222,8 +3180,7 @@
       <c r="R49" s="120"/>
       <c r="S49" s="120"/>
       <c r="T49" s="120"/>
-      <c r="U49" s="143"/>
-      <c r="V49" s="146"/>
+      <c r="U49" s="22"/>
       <c r="W49" s="40">
         <v>47218</v>
       </c>
@@ -3246,8 +3203,7 @@
       <c r="R50" s="120"/>
       <c r="S50" s="120"/>
       <c r="T50" s="120"/>
-      <c r="U50" s="143"/>
-      <c r="V50" s="146"/>
+      <c r="U50" s="22"/>
     </row>
     <row r="51" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B51" s="63"/>
@@ -3267,8 +3223,7 @@
       <c r="R51" s="120"/>
       <c r="S51" s="120"/>
       <c r="T51" s="120"/>
-      <c r="U51" s="143"/>
-      <c r="V51" s="146"/>
+      <c r="U51" s="22"/>
     </row>
     <row r="52" spans="2:24" ht="18.75" customHeight="1">
       <c r="B52" s="72" t="s">
@@ -3292,8 +3247,7 @@
       <c r="R52" s="120"/>
       <c r="S52" s="120"/>
       <c r="T52" s="120"/>
-      <c r="U52" s="143"/>
-      <c r="V52" s="146"/>
+      <c r="U52" s="22"/>
       <c r="W52" s="3" t="s">
         <v>33</v>
       </c>
@@ -3317,8 +3271,7 @@
       <c r="R53" s="120"/>
       <c r="S53" s="120"/>
       <c r="T53" s="120"/>
-      <c r="U53" s="143"/>
-      <c r="V53" s="146"/>
+      <c r="U53" s="22"/>
     </row>
     <row r="54" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B54" s="63"/>
@@ -3340,8 +3293,7 @@
       <c r="R54" s="122"/>
       <c r="S54" s="120"/>
       <c r="T54" s="120"/>
-      <c r="U54" s="143"/>
-      <c r="V54" s="146"/>
+      <c r="U54" s="22"/>
     </row>
     <row r="55" spans="2:24" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B55" s="76" t="s">
@@ -3365,8 +3317,7 @@
       <c r="R55" s="121"/>
       <c r="S55" s="121"/>
       <c r="T55" s="129"/>
-      <c r="U55" s="145"/>
-      <c r="V55" s="147"/>
+      <c r="U55" s="135"/>
       <c r="W55" s="40">
         <v>50234</v>
       </c>
@@ -3390,8 +3341,7 @@
       <c r="R56" s="120"/>
       <c r="S56" s="120"/>
       <c r="T56" s="125"/>
-      <c r="U56" s="143"/>
-      <c r="V56" s="146"/>
+      <c r="U56" s="22"/>
     </row>
     <row r="57" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B57" s="68"/>
@@ -3411,8 +3361,7 @@
       <c r="R57" s="119"/>
       <c r="S57" s="119"/>
       <c r="T57" s="119"/>
-      <c r="U57" s="143"/>
-      <c r="V57" s="146"/>
+      <c r="U57" s="22"/>
     </row>
     <row r="58" spans="2:24" ht="18.75" customHeight="1">
       <c r="B58" s="72" t="s">
@@ -3435,8 +3384,7 @@
       <c r="R58" s="120"/>
       <c r="S58" s="120"/>
       <c r="T58" s="120"/>
-      <c r="U58" s="143"/>
-      <c r="V58" s="146"/>
+      <c r="U58" s="22"/>
       <c r="W58" s="40">
         <v>47127</v>
       </c>
@@ -3459,8 +3407,7 @@
       <c r="R59" s="120"/>
       <c r="S59" s="120"/>
       <c r="T59" s="120"/>
-      <c r="U59" s="143"/>
-      <c r="V59" s="146"/>
+      <c r="U59" s="22"/>
     </row>
     <row r="60" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B60" s="63"/>
@@ -3480,8 +3427,7 @@
       <c r="R60" s="120"/>
       <c r="S60" s="120"/>
       <c r="T60" s="120"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="146"/>
+      <c r="U60" s="22"/>
     </row>
     <row r="61" spans="2:24" ht="18.75" customHeight="1">
       <c r="B61" s="72" t="s">
@@ -3503,13 +3449,12 @@
       <c r="R61" s="120"/>
       <c r="S61" s="120"/>
       <c r="T61" s="120"/>
-      <c r="U61" s="143"/>
-      <c r="V61" s="146"/>
+      <c r="U61" s="22"/>
       <c r="W61" s="40">
         <v>46399</v>
       </c>
-      <c r="X61" s="146" t="s">
-        <v>55</v>
+      <c r="X61" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -3530,8 +3475,7 @@
       <c r="R62" s="120"/>
       <c r="S62" s="120"/>
       <c r="T62" s="120"/>
-      <c r="U62" s="143"/>
-      <c r="V62" s="146"/>
+      <c r="U62" s="22"/>
     </row>
     <row r="63" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B63" s="63"/>
@@ -3551,12 +3495,11 @@
       <c r="R63" s="120"/>
       <c r="S63" s="120"/>
       <c r="T63" s="120"/>
-      <c r="U63" s="143"/>
-      <c r="V63" s="146"/>
+      <c r="U63" s="22"/>
     </row>
     <row r="64" spans="2:24" ht="18.75" customHeight="1">
       <c r="B64" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3574,13 +3517,12 @@
       <c r="R64" s="120"/>
       <c r="S64" s="120"/>
       <c r="T64" s="120"/>
-      <c r="U64" s="143"/>
-      <c r="V64" s="146"/>
+      <c r="U64" s="22"/>
       <c r="W64" s="40">
         <v>46399</v>
       </c>
-      <c r="X64" s="146" t="s">
-        <v>55</v>
+      <c r="X64" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -3601,8 +3543,7 @@
       <c r="R65" s="120"/>
       <c r="S65" s="120"/>
       <c r="T65" s="120"/>
-      <c r="U65" s="143"/>
-      <c r="V65" s="146"/>
+      <c r="U65" s="22"/>
     </row>
     <row r="66" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B66" s="63"/>
@@ -3622,12 +3563,11 @@
       <c r="R66" s="120"/>
       <c r="S66" s="120"/>
       <c r="T66" s="120"/>
-      <c r="U66" s="143"/>
-      <c r="V66" s="146"/>
+      <c r="U66" s="22"/>
     </row>
     <row r="67" spans="2:24" ht="18.75" customHeight="1">
       <c r="B67" s="72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3645,13 +3585,12 @@
       <c r="R67" s="120"/>
       <c r="S67" s="120"/>
       <c r="T67" s="120"/>
-      <c r="U67" s="143"/>
-      <c r="V67" s="146"/>
+      <c r="U67" s="22"/>
       <c r="W67" s="40">
         <v>46399</v>
       </c>
-      <c r="X67" s="146" t="s">
-        <v>55</v>
+      <c r="X67" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -3671,8 +3610,7 @@
       <c r="R68" s="120"/>
       <c r="S68" s="120"/>
       <c r="T68" s="120"/>
-      <c r="U68" s="143"/>
-      <c r="V68" s="146"/>
+      <c r="U68" s="22"/>
     </row>
     <row r="69" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B69" s="63"/>
@@ -3691,8 +3629,7 @@
       <c r="R69" s="120"/>
       <c r="S69" s="120"/>
       <c r="T69" s="120"/>
-      <c r="U69" s="143"/>
-      <c r="V69" s="146"/>
+      <c r="U69" s="22"/>
     </row>
     <row r="70" spans="2:24" ht="18.75" customHeight="1">
       <c r="B70" s="72" t="s">
@@ -3707,8 +3644,8 @@
       <c r="I70" s="28"/>
       <c r="J70" s="28"/>
       <c r="K70" s="31"/>
-      <c r="L70" s="152"/>
-      <c r="M70" s="153"/>
+      <c r="L70" s="136"/>
+      <c r="M70" s="137"/>
       <c r="N70" s="4"/>
       <c r="O70" s="103"/>
       <c r="P70" s="120"/>
@@ -3716,13 +3653,12 @@
       <c r="R70" s="120"/>
       <c r="S70" s="120"/>
       <c r="T70" s="120"/>
-      <c r="U70" s="143"/>
-      <c r="V70" s="146"/>
+      <c r="U70" s="22"/>
       <c r="W70" s="40">
         <v>47127</v>
       </c>
-      <c r="X70" s="146" t="s">
-        <v>54</v>
+      <c r="X70" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -3742,8 +3678,7 @@
       <c r="R71" s="120"/>
       <c r="S71" s="120"/>
       <c r="T71" s="120"/>
-      <c r="U71" s="143"/>
-      <c r="V71" s="146"/>
+      <c r="U71" s="22"/>
     </row>
     <row r="72" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B72" s="63"/>
@@ -3762,12 +3697,11 @@
       <c r="R72" s="120"/>
       <c r="S72" s="120"/>
       <c r="T72" s="120"/>
-      <c r="U72" s="143"/>
-      <c r="V72" s="146"/>
+      <c r="U72" s="22"/>
     </row>
     <row r="73" spans="2:24" ht="18.75" customHeight="1">
       <c r="B73" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3787,13 +3721,12 @@
       <c r="R73" s="120"/>
       <c r="S73" s="120"/>
       <c r="T73" s="120"/>
-      <c r="U73" s="143"/>
-      <c r="V73" s="146"/>
+      <c r="U73" s="22"/>
       <c r="W73" s="40">
         <v>48501</v>
       </c>
-      <c r="X73" s="146" t="s">
-        <v>56</v>
+      <c r="X73" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -3813,8 +3746,7 @@
       <c r="R74" s="120"/>
       <c r="S74" s="120"/>
       <c r="T74" s="120"/>
-      <c r="U74" s="143"/>
-      <c r="V74" s="146"/>
+      <c r="U74" s="22"/>
     </row>
     <row r="75" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B75" s="63"/>
@@ -3833,8 +3765,7 @@
       <c r="R75" s="120"/>
       <c r="S75" s="120"/>
       <c r="T75" s="120"/>
-      <c r="U75" s="143"/>
-      <c r="V75" s="146"/>
+      <c r="U75" s="22"/>
     </row>
     <row r="76" spans="2:24" ht="18.75" customHeight="1">
       <c r="B76" s="72" t="s">
@@ -3858,13 +3789,12 @@
       <c r="R76" s="120"/>
       <c r="S76" s="120"/>
       <c r="T76" s="120"/>
-      <c r="U76" s="143"/>
-      <c r="V76" s="146"/>
+      <c r="U76" s="22"/>
       <c r="W76" s="40">
         <v>48501</v>
       </c>
-      <c r="X76" s="146" t="s">
-        <v>56</v>
+      <c r="X76" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -3883,8 +3813,7 @@
       <c r="R77" s="120"/>
       <c r="S77" s="120"/>
       <c r="T77" s="120"/>
-      <c r="U77" s="143"/>
-      <c r="V77" s="146"/>
+      <c r="U77" s="22"/>
     </row>
     <row r="78" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B78" s="63"/>
@@ -3902,8 +3831,7 @@
       <c r="R78" s="120"/>
       <c r="S78" s="120"/>
       <c r="T78" s="120"/>
-      <c r="U78" s="143"/>
-      <c r="V78" s="146"/>
+      <c r="U78" s="22"/>
     </row>
     <row r="79" spans="2:24" ht="18.75" customHeight="1">
       <c r="B79" s="72" t="s">
@@ -3923,8 +3851,7 @@
       <c r="R79" s="120"/>
       <c r="S79" s="120"/>
       <c r="T79" s="120"/>
-      <c r="U79" s="143"/>
-      <c r="V79" s="146"/>
+      <c r="U79" s="22"/>
       <c r="W79" s="113" t="s">
         <v>34</v>
       </c>
@@ -3945,8 +3872,7 @@
       <c r="R80" s="120"/>
       <c r="S80" s="120"/>
       <c r="T80" s="120"/>
-      <c r="U80" s="143"/>
-      <c r="V80" s="146"/>
+      <c r="U80" s="22"/>
     </row>
     <row r="81" spans="2:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B81" s="63"/>
@@ -3964,8 +3890,7 @@
       <c r="R81" s="120"/>
       <c r="S81" s="120"/>
       <c r="T81" s="120"/>
-      <c r="U81" s="143"/>
-      <c r="V81" s="146"/>
+      <c r="U81" s="22"/>
     </row>
     <row r="82" spans="2:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B82" s="72" t="s">
@@ -3985,8 +3910,7 @@
       <c r="R82" s="120"/>
       <c r="S82" s="120"/>
       <c r="T82" s="120"/>
-      <c r="U82" s="143"/>
-      <c r="V82" s="146"/>
+      <c r="U82" s="22"/>
       <c r="W82" s="114">
         <v>45426</v>
       </c>
@@ -4007,8 +3931,7 @@
       <c r="R83" s="120"/>
       <c r="S83" s="120"/>
       <c r="T83" s="120"/>
-      <c r="U83" s="143"/>
-      <c r="V83" s="146"/>
+      <c r="U83" s="22"/>
     </row>
     <row r="84" spans="2:23" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B84" s="63"/>
@@ -4026,8 +3949,7 @@
       <c r="R84" s="120"/>
       <c r="S84" s="120"/>
       <c r="T84" s="120"/>
-      <c r="U84" s="143"/>
-      <c r="V84" s="146"/>
+      <c r="U84" s="22"/>
     </row>
     <row r="85" spans="2:23" ht="18.75" customHeight="1">
       <c r="B85" s="72" t="s">
@@ -4047,8 +3969,7 @@
       <c r="R85" s="120"/>
       <c r="S85" s="120"/>
       <c r="T85" s="120"/>
-      <c r="U85" s="143"/>
-      <c r="V85" s="146"/>
+      <c r="U85" s="22"/>
       <c r="W85" s="40">
         <v>46336</v>
       </c>
@@ -4068,8 +3989,7 @@
       <c r="R86" s="120"/>
       <c r="S86" s="120"/>
       <c r="T86" s="120"/>
-      <c r="U86" s="143"/>
-      <c r="V86" s="146"/>
+      <c r="U86" s="22"/>
     </row>
     <row r="87" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B87" s="63"/>
@@ -4086,8 +4006,7 @@
       <c r="R87" s="120"/>
       <c r="S87" s="120"/>
       <c r="T87" s="120"/>
-      <c r="U87" s="143"/>
-      <c r="V87" s="146"/>
+      <c r="U87" s="22"/>
     </row>
     <row r="88" spans="2:23" ht="18.75" customHeight="1">
       <c r="B88" s="72" t="s">
@@ -4096,9 +4015,9 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="73"/>
-      <c r="F88" s="149"/>
-      <c r="G88" s="150"/>
-      <c r="H88" s="151"/>
+      <c r="F88" s="147"/>
+      <c r="G88" s="148"/>
+      <c r="H88" s="149"/>
       <c r="K88" s="5"/>
       <c r="O88" s="12"/>
       <c r="P88" s="120"/>
@@ -4106,8 +4025,7 @@
       <c r="R88" s="120"/>
       <c r="S88" s="120"/>
       <c r="T88" s="120"/>
-      <c r="U88" s="143"/>
-      <c r="V88" s="146"/>
+      <c r="U88" s="22"/>
       <c r="W88" s="3" t="s">
         <v>35</v>
       </c>
@@ -4126,8 +4044,7 @@
       <c r="R89" s="120"/>
       <c r="S89" s="120"/>
       <c r="T89" s="120"/>
-      <c r="U89" s="143"/>
-      <c r="V89" s="146"/>
+      <c r="U89" s="22"/>
     </row>
     <row r="90" spans="2:23" ht="5.0999999999999996" customHeight="1">
       <c r="B90" s="63"/>
@@ -4144,8 +4061,7 @@
       <c r="R90" s="120"/>
       <c r="S90" s="120"/>
       <c r="T90" s="120"/>
-      <c r="U90" s="143"/>
-      <c r="V90" s="146"/>
+      <c r="U90" s="22"/>
     </row>
     <row r="91" spans="2:23" ht="18.75" customHeight="1">
       <c r="B91" s="74" t="s">
@@ -4165,8 +4081,7 @@
       <c r="R91" s="120"/>
       <c r="S91" s="120"/>
       <c r="T91" s="120"/>
-      <c r="U91" s="143"/>
-      <c r="V91" s="146"/>
+      <c r="U91" s="22"/>
       <c r="W91" s="3" t="s">
         <v>36</v>
       </c>
@@ -4191,19 +4106,15 @@
       <c r="R92" s="125"/>
       <c r="S92" s="125"/>
       <c r="T92" s="125"/>
-      <c r="U92" s="143"/>
-      <c r="V92" s="146"/>
-    </row>
-    <row r="93" spans="2:23" ht="5.0999999999999996" customHeight="1">
-      <c r="V93" s="148"/>
-    </row>
+      <c r="U92" s="22"/>
+    </row>
+    <row r="93" spans="2:23" ht="5.0999999999999996" customHeight="1"/>
     <row r="94" spans="2:23">
       <c r="B94" s="70"/>
       <c r="C94" s="3" t="s">
         <v>40</v>
       </c>
       <c r="O94" s="1"/>
-      <c r="V94" s="148"/>
     </row>
     <row r="95" spans="2:23">
       <c r="B95" s="21"/>

--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1133DF1-C971-4663-8311-B149CDD699C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FFAE1A-95D9-4C1E-BE7B-0E6600912D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>.NET 6</t>
     <phoneticPr fontId="1"/>
@@ -210,10 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">	2024年11月12日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2026年5月?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color theme="5"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -491,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1141,43 +1137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="dashed">
@@ -1246,18 +1205,48 @@
     </border>
     <border>
       <left/>
-      <right style="dashed">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1382,9 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1477,7 +1463,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1514,9 +1499,6 @@
     <xf numFmtId="24" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,9 +1514,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1550,16 +1529,10 @@
     <xf numFmtId="55" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1575,15 +1548,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1623,13 +1587,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,9 +1602,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="55" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1650,10 +1611,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1676,8 +1637,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1694,20 +1667,73 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="24" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD77" sqref="AD77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2002,8 +2028,9 @@
     <col min="3" max="3" width="5.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="2" customWidth="1"/>
-    <col min="7" max="16" width="6.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="6.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16" width="6.125" style="2" customWidth="1"/>
     <col min="17" max="20" width="6.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="6.125" style="2" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="2.625" style="1" customWidth="1"/>
@@ -2015,7 +2042,7 @@
     <row r="1" spans="1:23" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:23">
       <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
         <v>26</v>
       </c>
@@ -2026,18 +2053,18 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="17"/>
-      <c r="U2" s="110"/>
+      <c r="U2" s="104"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" thickBot="1">
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="38" t="s">
@@ -2061,37 +2088,37 @@
       <c r="N3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="138" t="s">
+      <c r="O3" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="138" t="s">
+      <c r="P3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="138" t="s">
+      <c r="R3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="138" t="s">
+      <c r="S3" s="128" t="s">
         <v>30</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="47">
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="46">
         <v>2024</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="140">
         <v>2025</v>
       </c>
       <c r="H4" s="39">
@@ -2115,19 +2142,19 @@
       <c r="N4" s="39">
         <v>2032</v>
       </c>
-      <c r="O4" s="139">
+      <c r="O4" s="129">
         <v>2033</v>
       </c>
-      <c r="P4" s="139">
+      <c r="P4" s="19">
         <v>2034</v>
       </c>
       <c r="Q4" s="139">
         <v>2035</v>
       </c>
-      <c r="R4" s="139">
+      <c r="R4" s="129">
         <v>2036</v>
       </c>
-      <c r="S4" s="139">
+      <c r="S4" s="129">
         <v>2037</v>
       </c>
       <c r="T4" s="19">
@@ -2136,10 +2163,10 @@
       <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B5" s="57"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="24"/>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -2150,105 +2177,115 @@
       <c r="M5" s="8"/>
       <c r="N5" s="10"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="11"/>
+      <c r="P5" s="110"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="119"/>
+      <c r="T5" s="110"/>
       <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="134"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="153"/>
       <c r="H6" s="4"/>
       <c r="I6" s="35"/>
       <c r="J6" s="41"/>
       <c r="K6" s="6"/>
+      <c r="L6" s="149"/>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
       <c r="O6" s="5"/>
+      <c r="P6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="22"/>
-      <c r="W6" s="107" t="s">
+      <c r="W6" s="100" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="22"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
+      <c r="L7" s="149"/>
       <c r="M7" s="4"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
+      <c r="P7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="22"/>
     </row>
     <row r="8" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="22"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
+      <c r="L8" s="149"/>
       <c r="M8" s="4"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
+      <c r="P8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:23" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="148" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="149"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="155"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
+      <c r="L9" s="149"/>
       <c r="M9" s="4"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
+      <c r="P9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B10" s="133"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="149"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="143"/>
       <c r="F10" s="22"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
       <c r="K10" s="4"/>
+      <c r="L10" s="149"/>
       <c r="M10" s="4"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5"/>
+      <c r="P10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="22"/>
       <c r="W10" s="40">
@@ -2256,72 +2293,80 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B11" s="67"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="22"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
+      <c r="L11" s="149"/>
       <c r="M11" s="4"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
+      <c r="P11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="22"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
+      <c r="L12" s="149"/>
       <c r="M12" s="4"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
+      <c r="P12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:23" ht="12.95" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B13" s="133"/>
-      <c r="C13" s="148" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="155" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="155"/>
+      <c r="E13" s="143"/>
       <c r="F13" s="22"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
+      <c r="L13" s="149"/>
       <c r="M13" s="4"/>
       <c r="N13" s="6"/>
       <c r="O13" s="5"/>
+      <c r="P13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B14" s="133"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="143"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
+      <c r="L14" s="149"/>
       <c r="M14" s="4"/>
       <c r="N14" s="6"/>
       <c r="O14" s="5"/>
+      <c r="P14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="22"/>
       <c r="W14" s="40">
@@ -2329,72 +2374,80 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="22"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
+      <c r="L15" s="149"/>
       <c r="M15" s="4"/>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
+      <c r="P15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="22"/>
     </row>
     <row r="16" spans="1:23" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B16" s="81"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="22"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
+      <c r="L16" s="149"/>
       <c r="M16" s="4"/>
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
+      <c r="P16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="22"/>
     </row>
     <row r="17" spans="2:24" ht="9" customHeight="1">
-      <c r="B17" s="133"/>
-      <c r="C17" s="148" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="155"/>
+      <c r="E17" s="143"/>
       <c r="F17" s="22"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
+      <c r="L17" s="149"/>
       <c r="M17" s="4"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5"/>
+      <c r="P17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="22"/>
     </row>
     <row r="18" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B18" s="133"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="143"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="91"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="22"/>
       <c r="W18" s="3" t="s">
@@ -2402,51 +2455,55 @@
       </c>
     </row>
     <row r="19" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="25"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
+      <c r="L19" s="149"/>
       <c r="M19" s="4"/>
       <c r="N19" s="6"/>
       <c r="O19" s="5"/>
+      <c r="P19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B20" s="62"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="63"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="25"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="M20" s="49"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="48"/>
       <c r="N20" s="6"/>
       <c r="O20" s="5"/>
+      <c r="P20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="22"/>
     </row>
     <row r="21" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="104" t="s">
-        <v>38</v>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161" t="s">
+        <v>37</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -2454,279 +2511,300 @@
       <c r="M21" s="31"/>
       <c r="N21" s="6"/>
       <c r="O21" s="5"/>
+      <c r="P21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="22"/>
       <c r="W21" s="40">
         <v>48135</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="67"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="61"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="25"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="M22" s="95"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="92"/>
       <c r="N22" s="6"/>
       <c r="O22" s="5"/>
+      <c r="P22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="22"/>
     </row>
     <row r="23" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="25"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
+      <c r="L23" s="149"/>
       <c r="M23" s="4"/>
       <c r="N23" s="6"/>
       <c r="O23" s="5"/>
+      <c r="P23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="22"/>
     </row>
     <row r="24" spans="2:24" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B24" s="153" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
+      <c r="B24" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="148"/>
       <c r="F24" s="25"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
+      <c r="L24" s="149"/>
       <c r="M24" s="4"/>
       <c r="N24" s="6"/>
       <c r="O24" s="5"/>
+      <c r="P24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="22"/>
     </row>
     <row r="25" spans="2:24" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="136"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="163"/>
       <c r="T25" s="12"/>
       <c r="U25" s="22"/>
       <c r="W25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="148"/>
       <c r="F26" s="25"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
+      <c r="L26" s="149"/>
       <c r="M26" s="4"/>
       <c r="N26" s="6"/>
       <c r="O26" s="5"/>
+      <c r="P26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="22"/>
       <c r="W26" s="40"/>
     </row>
     <row r="27" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="25"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
+      <c r="L27" s="149"/>
       <c r="M27" s="4"/>
       <c r="N27" s="6"/>
       <c r="O27" s="5"/>
+      <c r="P27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="22"/>
     </row>
     <row r="28" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="25"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
+      <c r="L28" s="149"/>
       <c r="M28" s="4"/>
       <c r="N28" s="6"/>
       <c r="O28" s="5"/>
+      <c r="P28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="22"/>
     </row>
     <row r="29" spans="2:24" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B29" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
+      <c r="B29" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="148"/>
       <c r="F29" s="25"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
+      <c r="L29" s="149"/>
       <c r="M29" s="4"/>
       <c r="N29" s="6"/>
       <c r="O29" s="5"/>
+      <c r="P29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="22"/>
     </row>
     <row r="30" spans="2:24" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="50"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="136"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="163"/>
       <c r="T30" s="12"/>
       <c r="U30" s="22"/>
       <c r="W30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:24" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="96"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="93"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
+      <c r="L31" s="149"/>
       <c r="M31" s="4"/>
       <c r="N31" s="6"/>
       <c r="O31" s="5"/>
+      <c r="P31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="22"/>
     </row>
     <row r="32" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="25"/>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
+      <c r="L32" s="149"/>
       <c r="M32" s="4"/>
       <c r="N32" s="6"/>
       <c r="O32" s="5"/>
+      <c r="P32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="22"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1">
-      <c r="B33" s="62"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="63"/>
+    <row r="33" spans="1:23" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="B33" s="61"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="25"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
+      <c r="L33" s="149"/>
       <c r="M33" s="4"/>
       <c r="N33" s="6"/>
       <c r="O33" s="5"/>
+      <c r="P33" s="12"/>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="12"/>
       <c r="U33" s="22"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B34" s="73" t="s">
+    <row r="34" spans="1:23" hidden="1" outlineLevel="1">
+      <c r="B34" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="48"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="136"/>
-      <c r="S34" s="136"/>
-      <c r="T34" s="137"/>
-      <c r="U34" s="111"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="165"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="105"/>
       <c r="W34" s="40">
         <v>49869</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B35" s="64"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="13"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="14"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
@@ -2734,8 +2812,10 @@
       <c r="U35" s="22"/>
     </row>
     <row r="36" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="24"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2746,21 +2826,21 @@
       <c r="M36" s="8"/>
       <c r="N36" s="10"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="11"/>
+      <c r="P36" s="110"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
-      <c r="T36" s="119"/>
+      <c r="T36" s="110"/>
       <c r="U36" s="22"/>
     </row>
     <row r="37" spans="1:23" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="103"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2770,29 +2850,30 @@
       <c r="M37" s="4"/>
       <c r="N37" s="6"/>
       <c r="O37" s="5"/>
+      <c r="P37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="22"/>
-      <c r="W37" s="106">
+      <c r="W37" s="101">
         <v>45391</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="13"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="14"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
@@ -2800,58 +2881,61 @@
       <c r="U38" s="22"/>
     </row>
     <row r="39" spans="1:23" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B39" s="81"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="22"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
+      <c r="L39" s="149"/>
       <c r="M39" s="4"/>
       <c r="N39" s="6"/>
       <c r="O39" s="5"/>
+      <c r="P39" s="12"/>
       <c r="T39" s="12"/>
       <c r="U39" s="22"/>
     </row>
     <row r="40" spans="1:23" ht="9" customHeight="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="148" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="155"/>
+      <c r="E40" s="143"/>
       <c r="F40" s="22"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
+      <c r="L40" s="149"/>
       <c r="M40" s="4"/>
       <c r="N40" s="6"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="156"/>
+      <c r="P40" s="12"/>
       <c r="T40" s="12"/>
       <c r="U40" s="22"/>
     </row>
     <row r="41" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="149"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="143"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="157"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="157"/>
-      <c r="P41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="160"/>
+      <c r="L41" s="167"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="167"/>
+      <c r="O41" s="167"/>
+      <c r="P41" s="168"/>
       <c r="T41" s="12"/>
       <c r="U41" s="22"/>
       <c r="W41" s="40">
@@ -2859,53 +2943,54 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="156"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="14"/>
       <c r="T42" s="12"/>
       <c r="U42" s="22"/>
     </row>
     <row r="43" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="67"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="11"/>
+      <c r="B43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="149"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
-      <c r="T43" s="119"/>
+      <c r="T43" s="110"/>
       <c r="U43" s="22"/>
     </row>
     <row r="44" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="70" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="72"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="34"/>
-      <c r="G44" s="91"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="4"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -2916,19 +3001,19 @@
       <c r="O44" s="5"/>
       <c r="T44" s="12"/>
       <c r="U44" s="22"/>
-      <c r="W44" s="107" t="s">
+      <c r="W44" s="100" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="61"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="60"/>
       <c r="F45" s="22"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -2941,11 +3026,11 @@
     </row>
     <row r="46" spans="1:23" ht="5.0999999999999996" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="67"/>
-      <c r="E46" s="68"/>
+      <c r="B46" s="66"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -2957,16 +3042,16 @@
       <c r="U46" s="22"/>
     </row>
     <row r="47" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="70" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="72"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="34"/>
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="91"/>
+      <c r="I47" s="89"/>
       <c r="J47" s="4"/>
       <c r="K47" s="6"/>
       <c r="M47" s="4"/>
@@ -2979,13 +3064,13 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B48" s="60"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="61"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="22"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
@@ -2996,13 +3081,13 @@
       <c r="U48" s="22"/>
     </row>
     <row r="49" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B49" s="62"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="63"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="6"/>
@@ -3013,18 +3098,18 @@
       <c r="U49" s="22"/>
     </row>
     <row r="50" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="70" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="72"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="34"/>
       <c r="G50" s="36"/>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
-      <c r="K50" s="91"/>
+      <c r="K50" s="89"/>
       <c r="M50" s="4"/>
       <c r="N50" s="6"/>
       <c r="O50" s="5"/>
@@ -3035,13 +3120,13 @@
       </c>
     </row>
     <row r="51" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B51" s="60"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="61"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
@@ -3052,13 +3137,13 @@
       <c r="U51" s="22"/>
     </row>
     <row r="52" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B52" s="62"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="63"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="6"/>
@@ -3069,12 +3154,12 @@
       <c r="U52" s="22"/>
     </row>
     <row r="53" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="70" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="72"/>
+      <c r="E53" s="71"/>
       <c r="F53" s="26"/>
       <c r="G53" s="37"/>
       <c r="H53" s="43"/>
@@ -3083,7 +3168,7 @@
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="91"/>
+      <c r="N53" s="89"/>
       <c r="T53" s="12"/>
       <c r="U53" s="22"/>
       <c r="W53" s="3" t="s">
@@ -3091,128 +3176,131 @@
       </c>
     </row>
     <row r="54" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B54" s="60"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="61"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="60"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="6"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="149"/>
       <c r="P54" s="12"/>
       <c r="S54" s="13"/>
       <c r="T54" s="14"/>
     </row>
     <row r="55" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B55" s="62"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="63"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="131"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="122"/>
       <c r="O55" s="44"/>
-      <c r="P55" s="108"/>
+      <c r="P55" s="102"/>
       <c r="Q55" s="44"/>
       <c r="R55" s="44"/>
-      <c r="S55" s="140"/>
-      <c r="T55" s="141"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="131"/>
     </row>
     <row r="56" spans="2:24" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B56" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="50"/>
+      <c r="B56" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="27"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="132"/>
+      <c r="M56" s="103"/>
+      <c r="N56" s="123"/>
       <c r="O56" s="29"/>
-      <c r="P56" s="147"/>
+      <c r="P56" s="137"/>
       <c r="Q56" s="30"/>
-      <c r="R56" s="136"/>
-      <c r="S56" s="142"/>
-      <c r="T56" s="143"/>
-      <c r="U56" s="144"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="132"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="134"/>
       <c r="W56" s="40">
         <v>50234</v>
       </c>
     </row>
     <row r="57" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B57" s="64"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="99"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="95"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="96"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="93"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="96"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="93"/>
       <c r="P57" s="12"/>
-      <c r="S57" s="140"/>
-      <c r="T57" s="141"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="131"/>
     </row>
     <row r="58" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B58" s="116"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="8"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
       <c r="L58" s="9"/>
       <c r="M58" s="8"/>
       <c r="N58" s="9"/>
       <c r="O58" s="11"/>
-      <c r="P58" s="119"/>
+      <c r="P58" s="110"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="146"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="136"/>
       <c r="U58" s="1"/>
       <c r="V58" s="3"/>
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="2:24">
-      <c r="B59" s="128"/>
-      <c r="C59" s="82" t="s">
-        <v>53</v>
+      <c r="B59" s="119"/>
+      <c r="C59" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="42"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
-      <c r="K59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="5"/>
       <c r="M59" s="4"/>
       <c r="N59" s="5"/>
+      <c r="P59" s="12"/>
       <c r="T59" s="12"/>
       <c r="U59" s="22"/>
       <c r="V59" s="2"/>
@@ -3221,54 +3309,58 @@
       </c>
     </row>
     <row r="60" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B60" s="121"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="4"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="5"/>
       <c r="M60" s="4"/>
       <c r="N60" s="5"/>
+      <c r="P60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="22"/>
       <c r="V60" s="2"/>
     </row>
     <row r="61" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B61" s="62"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="63"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="22"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="4"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="4"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5"/>
+      <c r="P61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="22"/>
       <c r="V61" s="2"/>
     </row>
     <row r="62" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="72"/>
+      <c r="E62" s="71"/>
       <c r="F62" s="26"/>
-      <c r="G62" s="37"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="43"/>
       <c r="I62" s="37"/>
-      <c r="K62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="6"/>
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
+      <c r="P62" s="12"/>
       <c r="T62" s="12"/>
       <c r="U62" s="22"/>
       <c r="V62" s="2"/>
@@ -3276,58 +3368,61 @@
         <v>46399</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B63" s="60"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="61"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="60"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="4"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
+      <c r="P63" s="12"/>
       <c r="T63" s="12"/>
       <c r="U63" s="22"/>
       <c r="V63" s="2"/>
     </row>
     <row r="64" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B64" s="62"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="63"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="62"/>
       <c r="F64" s="22"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="4"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
+      <c r="P64" s="12"/>
       <c r="T64" s="12"/>
       <c r="U64" s="22"/>
       <c r="V64" s="2"/>
     </row>
     <row r="65" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B65" s="67" t="s">
-        <v>47</v>
+      <c r="B65" s="66" t="s">
+        <v>46</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="72"/>
+      <c r="E65" s="71"/>
       <c r="F65" s="26"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="28"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="31"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="4"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
+      <c r="P65" s="12"/>
       <c r="T65" s="12"/>
       <c r="U65" s="22"/>
       <c r="V65" s="2"/>
@@ -3335,58 +3430,61 @@
         <v>46399</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B66" s="60"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="22"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="4"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
+      <c r="P66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="22"/>
       <c r="V66" s="2"/>
     </row>
     <row r="67" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B67" s="62"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="63"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="62"/>
       <c r="F67" s="22"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="4"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="4"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
+      <c r="P67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="22"/>
       <c r="V67" s="2"/>
     </row>
     <row r="68" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B68" s="67" t="s">
-        <v>48</v>
+      <c r="B68" s="66" t="s">
+        <v>47</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="72"/>
+      <c r="E68" s="71"/>
       <c r="F68" s="26"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="28"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="20"/>
       <c r="I68" s="31"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="4"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5"/>
+      <c r="P68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="22"/>
       <c r="V68" s="2"/>
@@ -3394,56 +3492,61 @@
         <v>46399</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B69" s="60"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="61"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="60"/>
       <c r="F69" s="22"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="5"/>
-      <c r="K69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="6"/>
       <c r="M69" s="4"/>
       <c r="N69" s="5"/>
+      <c r="P69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="22"/>
       <c r="V69" s="2"/>
     </row>
     <row r="70" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B70" s="124"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="5"/>
-      <c r="K70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="6"/>
       <c r="L70" s="5"/>
       <c r="M70" s="4"/>
       <c r="N70" s="5"/>
+      <c r="P70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="22"/>
       <c r="V70" s="2"/>
     </row>
     <row r="71" spans="2:25">
-      <c r="B71" s="128"/>
-      <c r="C71" s="82" t="s">
-        <v>54</v>
+      <c r="B71" s="119"/>
+      <c r="C71" s="80" t="s">
+        <v>53</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="42"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
       <c r="H71" s="42"/>
       <c r="I71" s="42"/>
       <c r="J71" s="42"/>
       <c r="K71" s="42"/>
       <c r="M71" s="4"/>
       <c r="N71" s="5"/>
+      <c r="P71" s="12"/>
       <c r="T71" s="12"/>
       <c r="U71" s="22"/>
       <c r="V71" s="2"/>
@@ -3451,37 +3554,41 @@
         <v>47127</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B72" s="121"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="122"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="113"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="5"/>
-      <c r="K72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="4"/>
       <c r="N72" s="5"/>
+      <c r="P72" s="12"/>
       <c r="T72" s="12"/>
       <c r="U72" s="22"/>
       <c r="V72" s="2"/>
     </row>
     <row r="73" spans="2:25" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B73" s="67"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="B73" s="66"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="4"/>
       <c r="I73" s="5"/>
-      <c r="K73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="4"/>
       <c r="N73" s="5"/>
+      <c r="P73" s="12"/>
       <c r="T73" s="12"/>
       <c r="U73" s="22"/>
       <c r="V73" s="2"/>
@@ -3489,20 +3596,21 @@
       <c r="X73" s="3"/>
     </row>
     <row r="74" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B74" s="67" t="s">
-        <v>56</v>
+      <c r="B74" s="66" t="s">
+        <v>55</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="72"/>
+      <c r="E74" s="71"/>
       <c r="F74" s="26"/>
-      <c r="G74" s="37"/>
+      <c r="G74" s="33"/>
       <c r="H74" s="43"/>
       <c r="I74" s="37"/>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
       <c r="M74" s="4"/>
       <c r="N74" s="5"/>
+      <c r="P74" s="12"/>
       <c r="T74" s="12"/>
       <c r="U74" s="22"/>
       <c r="V74" s="2"/>
@@ -3511,53 +3619,60 @@
       </c>
     </row>
     <row r="75" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B75" s="60"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="61"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="60"/>
       <c r="F75" s="22"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="5"/>
-      <c r="K75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
       <c r="M75" s="4"/>
       <c r="N75" s="5"/>
+      <c r="P75" s="12"/>
       <c r="T75" s="12"/>
       <c r="U75" s="22"/>
       <c r="V75" s="2"/>
     </row>
     <row r="76" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B76" s="62"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="63"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="62"/>
       <c r="F76" s="22"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="5"/>
-      <c r="K76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
       <c r="M76" s="4"/>
       <c r="N76" s="5"/>
+      <c r="P76" s="12"/>
       <c r="T76" s="12"/>
       <c r="U76" s="22"/>
       <c r="V76" s="2"/>
     </row>
     <row r="77" spans="2:25" ht="18.75" customHeight="1">
-      <c r="B77" s="67" t="s">
-        <v>42</v>
+      <c r="B77" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="72"/>
+      <c r="E77" s="71"/>
       <c r="F77" s="26"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="28"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="20"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
       <c r="K77" s="31"/>
-      <c r="L77" s="112"/>
+      <c r="L77" s="106"/>
       <c r="M77" s="4"/>
       <c r="N77" s="5"/>
+      <c r="P77" s="12"/>
       <c r="T77" s="12"/>
       <c r="U77" s="22"/>
       <c r="V77" s="2"/>
@@ -3565,57 +3680,62 @@
         <v>47127</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B78" s="60"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="61"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="22"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="5"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="5"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="149"/>
       <c r="M78" s="4"/>
       <c r="N78" s="5"/>
+      <c r="P78" s="12"/>
       <c r="T78" s="12"/>
       <c r="U78" s="22"/>
       <c r="V78" s="2"/>
     </row>
     <row r="79" spans="2:25" ht="5.0999999999999996" customHeight="1">
-      <c r="B79" s="124"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="5"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="5"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="149"/>
       <c r="M79" s="4"/>
       <c r="N79" s="5"/>
+      <c r="P79" s="12"/>
       <c r="T79" s="12"/>
       <c r="U79" s="22"/>
       <c r="V79" s="2"/>
     </row>
     <row r="80" spans="2:25">
-      <c r="B80" s="128"/>
-      <c r="C80" s="82" t="s">
-        <v>57</v>
+      <c r="B80" s="119"/>
+      <c r="C80" s="80" t="s">
+        <v>56</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="26"/>
-      <c r="G80" s="20"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="20"/>
       <c r="I80" s="42"/>
       <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
+      <c r="K80" s="150"/>
+      <c r="L80" s="150"/>
       <c r="M80" s="42"/>
+      <c r="P80" s="12"/>
       <c r="T80" s="12"/>
       <c r="U80" s="22"/>
       <c r="V80" s="2"/>
@@ -3623,58 +3743,63 @@
         <v>48135</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B81" s="121"/>
-      <c r="C81" s="122"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="113"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="5"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="5"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="149"/>
       <c r="M81" s="4"/>
       <c r="N81" s="5"/>
+      <c r="P81" s="12"/>
       <c r="T81" s="12"/>
       <c r="U81" s="22"/>
       <c r="V81" s="2"/>
     </row>
     <row r="82" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B82" s="62"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="63"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="62"/>
       <c r="F82" s="22"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="5"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="5"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="149"/>
       <c r="M82" s="4"/>
       <c r="N82" s="5"/>
+      <c r="P82" s="12"/>
       <c r="T82" s="12"/>
       <c r="U82" s="22"/>
       <c r="V82" s="2"/>
     </row>
     <row r="83" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B83" s="67" t="s">
-        <v>49</v>
+      <c r="B83" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="72"/>
+      <c r="E83" s="71"/>
       <c r="F83" s="26"/>
-      <c r="G83" s="37"/>
+      <c r="G83" s="33"/>
       <c r="H83" s="20"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
       <c r="K83" s="29"/>
       <c r="L83" s="28"/>
       <c r="M83" s="31"/>
+      <c r="P83" s="12"/>
       <c r="T83" s="12"/>
       <c r="U83" s="22"/>
       <c r="V83" s="2"/>
@@ -3682,58 +3807,63 @@
         <v>48135</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B84" s="60"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="5"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="5"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="149"/>
       <c r="M84" s="4"/>
       <c r="N84" s="5"/>
+      <c r="P84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="22"/>
       <c r="V84" s="2"/>
     </row>
     <row r="85" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B85" s="127"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="63"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="62"/>
       <c r="F85" s="22"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="5"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="5"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="44"/>
       <c r="M85" s="4"/>
       <c r="N85" s="5"/>
+      <c r="P85" s="12"/>
       <c r="T85" s="12"/>
       <c r="U85" s="22"/>
       <c r="V85" s="2"/>
     </row>
     <row r="86" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="72"/>
+      <c r="E86" s="71"/>
       <c r="F86" s="26"/>
-      <c r="G86" s="37"/>
+      <c r="G86" s="33"/>
       <c r="H86" s="20"/>
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
       <c r="K86" s="29"/>
       <c r="L86" s="28"/>
       <c r="M86" s="31"/>
+      <c r="P86" s="12"/>
       <c r="T86" s="12"/>
       <c r="U86" s="22"/>
       <c r="V86" s="2"/>
@@ -3741,221 +3871,262 @@
         <v>48135</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B87" s="60"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="5"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
       <c r="H87" s="4"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="129"/>
-      <c r="K87" s="129"/>
-      <c r="L87" s="129"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="120"/>
+      <c r="P87" s="12"/>
       <c r="T87" s="12"/>
       <c r="U87" s="22"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B88" s="62"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="5"/>
+    <row r="88" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B88" s="61"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
       <c r="H88" s="4"/>
       <c r="I88" s="5"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="5"/>
+      <c r="P88" s="12"/>
       <c r="T88" s="12"/>
       <c r="U88" s="22"/>
       <c r="V88" s="2"/>
       <c r="W88" s="1"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B89" s="71" t="s">
+    <row r="89" spans="2:24" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B89" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="135"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="22"/>
       <c r="H89" s="4"/>
       <c r="I89" s="5"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="5"/>
+      <c r="P89" s="12"/>
       <c r="T89" s="12"/>
       <c r="U89" s="22"/>
-      <c r="W89" s="105" t="s">
+      <c r="W89" s="100" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B90" s="60"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="5"/>
+    <row r="90" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B90" s="59"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="5"/>
+      <c r="P90" s="12"/>
       <c r="T90" s="12"/>
       <c r="U90" s="22"/>
     </row>
     <row r="91" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B91" s="62"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="5"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="4"/>
       <c r="I91" s="5"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="5"/>
+      <c r="P91" s="12"/>
       <c r="T91" s="12"/>
       <c r="U91" s="22"/>
     </row>
     <row r="92" spans="2:24" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="70" t="s">
         <v>29</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="5"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="125"/>
+      <c r="G92" s="22"/>
       <c r="H92" s="4"/>
       <c r="I92" s="5"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="5"/>
+      <c r="P92" s="12"/>
       <c r="T92" s="12"/>
       <c r="U92" s="22"/>
-      <c r="W92" s="106">
+      <c r="W92" s="101">
         <v>45426</v>
       </c>
     </row>
     <row r="93" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B93" s="60"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="5"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
       <c r="H93" s="4"/>
       <c r="I93" s="5"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="5"/>
+      <c r="P93" s="12"/>
       <c r="T93" s="12"/>
       <c r="U93" s="22"/>
     </row>
     <row r="94" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B94" s="62"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="5"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
       <c r="H94" s="4"/>
       <c r="I94" s="5"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="5"/>
+      <c r="P94" s="12"/>
       <c r="T94" s="12"/>
       <c r="U94" s="22"/>
     </row>
     <row r="95" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B95" s="71" t="s">
+      <c r="B95" s="70" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="72"/>
+      <c r="E95" s="71"/>
       <c r="F95" s="33"/>
-      <c r="G95" s="37"/>
+      <c r="G95" s="33"/>
       <c r="H95" s="43"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="5"/>
+      <c r="P95" s="12"/>
       <c r="T95" s="12"/>
       <c r="U95" s="22"/>
-      <c r="W95" s="40">
+      <c r="W95" s="151">
         <v>46336</v>
       </c>
     </row>
     <row r="96" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B96" s="60"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="61"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="22"/>
-      <c r="G96" s="5"/>
+      <c r="G96" s="22"/>
       <c r="H96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="5"/>
+      <c r="P96" s="12"/>
       <c r="T96" s="12"/>
       <c r="U96" s="22"/>
     </row>
     <row r="97" spans="2:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B97" s="62"/>
-      <c r="C97" s="78"/>
-      <c r="D97" s="78"/>
-      <c r="E97" s="63"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="62"/>
       <c r="F97" s="22"/>
-      <c r="G97" s="5"/>
+      <c r="G97" s="22"/>
       <c r="H97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="5"/>
+      <c r="P97" s="12"/>
       <c r="T97" s="12"/>
       <c r="U97" s="22"/>
     </row>
     <row r="98" spans="2:23" ht="18.75" customHeight="1">
-      <c r="B98" s="71" t="s">
+      <c r="B98" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="113"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="115"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="43"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="5"/>
+      <c r="P98" s="12"/>
       <c r="T98" s="12"/>
       <c r="U98" s="22"/>
-      <c r="W98" s="3" t="s">
-        <v>34</v>
+      <c r="W98" s="151">
+        <v>46154</v>
       </c>
     </row>
     <row r="99" spans="2:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B99" s="60"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="5"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="5"/>
+      <c r="P99" s="12"/>
       <c r="T99" s="12"/>
       <c r="U99" s="22"/>
     </row>
     <row r="100" spans="2:23" ht="5.0999999999999996" customHeight="1">
-      <c r="B100" s="62"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="5"/>
-      <c r="J100" s="44"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="5"/>
+      <c r="P100" s="12"/>
       <c r="T100" s="12"/>
       <c r="U100" s="22"/>
     </row>
     <row r="101" spans="2:23" ht="18.75" customHeight="1">
-      <c r="B101" s="73" t="s">
+      <c r="B101" s="72" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="72"/>
+      <c r="E101" s="71"/>
       <c r="F101" s="22"/>
-      <c r="G101" s="45"/>
+      <c r="G101" s="142"/>
       <c r="H101" s="30"/>
-      <c r="I101" s="90"/>
+      <c r="I101" s="88"/>
       <c r="J101" s="31"/>
+      <c r="P101" s="12"/>
       <c r="T101" s="12"/>
       <c r="U101" s="22"/>
       <c r="W101" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="2:23" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B102" s="64"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="65"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="64"/>
       <c r="F102" s="23"/>
-      <c r="G102" s="13"/>
+      <c r="G102" s="23"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -3964,7 +4135,7 @@
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
+      <c r="P102" s="14"/>
       <c r="Q102" s="13"/>
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
@@ -3973,24 +4144,24 @@
     </row>
     <row r="103" spans="2:23" ht="5.0999999999999996" customHeight="1"/>
     <row r="104" spans="2:23">
-      <c r="B104" s="69"/>
+      <c r="B104" s="68"/>
       <c r="C104" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="2:23">
       <c r="B105" s="21"/>
       <c r="C105" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="32"/>
     </row>
     <row r="106" spans="2:23">
-      <c r="B106" s="70"/>
+      <c r="B106" s="69"/>
       <c r="C106" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="32"/>
@@ -4007,6 +4178,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
+++ b/20230710_Visual Studio と .NET と Windows のサポート状況について/123_VSSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Visual Studio と .NET と Windows のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA295C-D908-406A-B642-E1519D2B9B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5931EDC8-38D0-46AF-A37E-B33D4E1EE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -206,18 +206,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2028年11月?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R20年</t>
     <rPh sb="3" eb="4">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>24H2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -328,7 +320,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Visual Studio 2027?</t>
+    <t>Visual Studio 2026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET 11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -339,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,20 +433,13 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,8 +470,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -665,19 +664,6 @@
     <border>
       <left/>
       <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
@@ -867,36 +853,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,39 +956,6 @@
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1097,11 +1020,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1152,7 +1164,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,9 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1188,7 +1197,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="55" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1212,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1210,12 +1225,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,25 +1249,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,16 +1279,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,19 +1307,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,29 +1331,8 @@
     <xf numFmtId="55" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1370,13 +1352,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="24" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,41 +1385,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1452,37 +1425,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1497,14 +1467,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1512,58 +1521,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ98"/>
+  <dimension ref="A1:AM101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AN75" sqref="AN75"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM99" sqref="AM99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1860,19 +1866,19 @@
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
     <col min="6" max="7" width="4.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="4.125" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="27" width="3.125" style="2" customWidth="1"/>
-    <col min="28" max="31" width="6.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="6.125" style="2" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="2.625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="2.625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="1"/>
+    <col min="9" max="33" width="3.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="6.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="6.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="2.625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="2.625" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:34" ht="18.75" customHeight="1">
-      <c r="F2" s="149"/>
-      <c r="G2" s="150"/>
+    <row r="1" spans="1:37" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:37" ht="18.75" customHeight="1">
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
@@ -1898,139 +1904,148 @@
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="68"/>
-    </row>
-    <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="F3" s="151" t="s">
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="65"/>
+    </row>
+    <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F3" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154" t="s">
+      <c r="G3" s="151"/>
+      <c r="H3" s="150" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="152"/>
+      <c r="J3" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="153"/>
-      <c r="L3" s="154" t="s">
+      <c r="K3" s="152"/>
+      <c r="L3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154" t="s">
+      <c r="M3" s="152"/>
+      <c r="N3" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="153"/>
-      <c r="P3" s="154" t="s">
+      <c r="O3" s="152"/>
+      <c r="P3" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="154" t="s">
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="153"/>
-      <c r="T3" s="154" t="s">
+      <c r="S3" s="152"/>
+      <c r="T3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="153"/>
-      <c r="V3" s="154" t="s">
+      <c r="U3" s="152"/>
+      <c r="V3" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="153"/>
-      <c r="X3" s="154" t="s">
+      <c r="W3" s="152"/>
+      <c r="X3" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="154" t="s">
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="86" t="s">
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="82" t="s">
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" s="82" t="s">
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF3" s="19"/>
-    </row>
-    <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B4" s="144" t="s">
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="19"/>
+    </row>
+    <row r="4" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B4" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="155">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="154">
         <v>2024</v>
       </c>
-      <c r="G4" s="156"/>
-      <c r="H4" s="159">
+      <c r="G4" s="155"/>
+      <c r="H4" s="158">
         <v>2025</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="157">
+      <c r="I4" s="157"/>
+      <c r="J4" s="156">
         <v>2026</v>
       </c>
-      <c r="K4" s="158"/>
-      <c r="L4" s="157">
+      <c r="K4" s="157"/>
+      <c r="L4" s="156">
         <v>2027</v>
       </c>
-      <c r="M4" s="158"/>
-      <c r="N4" s="157">
+      <c r="M4" s="157"/>
+      <c r="N4" s="156">
         <v>2028</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="157">
+      <c r="O4" s="157"/>
+      <c r="P4" s="156">
         <v>2029</v>
       </c>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="157">
+      <c r="Q4" s="157"/>
+      <c r="R4" s="156">
         <v>2030</v>
       </c>
-      <c r="S4" s="158"/>
-      <c r="T4" s="157">
+      <c r="S4" s="157"/>
+      <c r="T4" s="156">
         <v>2031</v>
       </c>
-      <c r="U4" s="158"/>
-      <c r="V4" s="157">
+      <c r="U4" s="157"/>
+      <c r="V4" s="156">
         <v>2032</v>
       </c>
-      <c r="W4" s="158"/>
-      <c r="X4" s="157">
+      <c r="W4" s="157"/>
+      <c r="X4" s="156">
         <v>2033</v>
       </c>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="157">
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="156">
         <v>2034</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="87">
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="156">
         <v>2035</v>
       </c>
-      <c r="AC4" s="83">
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="156">
         <v>2036</v>
       </c>
-      <c r="AD4" s="83">
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="156">
         <v>2037</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="17">
         <v>2038</v>
       </c>
-      <c r="AF4" s="19"/>
-    </row>
-    <row r="5" spans="1:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="88"/>
+      <c r="AI4" s="19"/>
+    </row>
+    <row r="5" spans="1:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="7"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2051,56 +2066,62 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="7"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="19"/>
-    </row>
-    <row r="6" spans="1:34" ht="18.75" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="19"/>
+    </row>
+    <row r="6" spans="1:37" ht="18.75" customHeight="1">
+      <c r="B6" s="47" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="29"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="29"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="28"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="29"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="28"/>
       <c r="W6" s="4"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
+      <c r="AB6" s="5"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+      <c r="AD6" s="5"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="19"/>
-      <c r="AH6" s="66" t="s">
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="19"/>
+      <c r="AK6" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="5.0999999999999996" customHeight="1">
+    <row r="7" spans="1:37" ht="5.0999999999999996" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="19"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
@@ -2119,18 +2140,21 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
+      <c r="AB7" s="5"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="5"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="19"/>
-    </row>
-    <row r="8" spans="1:34" ht="5.0999999999999996" customHeight="1">
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="19"/>
+    </row>
+    <row r="8" spans="1:37" ht="5.0999999999999996" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="19"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
@@ -2150,20 +2174,23 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="19"/>
-    </row>
-    <row r="9" spans="1:34" ht="12.95" customHeight="1">
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="129"/>
+      <c r="AI8" s="19"/>
+    </row>
+    <row r="9" spans="1:37" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="142" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="19"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
@@ -2182,26 +2209,29 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
+      <c r="AB9" s="5"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="19"/>
-    </row>
-    <row r="10" spans="1:34" ht="18.75" customHeight="1">
-      <c r="B10" s="80"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="19"/>
+    </row>
+    <row r="10" spans="1:37" ht="18.75" customHeight="1">
+      <c r="B10" s="77"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="19"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
       <c r="R10" s="5"/>
       <c r="S10" s="4"/>
       <c r="T10" s="5"/>
@@ -2211,20 +2241,23 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
+      <c r="AB10" s="5"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="5"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="19"/>
-      <c r="AH10" s="28">
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="19"/>
+      <c r="AK10" s="27">
         <v>47040</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B11" s="44"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
+    <row r="11" spans="1:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B11" s="43"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="19"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
@@ -2242,17 +2275,20 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
+      <c r="AB11" s="5"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="5"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="19"/>
-    </row>
-    <row r="12" spans="1:34" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="19"/>
+    </row>
+    <row r="12" spans="1:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B12" s="54"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="19"/>
       <c r="H12" s="5"/>
       <c r="I12" s="4"/>
@@ -2271,30 +2307,33 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
+      <c r="AB12" s="5"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+      <c r="AD12" s="5"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="19"/>
-    </row>
-    <row r="13" spans="1:34" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B13" s="80"/>
-      <c r="C13" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="19"/>
+    </row>
+    <row r="13" spans="1:37" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B13" s="77"/>
+      <c r="C13" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="122"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
       <c r="T13" s="5"/>
@@ -2303,20 +2342,23 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
+      <c r="AB13" s="5"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
+      <c r="AD13" s="5"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="19"/>
-      <c r="AH13" s="28">
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="19"/>
+      <c r="AK13" s="27">
         <v>47127</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B14" s="44"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+    <row r="14" spans="1:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B14" s="43"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="19"/>
       <c r="H14" s="5"/>
       <c r="I14" s="4"/>
@@ -2333,17 +2375,20 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="AB14" s="5"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="19"/>
-    </row>
-    <row r="15" spans="1:34" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="19"/>
+    </row>
+    <row r="15" spans="1:37" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B15" s="54"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="19"/>
       <c r="H15" s="5"/>
       <c r="I15" s="4"/>
@@ -2360,19 +2405,22 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
+      <c r="AD15" s="5"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="19"/>
-    </row>
-    <row r="16" spans="1:34" ht="9" customHeight="1">
-      <c r="B16" s="80"/>
-      <c r="C16" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="19"/>
+    </row>
+    <row r="16" spans="1:37" ht="9" customHeight="1">
+      <c r="B16" s="77"/>
+      <c r="C16" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
       <c r="F16" s="19"/>
       <c r="H16" s="5"/>
       <c r="I16" s="4"/>
@@ -2389,53 +2437,59 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
+      <c r="AB16" s="5"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
+      <c r="AD16" s="5"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="19"/>
-    </row>
-    <row r="17" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B17" s="80"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="19"/>
+    </row>
+    <row r="17" spans="2:38" ht="18.75" customHeight="1">
+      <c r="B17" s="77"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
       <c r="W17" s="4"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
+      <c r="AB17" s="5"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
+      <c r="AD17" s="5"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="19"/>
-      <c r="AH17" s="3" t="s">
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="19"/>
+      <c r="AK17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:35" ht="5.0999999999999996" customHeight="1">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+    <row r="18" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="19"/>
       <c r="H18" s="5"/>
       <c r="J18" s="5"/>
@@ -2450,17 +2504,20 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="AB18" s="5"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="5"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="19"/>
-    </row>
-    <row r="19" spans="2:35" ht="5.0999999999999996" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="40"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="19"/>
+    </row>
+    <row r="19" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="19"/>
       <c r="H19" s="5"/>
       <c r="J19" s="5"/>
@@ -2476,59 +2533,65 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
+      <c r="AB19" s="5"/>
       <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="5"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="19"/>
-    </row>
-    <row r="20" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B20" s="48" t="s">
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="19"/>
+    </row>
+    <row r="20" spans="2:38" ht="18.75" customHeight="1">
+      <c r="B20" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="114"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="108"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="97"/>
       <c r="W20" s="4"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
+      <c r="AB20" s="5"/>
       <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="5"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="19"/>
-      <c r="AH20" s="28">
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="19"/>
+      <c r="AK20" s="27">
         <v>48135</v>
       </c>
-      <c r="AI20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35" ht="5.0999999999999996" customHeight="1">
-      <c r="B21" s="44"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="38"/>
+      <c r="AL20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="B21" s="43"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="19"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -2547,17 +2610,20 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
+      <c r="AB21" s="5"/>
       <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
+      <c r="AD21" s="5"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="19"/>
-    </row>
-    <row r="22" spans="2:35" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="19"/>
+    </row>
+    <row r="22" spans="2:38" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="B22" s="54"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="19"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -2575,52 +2641,58 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
+      <c r="AB22" s="5"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
+      <c r="AD22" s="5"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="19"/>
-    </row>
-    <row r="23" spans="2:35" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B23" s="118"/>
-      <c r="C23" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="98"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="129"/>
+      <c r="AI22" s="19"/>
+    </row>
+    <row r="23" spans="2:38" ht="18.75" customHeight="1" outlineLevel="1">
+      <c r="B23" s="106"/>
+      <c r="C23" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="146"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
       <c r="S23" s="4"/>
       <c r="T23" s="5"/>
       <c r="U23" s="4"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="119"/>
-      <c r="AB23" s="4"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="5"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
+      <c r="AD23" s="5"/>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="19"/>
-      <c r="AH23" s="28">
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="19"/>
+      <c r="AK23" s="27">
         <v>47400</v>
       </c>
     </row>
-    <row r="24" spans="2:35" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
+    <row r="24" spans="2:38" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="B24" s="54"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="19"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -2638,17 +2710,20 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
+      <c r="AB24" s="5"/>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
+      <c r="AD24" s="5"/>
       <c r="AE24" s="4"/>
-      <c r="AF24" s="19"/>
-    </row>
-    <row r="25" spans="2:35" ht="3.75" customHeight="1" collapsed="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="129"/>
+      <c r="AI24" s="19"/>
+    </row>
+    <row r="25" spans="2:38" ht="3.75" customHeight="1">
+      <c r="B25" s="54"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="19"/>
       <c r="H25" s="5"/>
       <c r="I25" s="4"/>
@@ -2665,87 +2740,94 @@
       <c r="W25" s="4"/>
       <c r="X25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AB25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="5"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
+      <c r="AD25" s="5"/>
       <c r="AE25" s="4"/>
-      <c r="AF25" s="19"/>
-    </row>
-    <row r="26" spans="2:35" ht="9" customHeight="1">
-      <c r="B26" s="80"/>
-      <c r="C26" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="129"/>
+      <c r="AI25" s="19"/>
+    </row>
+    <row r="26" spans="2:38" ht="9" customHeight="1">
+      <c r="B26" s="77"/>
+      <c r="C26" s="141" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
       <c r="F26" s="19"/>
       <c r="H26" s="5"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="29"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="29"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="28"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="29"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="28"/>
       <c r="W26" s="4"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
+      <c r="AB26" s="5"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
+      <c r="AD26" s="5"/>
       <c r="AE26" s="4"/>
-      <c r="AF26" s="19"/>
-    </row>
-    <row r="27" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B27" s="80"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="19"/>
+    </row>
+    <row r="27" spans="2:38" ht="18.75" customHeight="1">
+      <c r="B27" s="77"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="4"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="83"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
-      <c r="AF27" s="19"/>
-      <c r="AH27" s="28">
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="19"/>
+      <c r="AK27" s="27">
         <v>49227</v>
       </c>
     </row>
-    <row r="28" spans="2:35" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
+    <row r="28" spans="2:38" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="19"/>
       <c r="H28" s="5"/>
       <c r="J28" s="5"/>
@@ -2758,17 +2840,21 @@
       <c r="U28" s="4"/>
       <c r="X28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AB28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="5"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
+      <c r="AD28" s="5"/>
       <c r="AE28" s="4"/>
-      <c r="AF28" s="19"/>
-    </row>
-    <row r="29" spans="2:35" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B29" s="56"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="129"/>
+      <c r="AI28" s="19"/>
+    </row>
+    <row r="29" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="B29" s="54"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="19"/>
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
@@ -2785,194 +2871,212 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
+      <c r="AB29" s="5"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
+      <c r="AD29" s="5"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="19"/>
-    </row>
-    <row r="30" spans="2:35" hidden="1" outlineLevel="1">
-      <c r="B30" s="50" t="s">
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="129"/>
+      <c r="AI29" s="19"/>
+    </row>
+    <row r="30" spans="2:38" hidden="1" outlineLevel="1">
+      <c r="B30" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="63"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="69"/>
-      <c r="AH30" s="28">
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="133"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="133"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="66"/>
+      <c r="AK30" s="27">
         <v>49869</v>
       </c>
     </row>
-    <row r="31" spans="2:35" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="129"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="129"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="19"/>
-    </row>
-    <row r="32" spans="2:35" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B32" s="56"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="133"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="133"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="133"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="133"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="133"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="19"/>
-    </row>
-    <row r="33" spans="1:34" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B33" s="48" t="s">
+    <row r="31" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="116"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="19"/>
+    </row>
+    <row r="32" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B32" s="54"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="19"/>
+    </row>
+    <row r="33" spans="1:37" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B33" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="29"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="29"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="29"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="29"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="28"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="29"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="28"/>
       <c r="W33" s="4"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
+      <c r="AB33" s="5"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
+      <c r="AD33" s="5"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="19"/>
-      <c r="AH33" s="67">
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="129"/>
+      <c r="AI33" s="19"/>
+      <c r="AK33" s="64">
         <v>45391</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="34" spans="1:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="32"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="31"/>
       <c r="Q34" s="11"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="64"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="61"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="64"/>
+      <c r="U34" s="61"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="64"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="61"/>
       <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="19"/>
-    </row>
-    <row r="35" spans="1:34" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="128"/>
+      <c r="AI34" s="19"/>
+    </row>
+    <row r="35" spans="1:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="88"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="7"/>
@@ -2993,151 +3097,171 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="7"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="19"/>
-    </row>
-    <row r="36" spans="1:34" ht="18.75" customHeight="1">
-      <c r="B36" s="48" t="s">
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="131"/>
+      <c r="AI35" s="19"/>
+    </row>
+    <row r="36" spans="1:37" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B36" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="29"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="29"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="102"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="91"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="29"/>
+      <c r="V36" s="28"/>
       <c r="W36" s="4"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="4"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
+      <c r="AB36" s="5"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
+      <c r="AD36" s="5"/>
       <c r="AE36" s="4"/>
-      <c r="AF36" s="19"/>
-      <c r="AH36" s="66" t="s">
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="129"/>
+      <c r="AI36" s="19"/>
+      <c r="AK36" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="5.0999999999999996" customHeight="1">
+    <row r="37" spans="1:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="19"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="19"/>
-    </row>
-    <row r="38" spans="1:34" ht="5.0999999999999996" customHeight="1">
+      <c r="B37" s="40"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="19"/>
+    </row>
+    <row r="38" spans="1:37" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="19"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="19"/>
-    </row>
-    <row r="39" spans="1:34" ht="18.75" customHeight="1">
-      <c r="B39" s="48" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="19"/>
+    </row>
+    <row r="39" spans="1:37" ht="18.75" customHeight="1">
+      <c r="B39" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="106"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="95"/>
       <c r="N39" s="5"/>
       <c r="O39" s="4"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="4"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="29"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="28"/>
       <c r="U39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="19"/>
-      <c r="AH39" s="28">
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="19"/>
+      <c r="AK39" s="27">
         <v>46490</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B40" s="37"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="38"/>
+    <row r="40" spans="1:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B40" s="36"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="19"/>
       <c r="H40" s="5"/>
       <c r="I40" s="4"/>
@@ -3146,26 +3270,26 @@
       <c r="N40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="29"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="28"/>
       <c r="U40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="19"/>
-    </row>
-    <row r="41" spans="1:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B41" s="39"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="40"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="19"/>
+    </row>
+    <row r="41" spans="1:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B41" s="38"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="19"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4"/>
@@ -3174,63 +3298,63 @@
       <c r="N41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="29"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="28"/>
       <c r="U41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="19"/>
-    </row>
-    <row r="42" spans="1:34" ht="18.75" customHeight="1">
-      <c r="B42" s="48" t="s">
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="19"/>
+    </row>
+    <row r="42" spans="1:37" ht="18.75" customHeight="1">
+      <c r="B42" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="97"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="86"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="29"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="28"/>
       <c r="U42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="19"/>
-      <c r="AH42" s="28">
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="19"/>
+      <c r="AK42" s="27">
         <v>47218</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="38"/>
+    <row r="43" spans="1:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B43" s="36"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="19"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4"/>
@@ -3238,20 +3362,24 @@
       <c r="N43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="29"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="28"/>
       <c r="U43" s="4"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="4"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="19"/>
-    </row>
-    <row r="44" spans="1:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="40"/>
+      <c r="AA43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="19"/>
+    </row>
+    <row r="44" spans="1:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B44" s="38"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="19"/>
       <c r="H44" s="5"/>
       <c r="I44" s="4"/>
@@ -3264,54 +3392,54 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="4"/>
       <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
-      <c r="AF44" s="19"/>
-    </row>
-    <row r="45" spans="1:34" ht="18.75" customHeight="1">
-      <c r="B45" s="48" t="s">
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="19"/>
+    </row>
+    <row r="45" spans="1:37" ht="18.75" customHeight="1">
+      <c r="B45" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="49"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
       <c r="W45" s="4"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="4"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="4"/>
+      <c r="AA45" s="4"/>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
-      <c r="AF45" s="19"/>
-      <c r="AH45" s="3" t="s">
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="19"/>
+      <c r="AK45" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B46" s="37"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="38"/>
+    <row r="46" spans="1:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B46" s="36"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="19"/>
       <c r="H46" s="5"/>
       <c r="I46" s="4"/>
@@ -3326,13 +3454,19 @@
       <c r="U46" s="4"/>
       <c r="W46" s="4"/>
       <c r="Y46" s="4"/>
-      <c r="AA46" s="10"/>
-    </row>
-    <row r="47" spans="1:34" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B47" s="39"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="40"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="19"/>
+    </row>
+    <row r="47" spans="1:37" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="B47" s="38"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="19"/>
       <c r="H47" s="5"/>
       <c r="I47" s="4"/>
@@ -3343,60 +3477,64 @@
       <c r="O47" s="4"/>
       <c r="P47" s="5"/>
       <c r="R47" s="5"/>
-      <c r="S47" s="115"/>
+      <c r="S47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="W47" s="115"/>
+      <c r="W47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="5"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
-      <c r="AF47" s="19"/>
-    </row>
-    <row r="48" spans="1:34" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B48" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="110"/>
-      <c r="Z48" s="110"/>
-      <c r="AA48" s="110"/>
-      <c r="AB48" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="19"/>
+    </row>
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="18.75" customHeight="1" outlineLevel="1">
+      <c r="B48" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="160"/>
+      <c r="N48" s="159"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="91"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="91"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="2"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="4"/>
-      <c r="AF48" s="19"/>
-      <c r="AH48" s="28">
-        <v>50234</v>
-      </c>
-    </row>
-    <row r="49" spans="2:36" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B49" s="41"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="42"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="129"/>
+      <c r="AI48" s="19"/>
+      <c r="AK48" s="27">
+        <v>46700</v>
+      </c>
+    </row>
+    <row r="49" spans="2:39" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="B49" s="40"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="20"/>
       <c r="G49" s="4"/>
       <c r="I49" s="4"/>
@@ -3407,20 +3545,26 @@
       <c r="O49" s="4"/>
       <c r="P49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="116"/>
+      <c r="S49" s="61"/>
       <c r="U49" s="4"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="117"/>
-      <c r="AA49" s="10"/>
-      <c r="AD49" s="84"/>
-      <c r="AE49" s="85"/>
-    </row>
-    <row r="50" spans="2:36" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="88"/>
+      <c r="Y49" s="61"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="31"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="139"/>
+      <c r="AI49" s="19"/>
+    </row>
+    <row r="50" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="79"/>
       <c r="G50" s="7"/>
       <c r="H50" s="9"/>
       <c r="I50" s="7"/>
@@ -3441,57 +3585,60 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="9"/>
-      <c r="AA50" s="72"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="7"/>
       <c r="AD50" s="8"/>
-      <c r="AE50" s="72"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="1"/>
-    </row>
-    <row r="51" spans="2:36">
-      <c r="B51" s="79"/>
-      <c r="C51" s="135" t="s">
-        <v>47</v>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="69"/>
+      <c r="AH50" s="140"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="1"/>
+    </row>
+    <row r="51" spans="2:39">
+      <c r="B51" s="76"/>
+      <c r="C51" s="121" t="s">
+        <v>45</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="102"/>
-      <c r="N51" s="29"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="102"/>
-      <c r="R51" s="29"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="28"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="102"/>
-      <c r="V51" s="29"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="28"/>
       <c r="W51" s="4"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="4"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="4"/>
+      <c r="AA51" s="4"/>
       <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="28">
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="27">
         <v>46399</v>
       </c>
     </row>
-    <row r="52" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B52" s="74"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="139"/>
+    <row r="52" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B52" s="71"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="125"/>
       <c r="F52" s="19"/>
       <c r="G52" s="4"/>
       <c r="I52" s="4"/>
@@ -3501,29 +3648,29 @@
       <c r="N52" s="5"/>
       <c r="O52" s="4"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="29"/>
+      <c r="Q52" s="91"/>
+      <c r="R52" s="28"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="102"/>
-      <c r="V52" s="29"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="91"/>
+      <c r="V52" s="28"/>
       <c r="W52" s="4"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="2"/>
-    </row>
-    <row r="53" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B53" s="39"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="40"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="2"/>
+    </row>
+    <row r="53" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B53" s="38"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="19"/>
       <c r="G53" s="4"/>
       <c r="I53" s="4"/>
@@ -3533,70 +3680,70 @@
       <c r="N53" s="5"/>
       <c r="O53" s="4"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="102"/>
-      <c r="R53" s="29"/>
+      <c r="Q53" s="91"/>
+      <c r="R53" s="28"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="102"/>
-      <c r="V53" s="29"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="91"/>
+      <c r="V53" s="28"/>
       <c r="W53" s="4"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B54" s="44" t="s">
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="2"/>
+    </row>
+    <row r="54" spans="2:39" ht="18.75" customHeight="1">
+      <c r="B54" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="49"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="91"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="81"/>
       <c r="M54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="29"/>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="28"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="102"/>
-      <c r="V54" s="29"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="91"/>
+      <c r="V54" s="28"/>
       <c r="W54" s="4"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="28">
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="27">
         <v>46399</v>
       </c>
-      <c r="AI54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B55" s="37"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="38"/>
+      <c r="AL54" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B55" s="36"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="19"/>
       <c r="G55" s="4"/>
       <c r="I55" s="4"/>
@@ -3606,29 +3753,29 @@
       <c r="N55" s="5"/>
       <c r="O55" s="4"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="29"/>
+      <c r="Q55" s="91"/>
+      <c r="R55" s="28"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="102"/>
-      <c r="V55" s="29"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="91"/>
+      <c r="V55" s="28"/>
       <c r="W55" s="4"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="40"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="19"/>
+      <c r="AJ55" s="2"/>
+    </row>
+    <row r="56" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B56" s="38"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="19"/>
       <c r="G56" s="4"/>
       <c r="I56" s="4"/>
@@ -3638,71 +3785,71 @@
       <c r="N56" s="5"/>
       <c r="O56" s="4"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="102"/>
-      <c r="R56" s="29"/>
+      <c r="Q56" s="91"/>
+      <c r="R56" s="28"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="102"/>
-      <c r="V56" s="29"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="91"/>
+      <c r="V56" s="28"/>
       <c r="W56" s="4"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
-      <c r="AF56" s="19"/>
-      <c r="AG56" s="2"/>
-    </row>
-    <row r="57" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B57" s="44" t="s">
-        <v>41</v>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="2"/>
+    </row>
+    <row r="57" spans="2:39" ht="18.75" customHeight="1">
+      <c r="B57" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="49"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="108"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="97"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5"/>
       <c r="O57" s="4"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="102"/>
-      <c r="R57" s="29"/>
+      <c r="Q57" s="91"/>
+      <c r="R57" s="28"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="102"/>
-      <c r="V57" s="29"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="28"/>
       <c r="W57" s="4"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="2"/>
-      <c r="AH57" s="28">
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="27">
         <v>46399</v>
       </c>
-      <c r="AI57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B58" s="37"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="38"/>
+      <c r="AL57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B58" s="36"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="37"/>
       <c r="F58" s="19"/>
       <c r="H58" s="5"/>
       <c r="I58" s="4"/>
@@ -3712,29 +3859,29 @@
       <c r="N58" s="5"/>
       <c r="O58" s="4"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="102"/>
-      <c r="R58" s="29"/>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="28"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="102"/>
-      <c r="V58" s="29"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="91"/>
+      <c r="V58" s="28"/>
       <c r="W58" s="4"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
-      <c r="AF58" s="19"/>
-      <c r="AG58" s="2"/>
-    </row>
-    <row r="59" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B59" s="39"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="40"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="19"/>
+      <c r="AJ58" s="2"/>
+    </row>
+    <row r="59" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B59" s="38"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="39"/>
       <c r="F59" s="19"/>
       <c r="H59" s="5"/>
       <c r="I59" s="4"/>
@@ -3744,71 +3891,71 @@
       <c r="N59" s="5"/>
       <c r="O59" s="4"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="102"/>
-      <c r="R59" s="29"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="28"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="102"/>
-      <c r="V59" s="29"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="91"/>
+      <c r="V59" s="28"/>
       <c r="W59" s="4"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="2"/>
-    </row>
-    <row r="60" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B60" s="44" t="s">
-        <v>42</v>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="2"/>
+    </row>
+    <row r="60" spans="2:39" ht="18.75" customHeight="1">
+      <c r="B60" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="49"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="108"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="97"/>
       <c r="M60" s="4"/>
       <c r="N60" s="5"/>
       <c r="O60" s="4"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="102"/>
-      <c r="R60" s="29"/>
+      <c r="Q60" s="91"/>
+      <c r="R60" s="28"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="102"/>
-      <c r="V60" s="29"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="91"/>
+      <c r="V60" s="28"/>
       <c r="W60" s="4"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="5"/>
       <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="28">
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="27">
         <v>46399</v>
       </c>
-      <c r="AI60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B61" s="37"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="38"/>
+      <c r="AL60" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B61" s="36"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="19"/>
       <c r="G61" s="4"/>
       <c r="I61" s="4"/>
@@ -3816,29 +3963,29 @@
       <c r="M61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="102"/>
-      <c r="R61" s="29"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="28"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="102"/>
-      <c r="V61" s="29"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="91"/>
+      <c r="V61" s="28"/>
       <c r="W61" s="4"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="19"/>
-      <c r="AG61" s="2"/>
-    </row>
-    <row r="62" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="140"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="19"/>
+      <c r="AJ61" s="2"/>
+    </row>
+    <row r="62" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="126"/>
       <c r="F62" s="19"/>
       <c r="G62" s="4"/>
       <c r="I62" s="4"/>
@@ -3846,365 +3993,365 @@
       <c r="M62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="29"/>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="28"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="102"/>
-      <c r="V62" s="29"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="91"/>
+      <c r="V62" s="28"/>
       <c r="W62" s="4"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="2"/>
-    </row>
-    <row r="63" spans="2:36">
-      <c r="B63" s="79"/>
-      <c r="C63" s="135" t="s">
-        <v>48</v>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="19"/>
+      <c r="AJ62" s="2"/>
+    </row>
+    <row r="63" spans="2:39">
+      <c r="B63" s="76"/>
+      <c r="C63" s="121" t="s">
+        <v>46</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="29"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="28"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="102"/>
-      <c r="V63" s="29"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="91"/>
+      <c r="V63" s="28"/>
       <c r="W63" s="4"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="5"/>
       <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="19"/>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="28">
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="27">
         <v>47127</v>
       </c>
-      <c r="AJ63" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="139"/>
+      <c r="AM63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B64" s="71"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="125"/>
       <c r="F64" s="19"/>
       <c r="G64" s="4"/>
       <c r="I64" s="4"/>
       <c r="L64" s="5"/>
       <c r="M64" s="4"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="29"/>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="28"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="102"/>
-      <c r="V64" s="29"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="28"/>
       <c r="W64" s="4"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
-      <c r="AF64" s="19"/>
-      <c r="AG64" s="2"/>
-    </row>
-    <row r="65" spans="2:36" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B65" s="44"/>
-      <c r="E65" s="45"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="19"/>
+      <c r="AJ64" s="2"/>
+    </row>
+    <row r="65" spans="2:39" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B65" s="43"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="19"/>
       <c r="H65" s="5"/>
       <c r="I65" s="4"/>
       <c r="L65" s="5"/>
       <c r="M65" s="4"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="102"/>
-      <c r="R65" s="29"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="28"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="102"/>
-      <c r="V65" s="29"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="91"/>
+      <c r="V65" s="28"/>
       <c r="W65" s="4"/>
       <c r="X65" s="5"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="3"/>
-    </row>
-    <row r="66" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B66" s="44" t="s">
-        <v>50</v>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="3"/>
+    </row>
+    <row r="66" spans="2:39" ht="18.75" customHeight="1">
+      <c r="B66" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="49"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="101"/>
-      <c r="K66" s="101"/>
-      <c r="L66" s="91"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="101"/>
-      <c r="O66" s="101"/>
-      <c r="P66" s="101"/>
-      <c r="Q66" s="102"/>
-      <c r="R66" s="29"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="90"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="28"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="102"/>
-      <c r="V66" s="29"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="91"/>
+      <c r="V66" s="28"/>
       <c r="W66" s="4"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="28">
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="27">
         <v>47127</v>
       </c>
     </row>
-    <row r="67" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B67" s="37"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="38"/>
+    <row r="67" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B67" s="36"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="37"/>
       <c r="F67" s="19"/>
       <c r="G67" s="4"/>
       <c r="I67" s="4"/>
       <c r="L67" s="5"/>
       <c r="M67" s="4"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="29"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="28"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="102"/>
-      <c r="V67" s="29"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="91"/>
+      <c r="V67" s="28"/>
       <c r="W67" s="4"/>
       <c r="X67" s="5"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="2"/>
-    </row>
-    <row r="68" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B68" s="39"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="40"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="19"/>
+      <c r="AJ67" s="2"/>
+    </row>
+    <row r="68" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B68" s="38"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="39"/>
       <c r="F68" s="19"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="115"/>
+      <c r="M68" s="104"/>
       <c r="P68" s="5"/>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="29"/>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="28"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="102"/>
-      <c r="V68" s="29"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="91"/>
+      <c r="V68" s="28"/>
       <c r="W68" s="4"/>
       <c r="X68" s="5"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="2"/>
-    </row>
-    <row r="69" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B69" s="44" t="s">
-        <v>39</v>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="19"/>
+      <c r="AJ68" s="2"/>
+    </row>
+    <row r="69" spans="2:39" ht="18.75" customHeight="1">
+      <c r="B69" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="49"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
-      <c r="K69" s="92"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="102"/>
-      <c r="R69" s="29"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="97"/>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="28"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="102"/>
-      <c r="V69" s="29"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="91"/>
+      <c r="V69" s="28"/>
       <c r="W69" s="4"/>
       <c r="X69" s="5"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="28">
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="19"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="27">
         <v>47127</v>
       </c>
-      <c r="AI69" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B70" s="37"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="38"/>
+      <c r="AL69" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B70" s="36"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="37"/>
       <c r="F70" s="19"/>
       <c r="G70" s="4"/>
       <c r="I70" s="4"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="117"/>
+      <c r="M70" s="105"/>
       <c r="P70" s="5"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="29"/>
+      <c r="Q70" s="91"/>
+      <c r="R70" s="28"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="102"/>
-      <c r="V70" s="29"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="28"/>
       <c r="W70" s="4"/>
       <c r="X70" s="5"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="2"/>
-    </row>
-    <row r="71" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B71" s="76"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="140"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="19"/>
+      <c r="AJ70" s="2"/>
+    </row>
+    <row r="71" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B71" s="73"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="126"/>
       <c r="F71" s="19"/>
       <c r="G71" s="4"/>
       <c r="I71" s="4"/>
       <c r="L71" s="5"/>
       <c r="M71" s="4"/>
       <c r="P71" s="5"/>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="29"/>
+      <c r="Q71" s="91"/>
+      <c r="R71" s="28"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="102"/>
-      <c r="V71" s="29"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="91"/>
+      <c r="V71" s="28"/>
       <c r="W71" s="4"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="2"/>
-    </row>
-    <row r="72" spans="2:36">
-      <c r="B72" s="79"/>
-      <c r="C72" s="135" t="s">
-        <v>51</v>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="4"/>
+      <c r="AI71" s="19"/>
+      <c r="AJ71" s="2"/>
+    </row>
+    <row r="72" spans="2:39">
+      <c r="B72" s="76"/>
+      <c r="C72" s="121" t="s">
+        <v>49</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="82"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
       <c r="W72" s="4"/>
       <c r="X72" s="5"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="2"/>
-      <c r="AH72" s="28">
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="27">
         <v>48135</v>
       </c>
-      <c r="AJ72" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B73" s="74"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="139"/>
+      <c r="AM72" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B73" s="71"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="125"/>
       <c r="F73" s="19"/>
       <c r="G73" s="4"/>
       <c r="I73" s="4"/>
@@ -4218,23 +4365,23 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="2"/>
-    </row>
-    <row r="74" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B74" s="39"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="40"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="19"/>
+      <c r="AJ73" s="2"/>
+    </row>
+    <row r="74" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B74" s="38"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="19"/>
       <c r="G74" s="4"/>
       <c r="I74" s="4"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="115"/>
+      <c r="M74" s="104"/>
       <c r="P74" s="5"/>
       <c r="S74" s="4"/>
       <c r="U74" s="4"/>
@@ -4243,64 +4390,64 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="2"/>
-    </row>
-    <row r="75" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B75" s="44" t="s">
-        <v>43</v>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="19"/>
+      <c r="AJ74" s="2"/>
+    </row>
+    <row r="75" spans="2:39" ht="18.75" customHeight="1">
+      <c r="B75" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="49"/>
+      <c r="E75" s="48"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="114"/>
-      <c r="M75" s="114"/>
-      <c r="N75" s="114"/>
-      <c r="O75" s="114"/>
-      <c r="P75" s="110"/>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="114"/>
-      <c r="S75" s="114"/>
-      <c r="T75" s="113"/>
-      <c r="U75" s="108"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="82"/>
+      <c r="M75" s="82"/>
+      <c r="N75" s="82"/>
+      <c r="O75" s="82"/>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="99"/>
+      <c r="R75" s="103"/>
+      <c r="S75" s="103"/>
+      <c r="T75" s="102"/>
+      <c r="U75" s="97"/>
       <c r="W75" s="4"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
-      <c r="AF75" s="19"/>
-      <c r="AG75" s="2"/>
-      <c r="AH75" s="28">
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="19"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="27">
         <v>48135</v>
       </c>
-      <c r="AI75" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B76" s="37"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="38"/>
+      <c r="AL75" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B76" s="36"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="19"/>
       <c r="H76" s="5"/>
       <c r="I76" s="4"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="117"/>
+      <c r="M76" s="105"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="4"/>
       <c r="S76" s="4"/>
@@ -4310,23 +4457,23 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
-      <c r="AF76" s="19"/>
-      <c r="AG76" s="2"/>
-    </row>
-    <row r="77" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B77" s="78"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="40"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="19"/>
+      <c r="AJ76" s="2"/>
+    </row>
+    <row r="77" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B77" s="75"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="19"/>
       <c r="H77" s="5"/>
       <c r="I77" s="4"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="115"/>
+      <c r="M77" s="104"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="4"/>
       <c r="S77" s="4"/>
@@ -4336,575 +4483,675 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
-      <c r="AF77" s="19"/>
-      <c r="AG77" s="2"/>
-    </row>
-    <row r="78" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B78" s="44" t="s">
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="2"/>
+    </row>
+    <row r="78" spans="2:39" ht="18.75" customHeight="1">
+      <c r="B78" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="49"/>
+      <c r="E78" s="48"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="92"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="114"/>
-      <c r="P78" s="110"/>
-      <c r="Q78" s="110"/>
-      <c r="R78" s="114"/>
-      <c r="S78" s="114"/>
-      <c r="T78" s="113"/>
-      <c r="U78" s="108"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="82"/>
+      <c r="O78" s="82"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="99"/>
+      <c r="R78" s="103"/>
+      <c r="S78" s="103"/>
+      <c r="T78" s="102"/>
+      <c r="U78" s="97"/>
       <c r="W78" s="4"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
-      <c r="AF78" s="19"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="28">
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="19"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="27">
         <v>48135</v>
       </c>
-      <c r="AI78" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="B79" s="37"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="38"/>
+      <c r="AL78" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:39" ht="5.0999999999999996" customHeight="1">
+      <c r="B79" s="36"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="37"/>
       <c r="F79" s="19"/>
       <c r="H79" s="5"/>
       <c r="I79" s="4"/>
       <c r="L79" s="5"/>
       <c r="M79" s="4"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="102"/>
-      <c r="R79" s="29"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="28"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="102"/>
-      <c r="V79" s="29"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="91"/>
+      <c r="V79" s="28"/>
       <c r="W79" s="4"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
-      <c r="AF79" s="19"/>
-      <c r="AG79" s="2"/>
-    </row>
-    <row r="80" spans="2:36" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B80" s="39"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="40"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="19"/>
+      <c r="AJ79" s="2"/>
+    </row>
+    <row r="80" spans="2:39" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B80" s="38"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="19"/>
       <c r="H80" s="5"/>
       <c r="I80" s="4"/>
       <c r="L80" s="5"/>
       <c r="M80" s="4"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="102"/>
-      <c r="R80" s="29"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="28"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="102"/>
-      <c r="V80" s="29"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="91"/>
+      <c r="V80" s="28"/>
       <c r="W80" s="4"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
-      <c r="AF80" s="19"/>
-      <c r="AG80" s="2"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="3"/>
-    </row>
-    <row r="81" spans="2:34" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B81" s="48" t="s">
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="19"/>
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="3"/>
+    </row>
+    <row r="81" spans="2:37" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B81" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="126"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="112"/>
       <c r="H81" s="5"/>
       <c r="I81" s="4"/>
       <c r="L81" s="5"/>
       <c r="M81" s="4"/>
       <c r="P81" s="5"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="29"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="28"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="29"/>
-      <c r="U81" s="102"/>
-      <c r="V81" s="29"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="91"/>
+      <c r="V81" s="28"/>
       <c r="W81" s="4"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
-      <c r="AF81" s="19"/>
-      <c r="AH81" s="66" t="s">
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="19"/>
+      <c r="AK81" s="63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B82" s="37"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="38"/>
+    <row r="82" spans="2:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B82" s="36"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="37"/>
       <c r="F82" s="19"/>
       <c r="H82" s="5"/>
       <c r="I82" s="4"/>
       <c r="L82" s="5"/>
       <c r="M82" s="4"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="102"/>
-      <c r="R82" s="29"/>
+      <c r="Q82" s="91"/>
+      <c r="R82" s="28"/>
       <c r="S82" s="4"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="102"/>
-      <c r="V82" s="29"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="91"/>
+      <c r="V82" s="28"/>
       <c r="W82" s="4"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
-      <c r="AF82" s="19"/>
-    </row>
-    <row r="83" spans="2:34" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B83" s="39"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="40"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="19"/>
+    </row>
+    <row r="83" spans="2:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B83" s="38"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="19"/>
       <c r="H83" s="5"/>
       <c r="I83" s="4"/>
       <c r="L83" s="5"/>
       <c r="M83" s="4"/>
       <c r="P83" s="5"/>
-      <c r="Q83" s="102"/>
-      <c r="R83" s="29"/>
+      <c r="Q83" s="91"/>
+      <c r="R83" s="28"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="102"/>
-      <c r="V83" s="29"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="28"/>
       <c r="W83" s="4"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="5"/>
       <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
-      <c r="AF83" s="19"/>
-    </row>
-    <row r="84" spans="2:34" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B84" s="48" t="s">
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+      <c r="AI83" s="19"/>
+    </row>
+    <row r="84" spans="2:37" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B84" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="126"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="112"/>
       <c r="H84" s="5"/>
       <c r="I84" s="4"/>
       <c r="L84" s="5"/>
       <c r="M84" s="4"/>
       <c r="P84" s="5"/>
-      <c r="Q84" s="102"/>
-      <c r="R84" s="29"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="28"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="102"/>
-      <c r="V84" s="29"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="91"/>
+      <c r="V84" s="28"/>
       <c r="W84" s="4"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
-      <c r="AF84" s="19"/>
-      <c r="AH84" s="67">
+      <c r="AG84" s="4"/>
+      <c r="AH84" s="4"/>
+      <c r="AI84" s="19"/>
+      <c r="AK84" s="64">
         <v>45426</v>
       </c>
     </row>
-    <row r="85" spans="2:34" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B85" s="37"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="38"/>
+    <row r="85" spans="2:37" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B85" s="36"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="37"/>
       <c r="F85" s="19"/>
       <c r="H85" s="5"/>
       <c r="I85" s="4"/>
       <c r="L85" s="5"/>
       <c r="M85" s="4"/>
       <c r="P85" s="5"/>
-      <c r="Q85" s="102"/>
-      <c r="R85" s="29"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="28"/>
       <c r="S85" s="4"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="102"/>
-      <c r="V85" s="29"/>
+      <c r="T85" s="28"/>
+      <c r="U85" s="91"/>
+      <c r="V85" s="28"/>
       <c r="W85" s="4"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="4"/>
       <c r="Z85" s="5"/>
       <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
-      <c r="AF85" s="19"/>
-    </row>
-    <row r="86" spans="2:34" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B86" s="39"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="40"/>
+      <c r="AG85" s="4"/>
+      <c r="AH85" s="4"/>
+      <c r="AI85" s="19"/>
+    </row>
+    <row r="86" spans="2:37" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B86" s="38"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="19"/>
       <c r="H86" s="5"/>
       <c r="I86" s="4"/>
       <c r="L86" s="5"/>
       <c r="M86" s="4"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="102"/>
-      <c r="R86" s="29"/>
+      <c r="Q86" s="91"/>
+      <c r="R86" s="28"/>
       <c r="S86" s="4"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="102"/>
-      <c r="V86" s="29"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="91"/>
+      <c r="V86" s="28"/>
       <c r="W86" s="4"/>
       <c r="X86" s="5"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="5"/>
       <c r="AA86" s="4"/>
-      <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
-      <c r="AF86" s="19"/>
-    </row>
-    <row r="87" spans="2:34" ht="18.75" customHeight="1">
-      <c r="B87" s="48" t="s">
+      <c r="AG86" s="4"/>
+      <c r="AH86" s="4"/>
+      <c r="AI86" s="19"/>
+    </row>
+    <row r="87" spans="2:37" ht="18.75" customHeight="1">
+      <c r="B87" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="160"/>
-      <c r="I87" s="160"/>
-      <c r="J87" s="161"/>
-      <c r="K87" s="161"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="90"/>
+      <c r="K87" s="90"/>
       <c r="M87" s="4"/>
       <c r="P87" s="5"/>
-      <c r="Q87" s="102"/>
-      <c r="R87" s="29"/>
+      <c r="Q87" s="91"/>
+      <c r="R87" s="28"/>
       <c r="S87" s="4"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="102"/>
-      <c r="V87" s="29"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="91"/>
+      <c r="V87" s="28"/>
       <c r="W87" s="4"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
-      <c r="AF87" s="19"/>
-      <c r="AH87" s="89">
+      <c r="AG87" s="4"/>
+      <c r="AH87" s="4"/>
+      <c r="AI87" s="19"/>
+      <c r="AK87" s="64">
         <v>46336</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B88" s="37"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="38"/>
+    <row r="88" spans="2:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B88" s="36"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="19"/>
       <c r="G88" s="4"/>
       <c r="I88" s="4"/>
       <c r="K88" s="4"/>
       <c r="M88" s="4"/>
       <c r="P88" s="5"/>
-      <c r="Q88" s="102"/>
-      <c r="R88" s="29"/>
+      <c r="Q88" s="91"/>
+      <c r="R88" s="28"/>
       <c r="S88" s="4"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="102"/>
-      <c r="V88" s="29"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="91"/>
+      <c r="V88" s="28"/>
       <c r="W88" s="4"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="4"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
-      <c r="AF88" s="19"/>
-    </row>
-    <row r="89" spans="2:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B89" s="39"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="40"/>
+      <c r="AG88" s="4"/>
+      <c r="AH88" s="4"/>
+      <c r="AI88" s="19"/>
+    </row>
+    <row r="89" spans="2:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B89" s="38"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="19"/>
       <c r="G89" s="4"/>
       <c r="I89" s="4"/>
       <c r="K89" s="4"/>
       <c r="M89" s="4"/>
       <c r="P89" s="5"/>
-      <c r="Q89" s="102"/>
-      <c r="R89" s="29"/>
+      <c r="Q89" s="91"/>
+      <c r="R89" s="28"/>
       <c r="S89" s="4"/>
-      <c r="T89" s="29"/>
-      <c r="U89" s="102"/>
-      <c r="V89" s="29"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="91"/>
+      <c r="V89" s="28"/>
       <c r="W89" s="4"/>
       <c r="X89" s="5"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="5"/>
       <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
-      <c r="AF89" s="19"/>
-    </row>
-    <row r="90" spans="2:34" ht="18.75" customHeight="1">
-      <c r="B90" s="48" t="s">
+      <c r="AG89" s="4"/>
+      <c r="AH89" s="4"/>
+      <c r="AI89" s="19"/>
+    </row>
+    <row r="90" spans="2:37" ht="18.75" customHeight="1">
+      <c r="B90" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="101"/>
-      <c r="K90" s="4"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="90"/>
+      <c r="K90" s="90"/>
       <c r="M90" s="4"/>
       <c r="P90" s="5"/>
-      <c r="Q90" s="102"/>
-      <c r="R90" s="29"/>
+      <c r="Q90" s="91"/>
+      <c r="R90" s="28"/>
       <c r="S90" s="4"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="102"/>
-      <c r="V90" s="29"/>
+      <c r="T90" s="28"/>
+      <c r="U90" s="91"/>
+      <c r="V90" s="28"/>
       <c r="W90" s="4"/>
       <c r="X90" s="5"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="5"/>
       <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
-      <c r="AF90" s="19"/>
-      <c r="AH90" s="89">
-        <v>46154</v>
-      </c>
-    </row>
-    <row r="91" spans="2:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B91" s="37"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="38"/>
+      <c r="AG90" s="4"/>
+      <c r="AH90" s="4"/>
+      <c r="AI90" s="19"/>
+      <c r="AK90" s="64">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="91" spans="2:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B91" s="36"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="37"/>
       <c r="F91" s="19"/>
       <c r="G91" s="4"/>
       <c r="I91" s="4"/>
       <c r="K91" s="4"/>
       <c r="M91" s="4"/>
       <c r="P91" s="5"/>
-      <c r="Q91" s="102"/>
-      <c r="R91" s="29"/>
+      <c r="Q91" s="91"/>
+      <c r="R91" s="28"/>
       <c r="S91" s="4"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="102"/>
-      <c r="V91" s="29"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="91"/>
+      <c r="V91" s="28"/>
       <c r="W91" s="4"/>
       <c r="X91" s="5"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="5"/>
       <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
-      <c r="AF91" s="19"/>
-    </row>
-    <row r="92" spans="2:34" ht="5.0999999999999996" customHeight="1">
-      <c r="B92" s="39"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="40"/>
+      <c r="AG91" s="4"/>
+      <c r="AH91" s="4"/>
+      <c r="AI91" s="19"/>
+    </row>
+    <row r="92" spans="2:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B92" s="38"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="39"/>
       <c r="F92" s="19"/>
       <c r="G92" s="4"/>
       <c r="I92" s="4"/>
       <c r="K92" s="4"/>
       <c r="M92" s="4"/>
       <c r="P92" s="5"/>
-      <c r="Q92" s="102"/>
-      <c r="R92" s="29"/>
+      <c r="Q92" s="91"/>
+      <c r="R92" s="28"/>
       <c r="S92" s="4"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="102"/>
-      <c r="V92" s="29"/>
+      <c r="T92" s="28"/>
+      <c r="U92" s="91"/>
+      <c r="V92" s="28"/>
       <c r="W92" s="4"/>
       <c r="X92" s="5"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="5"/>
       <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
-      <c r="AF92" s="19"/>
-    </row>
-    <row r="93" spans="2:34" ht="18.75" customHeight="1">
-      <c r="B93" s="68" t="s">
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="4"/>
+      <c r="AI92" s="19"/>
+    </row>
+    <row r="93" spans="2:37" ht="18.75" customHeight="1">
+      <c r="B93" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="49"/>
+      <c r="E93" s="48"/>
       <c r="F93" s="19"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="111"/>
-      <c r="J93" s="112"/>
-      <c r="K93" s="112"/>
-      <c r="L93" s="113"/>
-      <c r="M93" s="113"/>
-      <c r="N93" s="113"/>
-      <c r="O93" s="108"/>
-      <c r="Q93" s="102"/>
-      <c r="R93" s="29"/>
+      <c r="H93" s="111"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="90"/>
+      <c r="K93" s="90"/>
+      <c r="L93" s="138"/>
+      <c r="M93" s="138"/>
+      <c r="N93" s="138"/>
+      <c r="O93" s="138"/>
+      <c r="Q93" s="91"/>
+      <c r="R93" s="28"/>
       <c r="S93" s="4"/>
-      <c r="T93" s="102"/>
-      <c r="U93" s="102"/>
-      <c r="V93" s="29"/>
+      <c r="T93" s="91"/>
+      <c r="U93" s="91"/>
+      <c r="V93" s="28"/>
       <c r="W93" s="4"/>
       <c r="X93" s="5"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="5"/>
       <c r="AA93" s="4"/>
-      <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
-      <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
-      <c r="AF93" s="19"/>
-      <c r="AH93" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="2:34" ht="9.75" customHeight="1" thickBot="1">
-      <c r="B94" s="41"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="64"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="64"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="64"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="64"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="64"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="64"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="64"/>
-      <c r="X94" s="11"/>
-      <c r="Y94" s="64"/>
-      <c r="Z94" s="11"/>
-      <c r="AA94" s="11"/>
-      <c r="AB94" s="11"/>
-      <c r="AC94" s="11"/>
-      <c r="AD94" s="11"/>
-      <c r="AE94" s="12"/>
-      <c r="AF94" s="19"/>
-    </row>
-    <row r="95" spans="2:34" ht="5.0999999999999996" customHeight="1"/>
-    <row r="96" spans="2:34">
-      <c r="B96" s="46"/>
-      <c r="C96" s="3" t="s">
+      <c r="AG93" s="4"/>
+      <c r="AH93" s="4"/>
+      <c r="AI93" s="19"/>
+      <c r="AK93" s="27">
+        <v>47071</v>
+      </c>
+    </row>
+    <row r="94" spans="2:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B94" s="36"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="91"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="28"/>
+      <c r="U94" s="91"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AE94" s="4"/>
+      <c r="AG94" s="4"/>
+      <c r="AH94" s="4"/>
+      <c r="AI94" s="19"/>
+    </row>
+    <row r="95" spans="2:37" ht="5.0999999999999996" customHeight="1">
+      <c r="B95" s="38"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="91"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="91"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AG95" s="4"/>
+      <c r="AH95" s="4"/>
+      <c r="AI95" s="19"/>
+    </row>
+    <row r="96" spans="2:37" ht="18.75" customHeight="1">
+      <c r="B96" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="111"/>
+      <c r="I96" s="4"/>
+      <c r="K96" s="100"/>
+      <c r="L96" s="101"/>
+      <c r="M96" s="101"/>
+      <c r="N96" s="101"/>
+      <c r="O96" s="97"/>
+      <c r="Q96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="91"/>
+      <c r="U96" s="91"/>
+      <c r="V96" s="28"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AG96" s="4"/>
+      <c r="AH96" s="4"/>
+      <c r="AI96" s="19"/>
+      <c r="AK96" s="27">
+        <v>47071</v>
+      </c>
+    </row>
+    <row r="97" spans="2:35" ht="9.75" customHeight="1" thickBot="1">
+      <c r="B97" s="40"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="61"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="61"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="61"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="61"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="61"/>
+      <c r="X97" s="31"/>
+      <c r="Y97" s="61"/>
+      <c r="Z97" s="31"/>
+      <c r="AA97" s="61"/>
+      <c r="AB97" s="31"/>
+      <c r="AC97" s="61"/>
+      <c r="AD97" s="31"/>
+      <c r="AE97" s="61"/>
+      <c r="AF97" s="31"/>
+      <c r="AG97" s="11"/>
+      <c r="AH97" s="128"/>
+      <c r="AI97" s="19"/>
+    </row>
+    <row r="98" spans="2:35" ht="5.0999999999999996" customHeight="1"/>
+    <row r="99" spans="2:35">
+      <c r="B99" s="45"/>
+      <c r="C99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+    </row>
+    <row r="100" spans="2:35">
+      <c r="B100" s="18"/>
+      <c r="C100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="23"/>
+    </row>
+    <row r="101" spans="2:35">
+      <c r="B101" s="46"/>
+      <c r="C101" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="2:27">
-      <c r="B97" s="18"/>
-      <c r="C97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="24"/>
-    </row>
-    <row r="98" spans="2:27">
-      <c r="B98" s="47"/>
-      <c r="C98" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="24"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="34">
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="P4:Q4"/>
